--- a/file.xlsx
+++ b/file.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="322">
   <si>
     <t>Id</t>
   </si>
@@ -74,7 +74,7 @@
     <t>RCSlabType</t>
   </si>
   <si>
-    <t>6329cbab08902</t>
+    <t>632d897edd95b</t>
   </si>
   <si>
     <t>Ремонт и строительство</t>
@@ -86,100 +86,4810 @@
     <t>Нижний Новгород</t>
   </si>
   <si>
+    <t>Бордюр дорожный</t>
+  </si>
+  <si>
+    <t>Бордюр дорожный 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️Марка прочности М402
+ ✔️Морозостойкость 200 циклов
+ ✔️Класс бетона В33
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!
+Ищите нас по запросам:
+бордюр для дорожек
+бордюр для клумбы
+бордюр для плитки
+бордюр для тротуарной плитки
+бордюр 1000х200х80 цена
+бордюр бетонный
+бордюр дорожный
+бордюр садовый
+бордюр садовый купить
+бордюр тротуарный
+бордюр тротуарный 1000х200х80
+бордюр тротуарный цена
+бордюр цена
+бордюрный камень
+бордюрный камень для дорожек
+бордюрный камень 1000х200х80
+бордюрный камень 1000х200х80 цена
+бордюрный камень размеры
+бордюрный камень размеры цена
+бордюрный камень садовый
+бордюрный камень садовый купить
+бордюрный камень тротуарный
+бордюрный камень тротуарный размеры
+бордюрный камень тротуарный размеры цена
+бордюрный камень цена
+бордюры на даче
+бортовой камень
+бортовой камень 100.20
+бортовой камень 100.20 8
+бортовой камень 100.30 15
+бортовой камень бр
+бортовой камень бр 100.30
+бортовой камень бр 100.30 15
+бортовой камень размеры
+бортовой камень расценка
+бортовой камень цена
+бортовые камни бр цена
+гранитный бордюр
+гранитный бортовой камень
+дорожный бортовой камень
+цена бордюрного камня тротуарного
+поребрик
+поребрик купить
+поребрик тротуарный
+поребрик цена
+плитка поребрик
+поребрик тротуарный купить
+поребрик тротуарный цена
+поребрик размеры
+поребрик садовый
+поребрики для тротуарной плитки</t>
+  </si>
+  <si>
+    <t>Новое</t>
+  </si>
+  <si>
+    <t>2022-09-26T11:00:00+03:00</t>
+  </si>
+  <si>
+    <t>2022-09-27T11:00:00+03:00</t>
+  </si>
+  <si>
+    <t>Да</t>
+  </si>
+  <si>
+    <t>+7 964 831-55-11</t>
+  </si>
+  <si>
+    <t>Товар приобретен на продажу</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Бордюр дорожный/1/1.jpg | http://maket.loc/assets/images/Бордюр дорожный/1/2.jpg | http://maket.loc/assets/images/Бордюр дорожный/1/3.jpg</t>
+  </si>
+  <si>
+    <t>Железобетонные изделия</t>
+  </si>
+  <si>
+    <t>По телефону и в сообщениях</t>
+  </si>
+  <si>
+    <t>Free</t>
+  </si>
+  <si>
+    <t>Другое</t>
+  </si>
+  <si>
+    <t>632d8980ee134</t>
+  </si>
+  <si>
+    <t>Бордюр дорожный 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️Марка прочности М401
+ ✔️Морозостойкость 220 циклов
+ ✔️Класс бетона В33
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!
+Ищите нас по запросам:
+бордюр для дорожек
+бордюр для клумбы
+бордюр для плитки
+бордюр для тротуарной плитки
+бордюр 1000х200х80 цена
+бордюр бетонный
+бордюр дорожный
+бордюр садовый
+бордюр садовый купить
+бордюр тротуарный
+бордюр тротуарный 1000х200х80
+бордюр тротуарный цена
+бордюр цена
+бордюрный камень
+бордюрный камень для дорожек
+бордюрный камень 1000х200х80
+бордюрный камень 1000х200х80 цена
+бордюрный камень размеры
+бордюрный камень размеры цена
+бордюрный камень садовый
+бордюрный камень садовый купить
+бордюрный камень тротуарный
+бордюрный камень тротуарный размеры
+бордюрный камень тротуарный размеры цена
+бордюрный камень цена
+бордюры на даче
+бортовой камень
+бортовой камень 100.20
+бортовой камень 100.20 8
+бортовой камень 100.30 15
+бортовой камень бр
+бортовой камень бр 100.30
+бортовой камень бр 100.30 15
+бортовой камень размеры
+бортовой камень расценка
+бортовой камень цена
+бортовые камни бр цена
+гранитный бордюр
+гранитный бортовой камень
+дорожный бортовой камень
+цена бордюрного камня тротуарного
+поребрик
+поребрик купить
+поребрик тротуарный
+поребрик цена
+плитка поребрик
+поребрик тротуарный купить
+поребрик тротуарный цена
+поребрик размеры
+поребрик садовый
+поребрики для тротуарной плитки</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Бордюр дорожный/2/1.jpg | http://maket.loc/assets/images/Бордюр дорожный/2/2.jpg | http://maket.loc/assets/images/Бордюр дорожный/2/3.jpg</t>
+  </si>
+  <si>
+    <t>632d8981d0b63</t>
+  </si>
+  <si>
+    <t>Бордюр дорожный 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️Марка прочности М401
+ ✔️Морозостойкость 210 циклов
+ ✔️Класс бетона В30
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!
+Ищите нас по запросам:
+бордюр для дорожек
+бордюр для клумбы
+бордюр для плитки
+бордюр для тротуарной плитки
+бордюр 1000х200х80 цена
+бордюр бетонный
+бордюр дорожный
+бордюр садовый
+бордюр садовый купить
+бордюр тротуарный
+бордюр тротуарный 1000х200х80
+бордюр тротуарный цена
+бордюр цена
+бордюрный камень
+бордюрный камень для дорожек
+бордюрный камень 1000х200х80
+бордюрный камень 1000х200х80 цена
+бордюрный камень размеры
+бордюрный камень размеры цена
+бордюрный камень садовый
+бордюрный камень садовый купить
+бордюрный камень тротуарный
+бордюрный камень тротуарный размеры
+бордюрный камень тротуарный размеры цена
+бордюрный камень цена
+бордюры на даче
+бортовой камень
+бортовой камень 100.20
+бортовой камень 100.20 8
+бортовой камень 100.30 15
+бортовой камень бр
+бортовой камень бр 100.30
+бортовой камень бр 100.30 15
+бортовой камень размеры
+бортовой камень расценка
+бортовой камень цена
+бортовые камни бр цена
+гранитный бордюр
+гранитный бортовой камень
+дорожный бортовой камень
+цена бордюрного камня тротуарного
+поребрик
+поребрик купить
+поребрик тротуарный
+поребрик цена
+плитка поребрик
+поребрик тротуарный купить
+поребрик тротуарный цена
+поребрик размеры
+поребрик садовый
+поребрики для тротуарной плитки</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Бордюр дорожный/3/1036.jpg | http://maket.loc/assets/images/Бордюр дорожный/3/image (1).jpg | http://maket.loc/assets/images/Бордюр дорожный/3/image.jpg</t>
+  </si>
+  <si>
+    <t>632d89873a204</t>
+  </si>
+  <si>
+    <t>Бордюр дорожный 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️Марка прочности М401
+ ✔️Морозостойкость 220 циклов
+ ✔️Класс бетона В31
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!
+Ищите нас по запросам:
+бордюр для дорожек
+бордюр для клумбы
+бордюр для плитки
+бордюр для тротуарной плитки
+бордюр 1000х200х80 цена
+бордюр бетонный
+бордюр дорожный
+бордюр садовый
+бордюр садовый купить
+бордюр тротуарный
+бордюр тротуарный 1000х200х80
+бордюр тротуарный цена
+бордюр цена
+бордюрный камень
+бордюрный камень для дорожек
+бордюрный камень 1000х200х80
+бордюрный камень 1000х200х80 цена
+бордюрный камень размеры
+бордюрный камень размеры цена
+бордюрный камень садовый
+бордюрный камень садовый купить
+бордюрный камень тротуарный
+бордюрный камень тротуарный размеры
+бордюрный камень тротуарный размеры цена
+бордюрный камень цена
+бордюры на даче
+бортовой камень
+бортовой камень 100.20
+бортовой камень 100.20 8
+бортовой камень 100.30 15
+бортовой камень бр
+бортовой камень бр 100.30
+бортовой камень бр 100.30 15
+бортовой камень размеры
+бортовой камень расценка
+бортовой камень цена
+бортовые камни бр цена
+гранитный бордюр
+гранитный бортовой камень
+дорожный бортовой камень
+цена бордюрного камня тротуарного
+поребрик
+поребрик купить
+поребрик тротуарный
+поребрик цена
+плитка поребрик
+поребрик тротуарный купить
+поребрик тротуарный цена
+поребрик размеры
+поребрик садовый
+поребрики для тротуарной плитки</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Бордюр дорожный/4/1.jpg | http://maket.loc/assets/images/Бордюр дорожный/4/image (1).jpg | http://maket.loc/assets/images/Бордюр дорожный/4/image (2).jpg | http://maket.loc/assets/images/Бордюр дорожный/4/image (5).jpg | http://maket.loc/assets/images/Бордюр дорожный/4/image.jpg</t>
+  </si>
+  <si>
+    <t>632d899d42684</t>
+  </si>
+  <si>
+    <t>Бордюр</t>
+  </si>
+  <si>
+    <t>Бордюр 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️Марка прочности М402
+ ✔️Морозостойкость 200 циклов
+ ✔️Класс бетона В30
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!
+Ищите нас по запросам:
+бордюр для дорожек
+бордюр для клумбы
+бордюр для плитки
+бордюр для тротуарной плитки
+бордюр 1000х200х80 цена
+бордюр бетонный
+бордюр дорожный
+бордюр садовый
+бордюр садовый купить
+бордюр тротуарный
+бордюр тротуарный 1000х200х80
+бордюр тротуарный цена
+бордюр цена
+бордюрный камень
+бордюрный камень для дорожек
+бордюрный камень 1000х200х80
+бордюрный камень 1000х200х80 цена
+бордюрный камень размеры
+бордюрный камень размеры цена
+бордюрный камень садовый
+бордюрный камень садовый купить
+бордюрный камень тротуарный
+бордюрный камень тротуарный размеры
+бордюрный камень тротуарный размеры цена
+бордюрный камень цена
+бордюры на даче
+бортовой камень
+бортовой камень 100.20
+бортовой камень 100.20 8
+бортовой камень 100.30 15
+бортовой камень бр
+бортовой камень бр 100.30
+бортовой камень бр 100.30 15
+бортовой камень размеры
+бортовой камень расценка
+бортовой камень цена
+бортовые камни бр цена
+гранитный бордюр
+гранитный бортовой камень
+дорожный бортовой камень
+цена бордюрного камня тротуарного
+поребрик
+поребрик купить
+поребрик тротуарный
+поребрик цена
+плитка поребрик
+поребрик тротуарный купить
+поребрик тротуарный цена
+поребрик размеры
+поребрик садовый
+поребрики для тротуарной плитки</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Бордюр дорожный/5/image (1).jpg | http://maket.loc/assets/images/Бордюр дорожный/5/image (2).jpg | http://maket.loc/assets/images/Бордюр дорожный/5/image (3).jpg | http://maket.loc/assets/images/Бордюр дорожный/5/image (4).jpg | http://maket.loc/assets/images/Бордюр дорожный/5/image.jpg</t>
+  </si>
+  <si>
+    <t>632d899f75540</t>
+  </si>
+  <si>
+    <t>Бордюр 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️Марка прочности М400
+ ✔️Морозостойкость 200 циклов
+ ✔️Класс бетона В30
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!
+Ищите нас по запросам:
+бордюр для дорожек
+бордюр для клумбы
+бордюр для плитки
+бордюр для тротуарной плитки
+бордюр 1000х200х80 цена
+бордюр бетонный
+бордюр дорожный
+бордюр садовый
+бордюр садовый купить
+бордюр тротуарный
+бордюр тротуарный 1000х200х80
+бордюр тротуарный цена
+бордюр цена
+бордюрный камень
+бордюрный камень для дорожек
+бордюрный камень 1000х200х80
+бордюрный камень 1000х200х80 цена
+бордюрный камень размеры
+бордюрный камень размеры цена
+бордюрный камень садовый
+бордюрный камень садовый купить
+бордюрный камень тротуарный
+бордюрный камень тротуарный размеры
+бордюрный камень тротуарный размеры цена
+бордюрный камень цена
+бордюры на даче
+бортовой камень
+бортовой камень 100.20
+бортовой камень 100.20 8
+бортовой камень 100.30 15
+бортовой камень бр
+бортовой камень бр 100.30
+бортовой камень бр 100.30 15
+бортовой камень размеры
+бортовой камень расценка
+бортовой камень цена
+бортовые камни бр цена
+гранитный бордюр
+гранитный бортовой камень
+дорожный бортовой камень
+цена бордюрного камня тротуарного
+поребрик
+поребрик купить
+поребрик тротуарный
+поребрик цена
+плитка поребрик
+поребрик тротуарный купить
+поребрик тротуарный цена
+поребрик размеры
+поребрик садовый
+поребрики для тротуарной плитки</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Бордюр дорожный/6/image (1).jpg | http://maket.loc/assets/images/Бордюр дорожный/6/image (2).jpg | http://maket.loc/assets/images/Бордюр дорожный/6/image (4).jpg | http://maket.loc/assets/images/Бордюр дорожный/6/image (5).jpg | http://maket.loc/assets/images/Бордюр дорожный/6/image.jpg</t>
+  </si>
+  <si>
+    <t>632d89ee08ea8</t>
+  </si>
+  <si>
+    <t>Бордюр тротуарный</t>
+  </si>
+  <si>
+    <t>Бордюр тротуарный 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️Марка прочности М401
+ ✔️Морозостойкость 220 циклов
+ ✔️Класс бетона В33
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!
+Ищите нас по запросам:
+бордюр для дорожек
+бордюр для клумбы
+бордюр для плитки
+бордюр для тротуарной плитки
+бордюр 1000х200х80 цена
+бордюр бетонный
+бордюр дорожный
+бордюр садовый
+бордюр садовый купить
+бордюр тротуарный
+бордюр тротуарный 1000х200х80
+бордюр тротуарный цена
+бордюр цена
+бордюрный камень
+бордюрный камень для дорожек
+бордюрный камень 1000х200х80
+бордюрный камень 1000х200х80 цена
+бордюрный камень размеры
+бордюрный камень размеры цена
+бордюрный камень садовый
+бордюрный камень садовый купить
+бордюрный камень тротуарный
+бордюрный камень тротуарный размеры
+бордюрный камень тротуарный размеры цена
+бордюрный камень цена
+бордюры на даче
+бортовой камень
+бортовой камень 100.20
+бортовой камень 100.20 8
+бортовой камень 100.30 15
+бортовой камень бр
+бортовой камень бр 100.30
+бортовой камень бр 100.30 15
+бортовой камень размеры
+бортовой камень расценка
+бортовой камень цена
+бортовые камни бр цена
+гранитный бордюр
+гранитный бортовой камень
+дорожный бортовой камень
+цена бордюрного камня тротуарного
+поребрик
+поребрик купить
+поребрик тротуарный
+поребрик цена
+плитка поребрик
+поребрик тротуарный купить
+поребрик тротуарный цена
+поребрик размеры
+поребрик садовый
+поребрики для тротуарной плитки</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Бордюр тротуарный/3/image (7).jpg | http://maket.loc/assets/images/Бордюр тротуарный/3/image.jpg</t>
+  </si>
+  <si>
+    <t>632d89ef30e11</t>
+  </si>
+  <si>
+    <t>Бордюр тротуарный 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️Марка прочности М401
+ ✔️Морозостойкость 230 циклов
+ ✔️Класс бетона В32
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!
+Ищите нас по запросам:
+бордюр для дорожек
+бордюр для клумбы
+бордюр для плитки
+бордюр для тротуарной плитки
+бордюр 1000х200х80 цена
+бордюр бетонный
+бордюр дорожный
+бордюр садовый
+бордюр садовый купить
+бордюр тротуарный
+бордюр тротуарный 1000х200х80
+бордюр тротуарный цена
+бордюр цена
+бордюрный камень
+бордюрный камень для дорожек
+бордюрный камень 1000х200х80
+бордюрный камень 1000х200х80 цена
+бордюрный камень размеры
+бордюрный камень размеры цена
+бордюрный камень садовый
+бордюрный камень садовый купить
+бордюрный камень тротуарный
+бордюрный камень тротуарный размеры
+бордюрный камень тротуарный размеры цена
+бордюрный камень цена
+бордюры на даче
+бортовой камень
+бортовой камень 100.20
+бортовой камень 100.20 8
+бортовой камень 100.30 15
+бортовой камень бр
+бортовой камень бр 100.30
+бортовой камень бр 100.30 15
+бортовой камень размеры
+бортовой камень расценка
+бортовой камень цена
+бортовые камни бр цена
+гранитный бордюр
+гранитный бортовой камень
+дорожный бортовой камень
+цена бордюрного камня тротуарного
+поребрик
+поребрик купить
+поребрик тротуарный
+поребрик цена
+плитка поребрик
+поребрик тротуарный купить
+поребрик тротуарный цена
+поребрик размеры
+поребрик садовый
+поребрики для тротуарной плитки</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Бордюр тротуарный/4/image (1).jpg | http://maket.loc/assets/images/Бордюр тротуарный/4/image (2).jpg | http://maket.loc/assets/images/Бордюр тротуарный/4/image (3).jpg | http://maket.loc/assets/images/Бордюр тротуарный/4/image.jpg</t>
+  </si>
+  <si>
+    <t>632d89f075525</t>
+  </si>
+  <si>
+    <t>Бордюр тротуарный 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️Марка прочности М401
+ ✔️Морозостойкость 230 циклов
+ ✔️Класс бетона В33
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!
+Ищите нас по запросам:
+бордюр для дорожек
+бордюр для клумбы
+бордюр для плитки
+бордюр для тротуарной плитки
+бордюр 1000х200х80 цена
+бордюр бетонный
+бордюр дорожный
+бордюр садовый
+бордюр садовый купить
+бордюр тротуарный
+бордюр тротуарный 1000х200х80
+бордюр тротуарный цена
+бордюр цена
+бордюрный камень
+бордюрный камень для дорожек
+бордюрный камень 1000х200х80
+бордюрный камень 1000х200х80 цена
+бордюрный камень размеры
+бордюрный камень размеры цена
+бордюрный камень садовый
+бордюрный камень садовый купить
+бордюрный камень тротуарный
+бордюрный камень тротуарный размеры
+бордюрный камень тротуарный размеры цена
+бордюрный камень цена
+бордюры на даче
+бортовой камень
+бортовой камень 100.20
+бортовой камень 100.20 8
+бортовой камень 100.30 15
+бортовой камень бр
+бортовой камень бр 100.30
+бортовой камень бр 100.30 15
+бортовой камень размеры
+бортовой камень расценка
+бортовой камень цена
+бортовые камни бр цена
+гранитный бордюр
+гранитный бортовой камень
+дорожный бортовой камень
+цена бордюрного камня тротуарного
+поребрик
+поребрик купить
+поребрик тротуарный
+поребрик цена
+плитка поребрик
+поребрик тротуарный купить
+поребрик тротуарный цена
+поребрик размеры
+поребрик садовый
+поребрики для тротуарной плитки</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Бордюр тротуарный/1/4.jpg | http://maket.loc/assets/images/Бордюр тротуарный/1/5.jpg | http://maket.loc/assets/images/Бордюр тротуарный/1/6.jpg</t>
+  </si>
+  <si>
+    <t>632d89fe65b2a</t>
+  </si>
+  <si>
+    <t>Бордюр 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️Марка прочности М400
+ ✔️Морозостойкость 220 циклов
+ ✔️Класс бетона В32
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!
+Ищите нас по запросам:
+бордюр для дорожек
+бордюр для клумбы
+бордюр для плитки
+бордюр для тротуарной плитки
+бордюр 1000х200х80 цена
+бордюр бетонный
+бордюр дорожный
+бордюр садовый
+бордюр садовый купить
+бордюр тротуарный
+бордюр тротуарный 1000х200х80
+бордюр тротуарный цена
+бордюр цена
+бордюрный камень
+бордюрный камень для дорожек
+бордюрный камень 1000х200х80
+бордюрный камень 1000х200х80 цена
+бордюрный камень размеры
+бордюрный камень размеры цена
+бордюрный камень садовый
+бордюрный камень садовый купить
+бордюрный камень тротуарный
+бордюрный камень тротуарный размеры
+бордюрный камень тротуарный размеры цена
+бордюрный камень цена
+бордюры на даче
+бортовой камень
+бортовой камень 100.20
+бортовой камень 100.20 8
+бортовой камень 100.30 15
+бортовой камень бр
+бортовой камень бр 100.30
+бортовой камень бр 100.30 15
+бортовой камень размеры
+бортовой камень расценка
+бортовой камень цена
+бортовые камни бр цена
+гранитный бордюр
+гранитный бортовой камень
+дорожный бортовой камень
+цена бордюрного камня тротуарного
+поребрик
+поребрик купить
+поребрик тротуарный
+поребрик цена
+плитка поребрик
+поребрик тротуарный купить
+поребрик тротуарный цена
+поребрик размеры
+поребрик садовый
+поребрики для тротуарной плитки</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Бордюр тротуарный/2/1.jpg | http://maket.loc/assets/images/Бордюр тротуарный/2/2.jpg | http://maket.loc/assets/images/Бордюр тротуарный/2/3.jpg</t>
+  </si>
+  <si>
+    <t>632d8a0d2f3a0</t>
+  </si>
+  <si>
+    <t>Поребрик</t>
+  </si>
+  <si>
+    <t>Поребрик 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️Марка прочности М402
+ ✔️Морозостойкость 220 циклов
+ ✔️Класс бетона В30
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!
+Ищите нас по запросам:
+бордюр для дорожек
+бордюр для клумбы
+бордюр для плитки
+бордюр для тротуарной плитки
+бордюр 1000х200х80 цена
+бордюр бетонный
+бордюр дорожный
+бордюр садовый
+бордюр садовый купить
+бордюр тротуарный
+бордюр тротуарный 1000х200х80
+бордюр тротуарный цена
+бордюр цена
+бордюрный камень
+бордюрный камень для дорожек
+бордюрный камень 1000х200х80
+бордюрный камень 1000х200х80 цена
+бордюрный камень размеры
+бордюрный камень размеры цена
+бордюрный камень садовый
+бордюрный камень садовый купить
+бордюрный камень тротуарный
+бордюрный камень тротуарный размеры
+бордюрный камень тротуарный размеры цена
+бордюрный камень цена
+бордюры на даче
+бортовой камень
+бортовой камень 100.20
+бортовой камень 100.20 8
+бортовой камень 100.30 15
+бортовой камень бр
+бортовой камень бр 100.30
+бортовой камень бр 100.30 15
+бортовой камень размеры
+бортовой камень расценка
+бортовой камень цена
+бортовые камни бр цена
+гранитный бордюр
+гранитный бортовой камень
+дорожный бортовой камень
+цена бордюрного камня тротуарного
+поребрик
+поребрик купить
+поребрик тротуарный
+поребрик цена
+плитка поребрик
+поребрик тротуарный купить
+поребрик тротуарный цена
+поребрик размеры
+поребрик садовый
+поребрики для тротуарной плитки</t>
+  </si>
+  <si>
+    <t>632d8a11ee729</t>
+  </si>
+  <si>
+    <t>Поребрик 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️Марка прочности М410
+ ✔️Морозостойкость 200 циклов
+ ✔️Класс бетона В33
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!
+Ищите нас по запросам:
+бордюр для дорожек
+бордюр для клумбы
+бордюр для плитки
+бордюр для тротуарной плитки
+бордюр 1000х200х80 цена
+бордюр бетонный
+бордюр дорожный
+бордюр садовый
+бордюр садовый купить
+бордюр тротуарный
+бордюр тротуарный 1000х200х80
+бордюр тротуарный цена
+бордюр цена
+бордюрный камень
+бордюрный камень для дорожек
+бордюрный камень 1000х200х80
+бордюрный камень 1000х200х80 цена
+бордюрный камень размеры
+бордюрный камень размеры цена
+бордюрный камень садовый
+бордюрный камень садовый купить
+бордюрный камень тротуарный
+бордюрный камень тротуарный размеры
+бордюрный камень тротуарный размеры цена
+бордюрный камень цена
+бордюры на даче
+бортовой камень
+бортовой камень 100.20
+бортовой камень 100.20 8
+бортовой камень 100.30 15
+бортовой камень бр
+бортовой камень бр 100.30
+бортовой камень бр 100.30 15
+бортовой камень размеры
+бортовой камень расценка
+бортовой камень цена
+бортовые камни бр цена
+гранитный бордюр
+гранитный бортовой камень
+дорожный бортовой камень
+цена бордюрного камня тротуарного
+поребрик
+поребрик купить
+поребрик тротуарный
+поребрик цена
+плитка поребрик
+поребрик тротуарный купить
+поребрик тротуарный цена
+поребрик размеры
+поребрик садовый
+поребрики для тротуарной плитки</t>
+  </si>
+  <si>
+    <t>632d8a5343a5a</t>
+  </si>
+  <si>
+    <t>Брусчатка</t>
+  </si>
+  <si>
+    <t>Брусчатка 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️В наличии есть слеюущие формы брусчатки: Кирпичик,  квадрат, микс 2 и многие другие
+ ✔️Степень сжатия 1,185
+ ✔️Толщина 60 мм
+ ✔️Масса: 4,5 кг
+ Цена указана минимальная. Стоимость зависит от формы и цвета. Уточняйте у наших менеджеров в сообщениях или по телефону.
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!
+Ищите нас по запросам:
+бетонная брусчатка
+брусчатка
+брусчатка за м2
+брусчатка кирпичик
+брусчатка купить
+брусчатка купить цена
+брусчатка м2
+брусчатка метр
+брусчатка сколько
+брусчатка тротуарная
+брусчатка тротуарная купить
+брусчатка тротуарная цена
+брусчатка тротуарная цена за м2
+брусчатка цена
+брусчатка цена за м2
+квадратный метр брусчатки
+плитка брусчатка
+сколько стоит брусчатка
+тротуарная плитка брусчатка
+тротуарная плитка брусчатка купить</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Брусчатка/1/1.jpg | http://maket.loc/assets/images/Брусчатка/1/2.jpg | http://maket.loc/assets/images/Брусчатка/1/3.jpg</t>
+  </si>
+  <si>
+    <t>632d8a547d978</t>
+  </si>
+  <si>
+    <t>Брусчатка 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️В наличии есть слеюущие формы брусчатки: Классика,  микс 1,  паркет и многие другие
+ ✔️Степень сжатия 1,181
+ ✔️Толщина 60 мм
+ ✔️Масса: 2,7 кг
+ Цена указана минимальная. Стоимость зависит от формы и цвета. Уточняйте у наших менеджеров в сообщениях или по телефону.
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!
+Ищите нас по запросам:
+бетонная брусчатка
+брусчатка
+брусчатка за м2
+брусчатка кирпичик
+брусчатка купить
+брусчатка купить цена
+брусчатка м2
+брусчатка метр
+брусчатка сколько
+брусчатка тротуарная
+брусчатка тротуарная купить
+брусчатка тротуарная цена
+брусчатка тротуарная цена за м2
+брусчатка цена
+брусчатка цена за м2
+квадратный метр брусчатки
+плитка брусчатка
+сколько стоит брусчатка
+тротуарная плитка брусчатка
+тротуарная плитка брусчатка купить</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Брусчатка/2/4.jpg | http://maket.loc/assets/images/Брусчатка/2/5.jpg | http://maket.loc/assets/images/Брусчатка/2/6.jpg</t>
+  </si>
+  <si>
+    <t>632d8a5675db2</t>
+  </si>
+  <si>
+    <t>Брусчатка 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️В наличии есть слеюущие формы брусчатки: Катушка, волна,  беганит и многие другие
+ ✔️Степень сжатия 1,183
+ ✔️Толщина 40 мм
+ ✔️Масса: 4,5 кг
+ Цена указана минимальная. Стоимость зависит от формы и цвета. Уточняйте у наших менеджеров в сообщениях или по телефону.
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!
+Ищите нас по запросам:
+бетонная брусчатка
+брусчатка
+брусчатка за м2
+брусчатка кирпичик
+брусчатка купить
+брусчатка купить цена
+брусчатка м2
+брусчатка метр
+брусчатка сколько
+брусчатка тротуарная
+брусчатка тротуарная купить
+брусчатка тротуарная цена
+брусчатка тротуарная цена за м2
+брусчатка цена
+брусчатка цена за м2
+квадратный метр брусчатки
+плитка брусчатка
+сколько стоит брусчатка
+тротуарная плитка брусчатка
+тротуарная плитка брусчатка купить</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Брусчатка/3/7.jpg | http://maket.loc/assets/images/Брусчатка/3/8.jpg | http://maket.loc/assets/images/Брусчатка/3/9.jpg</t>
+  </si>
+  <si>
+    <t>632d8c78cbd98</t>
+  </si>
+  <si>
+    <t>Газосиликатный кирпич</t>
+  </si>
+  <si>
+    <t>Газосиликатный кирпич 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️ Размеры - есть все размеры и все производители
+ ✔️ Марка прочности - 600
+ ✔️ Класс по прочности на сжатие - В2,5 
+ ✔️ Средняя прочность - 64,8-65,9 кгс/см2
+ ✔️ Паропроницаемость - 0,20 мг/м ч Па
+ ✔️ Теплопроводность - 0,16 Вт/м2С
+ ✔️ Морозостойкость - не менее 25 циклов
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!
+Ищите нас по запросам:
+аэроблок
+бетон блок
+блок газосиликатный доставка
+блок газосиликатный эко
+блок ЛЗИД
+блок строительный
+блоки газосиликатные 300
+блоки газосиликатные могилев
+вес газосиликатного блока
+газоблок
+Газосиликат
+газосиликатные блоки
+газосиликатные блоки 200
+газосиликатные блоки 600
+газосиликатные блоки в кубе
+газосиликатные блоки куб
+газосиликатные блоки производители
+газосиликатные блоки размеры
+газосиликатные блоки сколько
+газосиликатные блоки цена
+газосиликатные блоки цена за куб
+газосиликатные блоки цена за штуку
+газосиликатный блок 600х300х200
+газосиликатный блок 600х300х200 цена
+дом из газосиликатных блоков
+доставка газосиликатных блоков
+завод газосиликатных блоков
+какие газосиликатные блоки
+кирпич силикатный полнотелый
+купить блоки газосиликатные с доставкой цена
+купить блоки газосиликатные цена
+купить газоблок
+купить газосиликатные блоки
+купить газосиликатные блоки от производителя
+купить газосиликатные блоки с доставкой
+могилевский газосиликатный блок
+НЛМК блок
+пеноблок
+пеноблок стоимость
+пеноблоки
+перегородочные блоки
+силикатные блоки
+силикатный кирпич
+сколько стоит газосиликатный блок
+стеновые блоки
+стоимость газосиликатных блоков
+цена доставки газосиликатных блоков
+цена куба газосиликатного блока</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Газосиликатный кирпич/1/1.jpg | http://maket.loc/assets/images/Газосиликатный кирпич/1/2.jpg | http://maket.loc/assets/images/Газосиликатный кирпич/1/3.jpg</t>
+  </si>
+  <si>
+    <t>Строительство стен</t>
+  </si>
+  <si>
+    <t>632d8c7a5e49f</t>
+  </si>
+  <si>
+    <t>Газосиликатный кирпич 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️ Размеры - есть все размеры и все производители
+ ✔️ Марка прочности - D400
+ ✔️ Класс по прочности на сжатие - В3 
+ ✔️ Средняя прочность - 45,8-52,9 кгс/см2
+ ✔️ Паропроницаемость - 0,16 мг/м ч Па
+ ✔️ Теплопроводность - 0,14 Вт/м2С
+ ✔️ Морозостойкость - не менее 32 циклов
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!
+Ищите нас по запросам:
+аэроблок
+бетон блок
+блок газосиликатный доставка
+блок газосиликатный эко
+блок ЛЗИД
+блок строительный
+блоки газосиликатные 300
+блоки газосиликатные могилев
+вес газосиликатного блока
+газоблок
+Газосиликат
+газосиликатные блоки
+газосиликатные блоки 200
+газосиликатные блоки 600
+газосиликатные блоки в кубе
+газосиликатные блоки куб
+газосиликатные блоки производители
+газосиликатные блоки размеры
+газосиликатные блоки сколько
+газосиликатные блоки цена
+газосиликатные блоки цена за куб
+газосиликатные блоки цена за штуку
+газосиликатный блок 600х300х200
+газосиликатный блок 600х300х200 цена
+дом из газосиликатных блоков
+доставка газосиликатных блоков
+завод газосиликатных блоков
+какие газосиликатные блоки
+кирпич силикатный полнотелый
+купить блоки газосиликатные с доставкой цена
+купить блоки газосиликатные цена
+купить газоблок
+купить газосиликатные блоки
+купить газосиликатные блоки от производителя
+купить газосиликатные блоки с доставкой
+могилевский газосиликатный блок
+НЛМК блок
+пеноблок
+пеноблок стоимость
+пеноблоки
+перегородочные блоки
+силикатные блоки
+силикатный кирпич
+сколько стоит газосиликатный блок
+стеновые блоки
+стоимость газосиликатных блоков
+цена доставки газосиликатных блоков
+цена куба газосиликатного блока</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Газосиликатный кирпич/2/2.jpg | http://maket.loc/assets/images/Газосиликатный кирпич/2/5.jpg</t>
+  </si>
+  <si>
+    <t>632d8ca84c7f9</t>
+  </si>
+  <si>
     <t>Газосиликатные блоки</t>
   </si>
   <si>
-    <t xml:space="preserve">Газосиликатные блоки 
-💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
-«Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
-👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
-ПОЧЕМУ ВЫБИРАЮТ НАС:
-⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
-⚡ Огромный ассортимент;
-⚡ Высокое качество продукции;        
-✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
-✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
-🛠 ХАРАКТЕРИСТИКИ:
-✔️ Размеры - есть все размеры
-✔️ Марка прочности - 500
-✔️ Класс по прочности на сжатие - В2,5 
-✔️ Средняя прочность - 44,8-62,9 кгс/см2
-✔️ Паропроницаемость - 0,20 мг/м ч Па
-✔️ Теплопроводность - 0,20 Вт/м2С
-✔️ Морозостойкость - не менее 25 циклов
-💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
-Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
-🧱 Ванеева, дом 205, пом 3
-🧱 Пр.Гагарина 178т, офис 300
-Работаем каждый день с 09:00 до 18:00
-📞 ЗВОНИТЕ!
+    <t>Газосиликатные блоки 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️ Размеры - есть все размеры и все производители
+ ✔️ Марка прочности - D400
+ ✔️ Класс по прочности на сжатие - В2,5 
+ ✔️ Средняя прочность - 45,8-52,9 кгс/см2
+ ✔️ Паропроницаемость - 0,14 мг/м ч Па
+ ✔️ Теплопроводность - 0,18 Вт/м2С
+ ✔️ Морозостойкость - не менее 27 циклов
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!
+Ищите нас по запросам:
+аэроблок
+бетон блок
+блок газосиликатный доставка
+блок газосиликатный эко
+блок ЛЗИД
+блок строительный
+блоки газосиликатные 300
+блоки газосиликатные могилев
+вес газосиликатного блока
+газоблок
+Газосиликат
+газосиликатные блоки
+газосиликатные блоки 200
+газосиликатные блоки 600
+газосиликатные блоки в кубе
+газосиликатные блоки куб
+газосиликатные блоки производители
+газосиликатные блоки размеры
+газосиликатные блоки сколько
+газосиликатные блоки цена
+газосиликатные блоки цена за куб
+газосиликатные блоки цена за штуку
+газосиликатный блок 600х300х200
+газосиликатный блок 600х300х200 цена
+дом из газосиликатных блоков
+доставка газосиликатных блоков
+завод газосиликатных блоков
+какие газосиликатные блоки
+кирпич силикатный полнотелый
+купить блоки газосиликатные с доставкой цена
+купить блоки газосиликатные цена
+купить газоблок
+купить газосиликатные блоки
+купить газосиликатные блоки от производителя
+купить газосиликатные блоки с доставкой
+могилевский газосиликатный блок
+НЛМК блок
+пеноблок
+пеноблок стоимость
+пеноблоки
+перегородочные блоки
+силикатные блоки
+силикатный кирпич
+сколько стоит газосиликатный блок
+стеновые блоки
+стоимость газосиликатных блоков
+цена доставки газосиликатных блоков
+цена куба газосиликатного блока</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Газосиликатные блоки/1/Скриншот 17-12-2021 054938.jpg | http://maket.loc/assets/images/Газосиликатные блоки/1/Скриншот 17-12-2021 054946.jpg | http://maket.loc/assets/images/Газосиликатные блоки/1/Скриншот 17-12-2021 054953.jpg</t>
+  </si>
+  <si>
+    <t>632d8caa61e74</t>
+  </si>
+  <si>
+    <t>Газосиликатные блоки 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️ Размеры - есть все размеры и все производители
+ ✔️ Марка прочности - 600
+ ✔️ Класс по прочности на сжатие - В2,5 
+ ✔️ Средняя прочность - 54,8-52,9 кгс/см2
+ ✔️ Паропроницаемость - 0,18 мг/м ч Па
+ ✔️ Теплопроводность - 0,18 Вт/м2С
+ ✔️ Морозостойкость - не менее 29 циклов
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!
+Ищите нас по запросам:
+аэроблок
+бетон блок
+блок газосиликатный доставка
+блок газосиликатный эко
+блок ЛЗИД
+блок строительный
+блоки газосиликатные 300
+блоки газосиликатные могилев
+вес газосиликатного блока
+газоблок
+Газосиликат
+газосиликатные блоки
+газосиликатные блоки 200
+газосиликатные блоки 600
+газосиликатные блоки в кубе
+газосиликатные блоки куб
+газосиликатные блоки производители
+газосиликатные блоки размеры
+газосиликатные блоки сколько
+газосиликатные блоки цена
+газосиликатные блоки цена за куб
+газосиликатные блоки цена за штуку
+газосиликатный блок 600х300х200
+газосиликатный блок 600х300х200 цена
+дом из газосиликатных блоков
+доставка газосиликатных блоков
+завод газосиликатных блоков
+какие газосиликатные блоки
+кирпич силикатный полнотелый
+купить блоки газосиликатные с доставкой цена
+купить блоки газосиликатные цена
+купить газоблок
+купить газосиликатные блоки
+купить газосиликатные блоки от производителя
+купить газосиликатные блоки с доставкой
+могилевский газосиликатный блок
+НЛМК блок
+пеноблок
+пеноблок стоимость
+пеноблоки
+перегородочные блоки
+силикатные блоки
+силикатный кирпич
+сколько стоит газосиликатный блок
+стеновые блоки
+стоимость газосиликатных блоков
+цена доставки газосиликатных блоков
+цена куба газосиликатного блока</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Газосиликатные блоки/2/1.jpg | http://maket.loc/assets/images/Газосиликатные блоки/2/3.jpg</t>
+  </si>
+  <si>
+    <t>632d8cc721a77</t>
+  </si>
+  <si>
+    <t>Газоблоки</t>
+  </si>
+  <si>
+    <t>Газоблоки 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️ Размеры - есть все размеры и все производители
+ ✔️ Марка прочности - 600
+ ✔️ Класс по прочности на сжатие - В2,5 
+ ✔️ Средняя прочность - 45,8-52,9 кгс/см2
+ ✔️ Паропроницаемость - 0,16 мг/м ч Па
+ ✔️ Теплопроводность - 0,16 Вт/м2С
+ ✔️ Морозостойкость - не менее 32 циклов
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!
+Ищите нас по запросам:
+аэроблок
+бетон блок
+блок газосиликатный доставка
+блок газосиликатный эко
+блок ЛЗИД
+блок строительный
+блоки газосиликатные 300
+блоки газосиликатные могилев
+вес газосиликатного блока
+газоблок
+Газосиликат
+газосиликатные блоки
+газосиликатные блоки 200
+газосиликатные блоки 600
+газосиликатные блоки в кубе
+газосиликатные блоки куб
+газосиликатные блоки производители
+газосиликатные блоки размеры
+газосиликатные блоки сколько
+газосиликатные блоки цена
+газосиликатные блоки цена за куб
+газосиликатные блоки цена за штуку
+газосиликатный блок 600х300х200
+газосиликатный блок 600х300х200 цена
+дом из газосиликатных блоков
+доставка газосиликатных блоков
+завод газосиликатных блоков
+какие газосиликатные блоки
+кирпич силикатный полнотелый
+купить блоки газосиликатные с доставкой цена
+купить блоки газосиликатные цена
+купить газоблок
+купить газосиликатные блоки
+купить газосиликатные блоки от производителя
+купить газосиликатные блоки с доставкой
+могилевский газосиликатный блок
+НЛМК блок
+пеноблок
+пеноблок стоимость
+пеноблоки
+перегородочные блоки
+силикатные блоки
+силикатный кирпич
+сколько стоит газосиликатный блок
+стеновые блоки
+стоимость газосиликатных блоков
+цена доставки газосиликатных блоков
+цена куба газосиликатного блока</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Газосиликатные блоки/3/image (1).jpg | http://maket.loc/assets/images/Газосиликатные блоки/3/image (2).jpg | http://maket.loc/assets/images/Газосиликатные блоки/3/image (3).jpg</t>
+  </si>
+  <si>
+    <t>632d8cc942fc7</t>
+  </si>
+  <si>
+    <t>Газоблоки 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️ Размеры - есть все размеры и все производители
+ ✔️ Марка прочности - 500
+ ✔️ Класс по прочности на сжатие - В2,5 
+ ✔️ Средняя прочность - 64,8-65,9 кгс/см2
+ ✔️ Паропроницаемость - 0,16 мг/м ч Па
+ ✔️ Теплопроводность - 0,18 Вт/м2С
+ ✔️ Морозостойкость - не менее 25 циклов
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!
+Ищите нас по запросам:
+аэроблок
+бетон блок
+блок газосиликатный доставка
+блок газосиликатный эко
+блок ЛЗИД
+блок строительный
+блоки газосиликатные 300
+блоки газосиликатные могилев
+вес газосиликатного блока
+газоблок
+Газосиликат
+газосиликатные блоки
+газосиликатные блоки 200
+газосиликатные блоки 600
+газосиликатные блоки в кубе
+газосиликатные блоки куб
+газосиликатные блоки производители
+газосиликатные блоки размеры
+газосиликатные блоки сколько
+газосиликатные блоки цена
+газосиликатные блоки цена за куб
+газосиликатные блоки цена за штуку
+газосиликатный блок 600х300х200
+газосиликатный блок 600х300х200 цена
+дом из газосиликатных блоков
+доставка газосиликатных блоков
+завод газосиликатных блоков
+какие газосиликатные блоки
+кирпич силикатный полнотелый
+купить блоки газосиликатные с доставкой цена
+купить блоки газосиликатные цена
+купить газоблок
+купить газосиликатные блоки
+купить газосиликатные блоки от производителя
+купить газосиликатные блоки с доставкой
+могилевский газосиликатный блок
+НЛМК блок
+пеноблок
+пеноблок стоимость
+пеноблоки
+перегородочные блоки
+силикатные блоки
+силикатный кирпич
+сколько стоит газосиликатный блок
+стеновые блоки
+стоимость газосиликатных блоков
+цена доставки газосиликатных блоков
+цена куба газосиликатного блока</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Газосиликатные блоки/4/1.jpg | http://maket.loc/assets/images/Газосиликатные блоки/4/2.jpg | http://maket.loc/assets/images/Газосиликатные блоки/4/4.jpg</t>
+  </si>
+  <si>
+    <t>632d8ce146e98</t>
+  </si>
+  <si>
+    <t>Газосиликат</t>
+  </si>
+  <si>
+    <t>Газосиликат 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️ Размеры - есть все размеры и все производители
+ ✔️ Марка прочности - 500
+ ✔️ Класс по прочности на сжатие - В2,5 
+ ✔️ Средняя прочность - 44,8-62,9 кгс/см2
+ ✔️ Паропроницаемость - 0,16 мг/м ч Па
+ ✔️ Теплопроводность - 0,20 Вт/м2С
+ ✔️ Морозостойкость - не менее 27 циклов
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!
+Ищите нас по запросам:
+аэроблок
+бетон блок
+блок газосиликатный доставка
+блок газосиликатный эко
+блок ЛЗИД
+блок строительный
+блоки газосиликатные 300
+блоки газосиликатные могилев
+вес газосиликатного блока
+газоблок
+Газосиликат
+газосиликатные блоки
+газосиликатные блоки 200
+газосиликатные блоки 600
+газосиликатные блоки в кубе
+газосиликатные блоки куб
+газосиликатные блоки производители
+газосиликатные блоки размеры
+газосиликатные блоки сколько
+газосиликатные блоки цена
+газосиликатные блоки цена за куб
+газосиликатные блоки цена за штуку
+газосиликатный блок 600х300х200
+газосиликатный блок 600х300х200 цена
+дом из газосиликатных блоков
+доставка газосиликатных блоков
+завод газосиликатных блоков
+какие газосиликатные блоки
+кирпич силикатный полнотелый
+купить блоки газосиликатные с доставкой цена
+купить блоки газосиликатные цена
+купить газоблок
+купить газосиликатные блоки
+купить газосиликатные блоки от производителя
+купить газосиликатные блоки с доставкой
+могилевский газосиликатный блок
+НЛМК блок
+пеноблок
+пеноблок стоимость
+пеноблоки
+перегородочные блоки
+силикатные блоки
+силикатный кирпич
+сколько стоит газосиликатный блок
+стеновые блоки
+стоимость газосиликатных блоков
+цена доставки газосиликатных блоков
+цена куба газосиликатного блока</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Газосиликатные блоки/5/1.jpg | http://maket.loc/assets/images/Газосиликатные блоки/5/7.jpg | http://maket.loc/assets/images/Газосиликатные блоки/5/Скриншот 13-12-2021 093507.jpg</t>
+  </si>
+  <si>
+    <t>632d8d87ce552</t>
+  </si>
+  <si>
+    <t>Двойник</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Двойник 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️Тип: Кирпич керамический двойной 2.1 NF.
+ ✔️Размеры: 250х120х140
+ ✔️Масса 4.12 кг
+ ✔️Пустотность 52%
+ ✔️Теплопроводность: Вт/м-К: 0,25
+ ✔️Звукоизоляция 56,5 дБ
+ ✔️ Производитель: Кетра, &lt;strong&gt;есть другие производители.&lt;/strong&gt;
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!
+Ищите нас по запросам:
+Двойник
+Двойник Кетра
+Камень керамический двойник пустотелый
+Керамический блок двойной
+Керамический двойной кирпич
+Кирпич двойник
+Кирпич двойной
+Кирпич двойной керамический
+Кирпич керамический двойной керамический блок
+Кирпич керамический двойной
+2 1 НФ
+2,1 нф Рядовой красный
+Блок керамический 2.1 nf двойник
+Камень керамический 2,1 нф
+Камень керамический 2.1 NF двойник
+Керамика 2,1 нф 
+Керамический камень двойной 2.1 НФ 
+Керамический кирпич 2 1
+Керамический кирпич 2 1 нф
+Кирпич двойной керамический 2.1 нф
+Кирпич КераКам Стандарт 2.1
+Кирпич Керамический двойной 2,1нф, Кетра
+Кирпич керамический поризованный 2,1
+Кирпич кетра Стандарт 2.1
+Кирпич Поротерм 2,1 нф
+Поризованный камень керамика 2,1 нф
 </t>
   </si>
   <si>
-    <t>Новое</t>
-  </si>
-  <si>
-    <t>2022-09-22T11:00:00+03:00</t>
-  </si>
-  <si>
-    <t>2022-09-23T11:00:00+03:00</t>
-  </si>
-  <si>
-    <t>Да</t>
-  </si>
-  <si>
-    <t>+7 964 831-55-11</t>
-  </si>
-  <si>
-    <t>Товар приобретен на продажу</t>
-  </si>
-  <si>
-    <t>http://maket.loc/assets/images/Газосиликатные блоки/4/image (2).jpg | http://maket.loc/assets/images/Газосиликатные блоки/4/image (1).jpg | http://maket.loc/assets/images/Газосиликатные блоки/4/image (3).jpg</t>
-  </si>
-  <si>
-    <t>Строительство стен</t>
-  </si>
-  <si>
-    <t>По телефону и в сообщениях</t>
-  </si>
-  <si>
-    <t>Free</t>
-  </si>
-  <si>
-    <t>6329cbad0f8ab</t>
-  </si>
-  <si>
-    <t>Газоблок</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Газоблок 
-💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
-«Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
-👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
-ПОЧЕМУ ВЫБИРАЮТ НАС:
-⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
-⚡ Огромный ассортимент;
-⚡ Высокое качество продукции;        
-✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
-✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
-🛠 ХАРАКТЕРИСТИКИ:
-✔️ Размеры - есть все размеры
-✔️ Марка прочности - 500
-✔️ Класс по прочности на сжатие - В3 
-✔️ Средняя прочность - 44,8-62,9 кгс/см2
-✔️ Паропроницаемость - 0,16 мг/м ч Па
-✔️ Теплопроводность - 0,16 Вт/м2С
-✔️ Морозостойкость - не менее 29 циклов
-💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
-Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
-🧱 Ванеева, дом 205, пом 3
-🧱 Пр.Гагарина 178т, офис 300
-Работаем каждый день с 09:00 до 18:00
-📞 ЗВОНИТЕ!
+    <t>http://maket.loc/assets/images/Двойной кирпич/1/1.jpg | http://maket.loc/assets/images/Двойной кирпич/1/2.jpg</t>
+  </si>
+  <si>
+    <t>632d8d87cec97</t>
+  </si>
+  <si>
+    <t>Двойной кирпич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Двойной кирпич 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️Тип: Кирпич керамический двойной 2.1 NF.
+ ✔️Размеры: 250х120х140
+ ✔️Масса 4.12 кг
+ ✔️Пустотность 50%
+ ✔️Теплопроводность: Вт/м-К: 0,24
+ ✔️Звукоизоляция 53,5 дБ
+ ✔️ Производитель: Кетра, &lt;strong&gt;есть другие производители.&lt;/strong&gt;
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!
+Ищите нас по запросам:
+Двойник
+Двойник Кетра
+Камень керамический двойник пустотелый
+Керамический блок двойной
+Керамический двойной кирпич
+Кирпич двойник
+Кирпич двойной
+Кирпич двойной керамический
+Кирпич керамический двойной керамический блок
+Кирпич керамический двойной
+2 1 НФ
+2,1 нф Рядовой красный
+Блок керамический 2.1 nf двойник
+Камень керамический 2,1 нф
+Камень керамический 2.1 NF двойник
+Керамика 2,1 нф 
+Керамический камень двойной 2.1 НФ 
+Керамический кирпич 2 1
+Керамический кирпич 2 1 нф
+Кирпич двойной керамический 2.1 нф
+Кирпич КераКам Стандарт 2.1
+Кирпич Керамический двойной 2,1нф, Кетра
+Кирпич керамический поризованный 2,1
+Кирпич кетра Стандарт 2.1
+Кирпич Поротерм 2,1 нф
+Поризованный камень керамика 2,1 нф
 </t>
   </si>
   <si>
-    <t>http://maket.loc/assets/images/Газосиликатные блоки/5/5.jpg | http://maket.loc/assets/images/Газосиликатные блоки/5/2.jpg | http://maket.loc/assets/images/Газосиликатные блоки/5/1.jpg | http://maket.loc/assets/images/Газосиликатные блоки/5/7.jpg | http://maket.loc/assets/images/Газосиликатные блоки/5/4.jpg | http://maket.loc/assets/images/Газосиликатные блоки/5/Скриншот 13-12-2021 093507.jpg</t>
+    <t>http://maket.loc/assets/images/Двойной кирпич/2/image (1).jpg | http://maket.loc/assets/images/Двойной кирпич/2/image (2).jpg | http://maket.loc/assets/images/Двойной кирпич/2/image (7).jpg</t>
+  </si>
+  <si>
+    <t>632d8d87cf610</t>
+  </si>
+  <si>
+    <t>Кирпич 2 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кирпич 2 1 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️Тип: Кирпич керамический двойной 2.1 NF.
+ ✔️Размеры: 250х120х140
+ ✔️Масса 4 кг
+ ✔️Пустотность 53%
+ ✔️Теплопроводность: Вт/м-К: 0,25
+ ✔️Звукоизоляция 55,5 дБ
+ ✔️ Производитель: Кетра, &lt;strong&gt;есть другие производители.&lt;/strong&gt;
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!
+Ищите нас по запросам:
+Двойник
+Двойник Кетра
+Камень керамический двойник пустотелый
+Керамический блок двойной
+Керамический двойной кирпич
+Кирпич двойник
+Кирпич двойной
+Кирпич двойной керамический
+Кирпич керамический двойной керамический блок
+Кирпич керамический двойной
+2 1 НФ
+2,1 нф Рядовой красный
+Блок керамический 2.1 nf двойник
+Камень керамический 2,1 нф
+Камень керамический 2.1 NF двойник
+Керамика 2,1 нф 
+Керамический камень двойной 2.1 НФ 
+Керамический кирпич 2 1
+Керамический кирпич 2 1 нф
+Кирпич двойной керамический 2.1 нф
+Кирпич КераКам Стандарт 2.1
+Кирпич Керамический двойной 2,1нф, Кетра
+Кирпич керамический поризованный 2,1
+Кирпич кетра Стандарт 2.1
+Кирпич Поротерм 2,1 нф
+Поризованный камень керамика 2,1 нф
+</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Двойной кирпич/3/image (2).jpg | http://maket.loc/assets/images/Двойной кирпич/3/image (3).jpg | http://maket.loc/assets/images/Двойной кирпич/3/image (4).jpg</t>
+  </si>
+  <si>
+    <t>632d8d87cfe5f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кирпич 2 1 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️Тип: Кирпич керамический двойной 2.1 NF.
+ ✔️Размеры: 250х120х140
+ ✔️Масса 4.14 кг
+ ✔️Пустотность 55%
+ ✔️Теплопроводность: Вт/м-К: 0,25
+ ✔️Звукоизоляция 53,5 дБ
+ ✔️ Производитель: Кетра, &lt;strong&gt;есть другие производители.&lt;/strong&gt;
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!
+Ищите нас по запросам:
+Двойник
+Двойник Кетра
+Камень керамический двойник пустотелый
+Керамический блок двойной
+Керамический двойной кирпич
+Кирпич двойник
+Кирпич двойной
+Кирпич двойной керамический
+Кирпич керамический двойной керамический блок
+Кирпич керамический двойной
+2 1 НФ
+2,1 нф Рядовой красный
+Блок керамический 2.1 nf двойник
+Камень керамический 2,1 нф
+Камень керамический 2.1 NF двойник
+Керамика 2,1 нф 
+Керамический камень двойной 2.1 НФ 
+Керамический кирпич 2 1
+Керамический кирпич 2 1 нф
+Кирпич двойной керамический 2.1 нф
+Кирпич КераКам Стандарт 2.1
+Кирпич Керамический двойной 2,1нф, Кетра
+Кирпич керамический поризованный 2,1
+Кирпич кетра Стандарт 2.1
+Кирпич Поротерм 2,1 нф
+Поризованный камень керамика 2,1 нф
+</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Двойной кирпич/4/1.jpg | http://maket.loc/assets/images/Двойной кирпич/4/image (2).jpg | http://maket.loc/assets/images/Двойной кирпич/4/image (6).jpg | http://maket.loc/assets/images/Двойной кирпич/4/image.jpg</t>
+  </si>
+  <si>
+    <t>632d8dcc8610d</t>
+  </si>
+  <si>
+    <t>Каменная вата</t>
+  </si>
+  <si>
+    <t>Каменная вата 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️Теплопроводность (Вт/м2*к) - 0,035-0,048
+ ✔️Звукопоглощение 0,90-0,98
+ ✔️Связующее вещество от 2,7 до 10,2
+ ✔️Температура использования {от -190 до +700°C|от -192 до +701°C|от -194 до +702°C|от -196 до +703°C|от -198 до +704°C}
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Каменная вата/1/1.jpg | http://maket.loc/assets/images/Каменная вата/1/2.png | http://maket.loc/assets/images/Каменная вата/1/3.jpg</t>
+  </si>
+  <si>
+    <t>Изоляция</t>
+  </si>
+  <si>
+    <t>632d8dcc86ef7</t>
+  </si>
+  <si>
+    <t>Фасадный утеплитель</t>
+  </si>
+  <si>
+    <t>Фасадный утеплитель 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️Теплопроводность (Вт/м2*к) - 0,036-0,049
+ ✔️Звукопоглощение 0,87-0,95
+ ✔️Связующее вещество от 2,6 до 10,1
+ ✔️Температура использования {от -190 до +700°C|от -192 до +701°C|от -194 до +702°C|от -196 до +703°C|от -198 до +704°C}
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Каменная вата/2/1.jpg | http://maket.loc/assets/images/Каменная вата/2/2.jpg | http://maket.loc/assets/images/Каменная вата/2/3.jpg</t>
+  </si>
+  <si>
+    <t>632d8e09c6dc1</t>
+  </si>
+  <si>
+    <t>Керамзитные блоки</t>
+  </si>
+  <si>
+    <t>Керамзитные блоки 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️ Коэффициент теплопроводности, Вт/м•К 0,37
+ ✔️ Марка прочности M50
+ ✔️ Размер 390х190х188
+ ✔️ Класс морозостойкости F52
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!
+Ищите нас по запросам:
+блоки стеновые керамзитобетонные
+керамзитобетонные блоки
+керамзитобетонные блоки в кубе
+керамзитобетонные блоки от производителя
+керамзитобетонные блоки от производителя цена
+керамзитобетонные блоки какие
+керамзитобетонные блоки куб
+керамзитобетонные блоки купить
+керамзитобетонные блоки купить цена
+керамзитобетонные блоки поддон
+керамзитобетонные блоки цена
+керамзитобетонные блоки цена за штуку
+керамзитобетонный блок 20х20х40
+лучший керамзитобетонный блок
+нужны керамзитобетонные блоки
+размер керамзитобетонного блока
+стоимость керамзитобетонных блоков</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Керамзитобетонные блоки/1/1.jpg | http://maket.loc/assets/images/Керамзитобетонные блоки/1/2.jpg | http://maket.loc/assets/images/Керамзитобетонные блоки/1/3.jpg</t>
+  </si>
+  <si>
+    <t>632d8e0c0b442</t>
+  </si>
+  <si>
+    <t>Керамзитные блоки 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️ Коэффициент теплопроводности, Вт/м•К 0,35
+ ✔️ Марка прочности М75
+ ✔️ Размер 390х190х190
+ ✔️ Класс морозостойкости F53
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!
+Ищите нас по запросам:
+блоки стеновые керамзитобетонные
+керамзитобетонные блоки
+керамзитобетонные блоки в кубе
+керамзитобетонные блоки от производителя
+керамзитобетонные блоки от производителя цена
+керамзитобетонные блоки какие
+керамзитобетонные блоки куб
+керамзитобетонные блоки купить
+керамзитобетонные блоки купить цена
+керамзитобетонные блоки поддон
+керамзитобетонные блоки цена
+керамзитобетонные блоки цена за штуку
+керамзитобетонный блок 20х20х40
+лучший керамзитобетонный блок
+нужны керамзитобетонные блоки
+размер керамзитобетонного блока
+стоимость керамзитобетонных блоков</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Керамзитобетонные блоки/2/1.jpg | http://maket.loc/assets/images/Керамзитобетонные блоки/2/2.jpg</t>
+  </si>
+  <si>
+    <t>632d8e0d457f5</t>
+  </si>
+  <si>
+    <t>Керамзитные блоки 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️ Коэффициент теплопроводности, Вт/м•К 0,34
+ ✔️ Марка прочности М100
+ ✔️ Размер 390х190х188
+ ✔️ Класс морозостойкости F50
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!
+Ищите нас по запросам:
+блоки стеновые керамзитобетонные
+керамзитобетонные блоки
+керамзитобетонные блоки в кубе
+керамзитобетонные блоки от производителя
+керамзитобетонные блоки от производителя цена
+керамзитобетонные блоки какие
+керамзитобетонные блоки куб
+керамзитобетонные блоки купить
+керамзитобетонные блоки купить цена
+керамзитобетонные блоки поддон
+керамзитобетонные блоки цена
+керамзитобетонные блоки цена за штуку
+керамзитобетонный блок 20х20х40
+лучший керамзитобетонный блок
+нужны керамзитобетонные блоки
+размер керамзитобетонного блока
+стоимость керамзитобетонных блоков</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Керамзитобетонные блоки/3/1.jpg | http://maket.loc/assets/images/Керамзитобетонные блоки/3/2.jpg | http://maket.loc/assets/images/Керамзитобетонные блоки/3/3.jpg</t>
+  </si>
+  <si>
+    <t>632d8e2817129</t>
+  </si>
+  <si>
+    <t>Керамзитобетонные блоки</t>
+  </si>
+  <si>
+    <t>Керамзитобетонные блоки 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️ Коэффициент теплопроводности, Вт/м•К 0,37
+ ✔️ Марка прочности M50
+ ✔️ Размер 390х190х189
+ ✔️ Класс морозостойкости F53
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!
+Ищите нас по запросам:
+блоки стеновые керамзитобетонные
+керамзитобетонные блоки
+керамзитобетонные блоки в кубе
+керамзитобетонные блоки от производителя
+керамзитобетонные блоки от производителя цена
+керамзитобетонные блоки какие
+керамзитобетонные блоки куб
+керамзитобетонные блоки купить
+керамзитобетонные блоки купить цена
+керамзитобетонные блоки поддон
+керамзитобетонные блоки цена
+керамзитобетонные блоки цена за штуку
+керамзитобетонный блок 20х20х40
+лучший керамзитобетонный блок
+нужны керамзитобетонные блоки
+размер керамзитобетонного блока
+стоимость керамзитобетонных блоков</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Керамзитобетонные блоки/4/1.jpg | http://maket.loc/assets/images/Керамзитобетонные блоки/4/2.jpg | http://maket.loc/assets/images/Керамзитобетонные блоки/4/3.jpg</t>
+  </si>
+  <si>
+    <t>632d8eb24e41c</t>
+  </si>
+  <si>
+    <t>Керамическая плитка</t>
+  </si>
+  <si>
+    <t>Керамическая плитка 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️ Устойчивость к истиранию: P.E.I 1
+ ✔️ Химическая стойкость: D
+ ✔️ Водопоглощение: I группа
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Керамическая плитка/1/1.jpg | http://maket.loc/assets/images/Керамическая плитка/1/2.jpg | http://maket.loc/assets/images/Керамическая плитка/1/3.jpg</t>
+  </si>
+  <si>
+    <t>Отделка</t>
+  </si>
+  <si>
+    <t>632d8f7e14c79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Керамическая плитка	</t>
+  </si>
+  <si>
+    <t>Керамическая плитка	 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️ Устойчивость к истиранию: P.E.I 2
+ ✔️ Химическая стойкость: B
+ ✔️ Водопоглощение: III группа
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Керамическая плитка/2/1.jpg | http://maket.loc/assets/images/Керамическая плитка/2/2.jpg</t>
+  </si>
+  <si>
+    <t>632d9050197eb</t>
+  </si>
+  <si>
+    <t>Керамический блок</t>
+  </si>
+  <si>
+    <t>Керамический блок 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️Тип кирпича: Керамический камень.
+ ✔️Размеры: 250х120х140
+ ✔️Масса 4.15 кг
+ ✔️Пустотность 50%
+ ✔️Теплопроводность: Вт/м-К: 0,26
+ ✔️Звукоизоляция 56,5 дБ
+ ✔️ Производитель: Кетра, есть другие производители.
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!
+Ищите нас по запросам:
+Блок керамический
+Камень керамический
+Керамические блоки
+Керамические блоки Кетра 
+Керамические камни Kerakam
+Керамический блок
+Керамический камень
+Керамический поризованный блок Керакам
+Керамоблок 
+Кетра керамические камни
+Камень керамический двойник пустотелый</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Керамический блок/9/1.jpg | http://maket.loc/assets/images/Керамический блок/9/Скриншот 16-12-2021 084547.jpg | http://maket.loc/assets/images/Керамический блок/9/Скриншот 16-12-2021 085100.jpg</t>
+  </si>
+  <si>
+    <t>632d9051b71f4</t>
+  </si>
+  <si>
+    <t>Керамический блок 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️Тип кирпича: Керамический камень.
+ ✔️Размеры: 250х120х140
+ ✔️Масса 4 кг
+ ✔️Пустотность 53%
+ ✔️Теплопроводность: Вт/м-К: 0,27
+ ✔️Звукоизоляция 56,5 дБ
+ ✔️ Производитель: Кетра, есть другие производители.
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!
+Ищите нас по запросам:
+Блок керамический
+Камень керамический
+Керамические блоки
+Керамические блоки Кетра 
+Керамические камни Kerakam
+Керамический блок
+Керамический камень
+Керамический поризованный блок Керакам
+Керамоблок 
+Кетра керамические камни
+Камень керамический двойник пустотелый</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Керамический блок/10/Скриншот 16-12-2021 084647.jpg | http://maket.loc/assets/images/Керамический блок/10/Скриншот 20-12-2021 113753.jpg</t>
+  </si>
+  <si>
+    <t>632d90532c08f</t>
+  </si>
+  <si>
+    <t>Керамический блок 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️Тип кирпича: Керамический камень.
+ ✔️Размеры: 250х120х140
+ ✔️Масса 4 кг
+ ✔️Пустотность 53%
+ ✔️Теплопроводность: Вт/м-К: 0,26
+ ✔️Звукоизоляция 53,5 дБ
+ ✔️ Производитель: Кетра, есть другие производители.
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!
+Ищите нас по запросам:
+Блок керамический
+Камень керамический
+Керамические блоки
+Керамические блоки Кетра 
+Керамические камни Kerakam
+Керамический блок
+Керамический камень
+Керамический поризованный блок Керакам
+Керамоблок 
+Кетра керамические камни
+Камень керамический двойник пустотелый</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Керамический блок/11/1.jpg</t>
+  </si>
+  <si>
+    <t>632d9065cea8f</t>
+  </si>
+  <si>
+    <t>Керамический камень</t>
+  </si>
+  <si>
+    <t>Керамический камень 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️Тип кирпича: Керамический камень.
+ ✔️Размеры: 250х120х140
+ ✔️Масса 4 кг
+ ✔️Пустотность 52%
+ ✔️Теплопроводность: Вт/м-К: 0,26
+ ✔️Звукоизоляция 56,5 дБ
+ ✔️ Производитель: Кетра, есть другие производители.
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!
+Ищите нас по запросам:
+Блок керамический
+Камень керамический
+Керамические блоки
+Керамические блоки Кетра 
+Керамические камни Kerakam
+Керамический блок
+Керамический камень
+Керамический поризованный блок Керакам
+Керамоблок 
+Кетра керамические камни
+Камень керамический двойник пустотелый</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Керамический блок/1/1064.jpg | http://maket.loc/assets/images/Керамический блок/1/1080.jpg | http://maket.loc/assets/images/Керамический блок/1/1192.jpg</t>
+  </si>
+  <si>
+    <t>632d90686ae34</t>
+  </si>
+  <si>
+    <t>Керамический камень 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️Тип кирпича: Керамический камень.
+ ✔️Размеры: 250х120х140
+ ✔️Масса 4.14 кг
+ ✔️Пустотность 51%
+ ✔️Теплопроводность: Вт/м-К: 0,26
+ ✔️Звукоизоляция 54,5 дБ
+ ✔️ Производитель: Кетра, есть другие производители.
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!
+Ищите нас по запросам:
+Блок керамический
+Камень керамический
+Керамические блоки
+Керамические блоки Кетра 
+Керамические камни Kerakam
+Керамический блок
+Керамический камень
+Керамический поризованный блок Керакам
+Керамоблок 
+Кетра керамические камни
+Камень керамический двойник пустотелый</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Керамический блок/2/1.jpg | http://maket.loc/assets/images/Керамический блок/2/2.jpg | http://maket.loc/assets/images/Керамический блок/2/3.jpg</t>
+  </si>
+  <si>
+    <t>632d90a7ce8ab</t>
+  </si>
+  <si>
+    <t>Керамоблок</t>
+  </si>
+  <si>
+    <t>Керамоблок 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️Тип кирпича: Керамический камень.
+ ✔️Размеры: 250х120х140
+ ✔️Масса 4 кг
+ ✔️Пустотность 50%
+ ✔️Теплопроводность: Вт/м-К: 0,25
+ ✔️Звукоизоляция 56,5 дБ
+ ✔️ Производитель: Кетра, есть другие производители.
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!
+Ищите нас по запросам:
+Блок керамический
+Камень керамический
+Керамические блоки
+Керамические блоки Кетра 
+Керамические камни Kerakam
+Керамический блок
+Керамический камень
+Керамический поризованный блок Керакам
+Керамоблок 
+Кетра керамические камни
+Камень керамический двойник пустотелый</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Керамический блок/3/1.jpg | http://maket.loc/assets/images/Керамический блок/3/2.jpg</t>
+  </si>
+  <si>
+    <t>632d914485cca</t>
+  </si>
+  <si>
+    <t>Водоотводные лотки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Водоотводные лотки 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️Класс и предельная нагрузка A15 - 15 тонн
+ ✔️Из адаптированных пластмасс, выдерживающих низкие температуры ниже - 43 °С
+ ✔️Срок службы 25 лет
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!
+Ищите нас по запросам:
+комплект лоток водоотводный
+купить лоток водоотводный
+купить лоток водоотводный пластиковый
+лотки водоотводные с решеткой цена
+лотки водоотводные пластиковые с решеткой цена
+лоток водоотводный
+лоток водоотводный с решеткой
+лоток водоотводный с решеткой купить
+лоток водоотводный бетонный цена
+лоток водоотводный пластиковый
+лоток водоотводный пластиковый с решеткой
+лоток водоотводный цена</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Водоотводные лотки/1/1.jpg | http://maket.loc/assets/images/Водоотводные лотки/1/2.jpg | http://maket.loc/assets/images/Водоотводные лотки/1/3.jpg | http://maket.loc/assets/images/Водоотводные лотки/1/4.jpg</t>
+  </si>
+  <si>
+    <t>632d9146ec912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Водоотводные лотки 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️Класс и предельная нагрузка F900 - 90 тонн
+ ✔️Из адаптированных пластмасс, выдерживающих низкие температуры ниже - 43 °С
+ ✔️Срок службы 27 лет
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!
+Ищите нас по запросам:
+комплект лоток водоотводный
+купить лоток водоотводный
+купить лоток водоотводный пластиковый
+лотки водоотводные с решеткой цена
+лотки водоотводные пластиковые с решеткой цена
+лоток водоотводный
+лоток водоотводный с решеткой
+лоток водоотводный с решеткой купить
+лоток водоотводный бетонный цена
+лоток водоотводный пластиковый
+лоток водоотводный пластиковый с решеткой
+лоток водоотводный цена</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Водоотводные лотки/2/6.jpg | http://maket.loc/assets/images/Водоотводные лотки/2/7.jpg | http://maket.loc/assets/images/Водоотводные лотки/2/8.jpg | http://maket.loc/assets/images/Водоотводные лотки/2/9.jpg</t>
+  </si>
+  <si>
+    <t>632d9148177f8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Водоотводные лотки 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️Класс и предельная нагрузка F900 - 90 тонн
+ ✔️Из адаптированных пластмасс, выдерживающих низкие температуры ниже - 44 °С
+ ✔️Срок службы 25 лет
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!
+Ищите нас по запросам:
+комплект лоток водоотводный
+купить лоток водоотводный
+купить лоток водоотводный пластиковый
+лотки водоотводные с решеткой цена
+лотки водоотводные пластиковые с решеткой цена
+лоток водоотводный
+лоток водоотводный с решеткой
+лоток водоотводный с решеткой купить
+лоток водоотводный бетонный цена
+лоток водоотводный пластиковый
+лоток водоотводный пластиковый с решеткой
+лоток водоотводный цена</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Водоотводные лотки/3/Скриншот 12-12-2021 095543.jpg | http://maket.loc/assets/images/Водоотводные лотки/3/Скриншот 12-12-2021 095549.jpg | http://maket.loc/assets/images/Водоотводные лотки/3/Скриншот 12-12-2021 095555.jpg | http://maket.loc/assets/images/Водоотводные лотки/3/Скриншот 12-12-2021 095600.jpg | http://maket.loc/assets/images/Водоотводные лотки/3/Скриншот 12-12-2021 095606.jpg</t>
+  </si>
+  <si>
+    <t>632d9149b59dc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Водоотводные лотки 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️Класс и предельная нагрузка F900 - 90 тонн
+ ✔️Из адаптированных пластмасс, выдерживающих низкие температуры ниже - 43 °С
+ ✔️Срок службы 28 лет
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!
+Ищите нас по запросам:
+комплект лоток водоотводный
+купить лоток водоотводный
+купить лоток водоотводный пластиковый
+лотки водоотводные с решеткой цена
+лотки водоотводные пластиковые с решеткой цена
+лоток водоотводный
+лоток водоотводный с решеткой
+лоток водоотводный с решеткой купить
+лоток водоотводный бетонный цена
+лоток водоотводный пластиковый
+лоток водоотводный пластиковый с решеткой
+лоток водоотводный цена</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Водоотводные лотки/4/1.jpg | http://maket.loc/assets/images/Водоотводные лотки/4/Скриншот 12-12-2021 093711.jpg | http://maket.loc/assets/images/Водоотводные лотки/4/Скриншот 12-12-2021 093717.jpg</t>
+  </si>
+  <si>
+    <t>632d91e6d064f</t>
+  </si>
+  <si>
+    <t>Керамический кирпич</t>
+  </si>
+  <si>
+    <t>Керамический кирпич 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️Тип: Керамический кирпичи двойной.
+ ✔️Размеры: 250х120х140мм
+ ✔️Масса 17.3 кг
+ ✔️Пустотность 54%
+ ✔️Теплопроводность: Вт/м-К: 0,24
+ ✔️Звукоизоляция 56,5 дБ
+ ✔️ Производитель: Клим Клинкер, есть другие производители. 
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!
+Ищите нас по запросам:
+керамический кирпич
+Кирпич керамический
+кирпич керамический рядовой м 150
+Двойник
+Двойник Кетра
+Камень керамический двойник пустотелый
+Керамический двойной кирпич
+Кирпич двойник
+Кирпич двойной
+Кирпич двойной керамический
+Кирпич керамический двойной керамический блок
+Кирпич керамический двойной 
+2,1 нф Рядовой красный
+Блок керамический 2.1 nf двойник
+Камень керамический 2,1 нф
+Камень керамический 2.1 NF двойник
+Керамика 2,1 нф 
+Керамический камень двойной 2.1 НФ 
+Керамический кирпич 2 1
+Керамический кирпич 2 1 нф
+Кирпич двойной керамический 2.1 нф
+Кирпич КераКам Стандарт 2.1
+Кирпич Керамический двойной 2,1нф, Кетра
+Кирпич керамический поризованный 2,1
+Кирпич кетра Стандарт 2.1
+Кирпич Поротерм 2,1 нф
+Поризованный камень керамика 2,1 нф</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Керамический кирпич/1/4.jpg | http://maket.loc/assets/images/Керамический кирпич/1/5.jpg | http://maket.loc/assets/images/Керамический кирпич/1/6.jpg</t>
+  </si>
+  <si>
+    <t>632d91e8588ff</t>
+  </si>
+  <si>
+    <t>Керамический кирпич 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️Тип: Керамический кирпичи двойной.
+ ✔️Размеры: 250х120х140мм
+ ✔️Масса 17.2 кг
+ ✔️Пустотность 51%
+ ✔️Теплопроводность: Вт/м-К: 0,26
+ ✔️Звукоизоляция 56,5 дБ
+ ✔️ Производитель: Клим Клинкер, есть другие производители. 
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!
+Ищите нас по запросам:
+керамический кирпич
+Кирпич керамический
+кирпич керамический рядовой м 150
+Двойник
+Двойник Кетра
+Камень керамический двойник пустотелый
+Керамический двойной кирпич
+Кирпич двойник
+Кирпич двойной
+Кирпич двойной керамический
+Кирпич керамический двойной керамический блок
+Кирпич керамический двойной 
+2,1 нф Рядовой красный
+Блок керамический 2.1 nf двойник
+Камень керамический 2,1 нф
+Камень керамический 2.1 NF двойник
+Керамика 2,1 нф 
+Керамический камень двойной 2.1 НФ 
+Керамический кирпич 2 1
+Керамический кирпич 2 1 нф
+Кирпич двойной керамический 2.1 нф
+Кирпич КераКам Стандарт 2.1
+Кирпич Керамический двойной 2,1нф, Кетра
+Кирпич керамический поризованный 2,1
+Кирпич кетра Стандарт 2.1
+Кирпич Поротерм 2,1 нф
+Поризованный камень керамика 2,1 нф</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Керамический кирпич/2/2.jpg | http://maket.loc/assets/images/Керамический кирпич/2/3.jpg</t>
+  </si>
+  <si>
+    <t>632d92159f45e</t>
+  </si>
+  <si>
+    <t>Кирпич полнотелый</t>
+  </si>
+  <si>
+    <t>Кирпич полнотелый 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️ Тип: Кирпич одинарный рядовой полнотелый.
+ ✔️ Размеры: &lt;strong&gt; есть все размеры&lt;/strong&gt;.
+ ✔️ Цвет: красный, &lt;strong&gt;есть все цвета.&lt;/strong&gt;
+ ✔️ Марка: М200
+ ✔️ Вес: 5.1кг.
+ ✔️ Предел прочности при сжатии: 75 до 300 кгс/см².
+ ✔️ Предел прочности при изгибе: 10 до 50 кгс/см².
+ ✔️ Водопоглощение: 6-16%.
+ ✔️ Морозостойкость: F-50.
+ ✔️ Теплопроводность: Вт/м С: 0,39-0,77.
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!
+Ищите нас по запросам:
+1м2 облицовочного кирпича
+кирпич полнотелый
+кирпич полнотелый за штуку
+кирпич полнотелый коричневый
+кирпич полнотелый лср
+кирпич полнотелый м2
+кирпич полнотелый одинарный
+кирпич полнотелый поддон
+кирпич полнотелый полуторный
+кирпич полнотелый пустотелый
+кирпич полнотелый цена за штуку
+красный полнотелый кирпич
+купить кирпич полнотелый цена
+купить полнотелый кирпич
+полнотелый кирпич для фасада
+полнотелый кирпич для фасада цена
+полнотелый кирпич авито
+полнотелый кирпич цена
+полнотелый кирпич цена за м2
+полнотелый полнотелый кирпич
+серый полнотелый кирпич
+сколько полнотелый кирпич
+стоимость полнотелого кирпича</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Кирпич полнотелый/5/1.jpg | http://maket.loc/assets/images/Кирпич полнотелый/5/image (2).jpg | http://maket.loc/assets/images/Кирпич полнотелый/5/image (3).jpg</t>
+  </si>
+  <si>
+    <t>632d921802e74</t>
+  </si>
+  <si>
+    <t>Кирпич полнотелый 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️ Тип: Кирпич одинарный рядовой полнотелый.
+ ✔️ Размеры: &lt;strong&gt; есть все размеры&lt;/strong&gt;.
+ ✔️ Цвет: красный, &lt;strong&gt;есть все цвета.&lt;/strong&gt;
+ ✔️ Марка: М150
+ ✔️ Вес: 5.1кг.
+ ✔️ Предел прочности при сжатии: 80 до 320 кгс/см².
+ ✔️ Предел прочности при изгибе: 6 до 39 кгс/см².
+ ✔️ Водопоглощение: 5-18%.
+ ✔️ Морозостойкость: F-52.
+ ✔️ Теплопроводность: Вт/м С: 0,39-0,77.
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!
+Ищите нас по запросам:
+1м2 облицовочного кирпича
+кирпич полнотелый
+кирпич полнотелый за штуку
+кирпич полнотелый коричневый
+кирпич полнотелый лср
+кирпич полнотелый м2
+кирпич полнотелый одинарный
+кирпич полнотелый поддон
+кирпич полнотелый полуторный
+кирпич полнотелый пустотелый
+кирпич полнотелый цена за штуку
+красный полнотелый кирпич
+купить кирпич полнотелый цена
+купить полнотелый кирпич
+полнотелый кирпич для фасада
+полнотелый кирпич для фасада цена
+полнотелый кирпич авито
+полнотелый кирпич цена
+полнотелый кирпич цена за м2
+полнотелый полнотелый кирпич
+серый полнотелый кирпич
+сколько полнотелый кирпич
+стоимость полнотелого кирпича</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Кирпич полнотелый/6/1.jpg | http://maket.loc/assets/images/Кирпич полнотелый/6/2.jpg | http://maket.loc/assets/images/Кирпич полнотелый/6/image (3).jpg</t>
+  </si>
+  <si>
+    <t>632d92e70f418</t>
+  </si>
+  <si>
+    <t>Кирпич красный полнотелый</t>
+  </si>
+  <si>
+    <t>Кирпич красный полнотелый 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️ Тип: Кирпич одинарный рядовой полнотелый.
+ ✔️ Размеры: &lt;strong&gt; есть все размеры&lt;/strong&gt;.
+ ✔️ Цвет: красный, &lt;strong&gt;есть все цвета.&lt;/strong&gt;
+ ✔️ Марка: М200
+ ✔️ Вес: 5.3 кг.
+ ✔️ Предел прочности при сжатии: 80 до 320 кгс/см².
+ ✔️ Предел прочности при изгибе: 6 до 39 кгс/см².
+ ✔️ Водопоглощение: 6-16%.
+ ✔️ Морозостойкость: F-54.
+ ✔️ Теплопроводность: Вт/м С: 0,42-0,65.
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!
+Ищите нас по запросам:
+1м2 облицовочного кирпича
+кирпич полнотелый
+кирпич полнотелый за штуку
+кирпич полнотелый коричневый
+кирпич полнотелый лср
+кирпич полнотелый м2
+кирпич полнотелый одинарный
+кирпич полнотелый поддон
+кирпич полнотелый полуторный
+кирпич полнотелый пустотелый
+кирпич полнотелый цена за штуку
+красный полнотелый кирпич
+купить кирпич полнотелый цена
+купить полнотелый кирпич
+полнотелый кирпич для фасада
+полнотелый кирпич для фасада цена
+полнотелый кирпич авито
+полнотелый кирпич цена
+полнотелый кирпич цена за м2
+полнотелый полнотелый кирпич
+серый полнотелый кирпич
+сколько полнотелый кирпич
+стоимость полнотелого кирпича</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Кирпич полнотелый/7/image (1).jpg | http://maket.loc/assets/images/Кирпич полнотелый/7/image (2).jpg | http://maket.loc/assets/images/Кирпич полнотелый/7/image (3).jpg | http://maket.loc/assets/images/Кирпич полнотелый/7/image (4).jpg | http://maket.loc/assets/images/Кирпич полнотелый/7/image.jpg</t>
+  </si>
+  <si>
+    <t>632d9314651c6</t>
+  </si>
+  <si>
+    <t>Кирпич одинарный</t>
+  </si>
+  <si>
+    <t>Кирпич одинарный 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️ Тип: Кирпич одинарный рядовой полнотелый.
+ ✔️ Размеры: &lt;strong&gt; есть все размеры&lt;/strong&gt;.
+ ✔️ Цвет: красный, &lt;strong&gt;есть все цвета.&lt;/strong&gt;
+ ✔️ Марка: М150
+ ✔️ Вес: 5 .4кг.
+ ✔️ Предел прочности при сжатии: 77 до 305 кгс/см².
+ ✔️ Предел прочности при изгибе: 10 до 50 кгс/см².
+ ✔️ Водопоглощение: 8-19%.
+ ✔️ Морозостойкость: F-56.
+ ✔️ Теплопроводность: Вт/м С: 0,42-0,65.
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!
+Ищите нас по запросам:
+1м2 облицовочного кирпича
+кирпич полнотелый
+кирпич полнотелый за штуку
+кирпич полнотелый коричневый
+кирпич полнотелый лср
+кирпич полнотелый м2
+кирпич полнотелый одинарный
+кирпич полнотелый поддон
+кирпич полнотелый полуторный
+кирпич полнотелый пустотелый
+кирпич полнотелый цена за штуку
+красный полнотелый кирпич
+купить кирпич полнотелый цена
+купить полнотелый кирпич
+полнотелый кирпич для фасада
+полнотелый кирпич для фасада цена
+полнотелый кирпич авито
+полнотелый кирпич цена
+полнотелый кирпич цена за м2
+полнотелый полнотелый кирпич
+серый полнотелый кирпич
+сколько полнотелый кирпич
+стоимость полнотелого кирпича</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Кирпич полнотелый/8/1069.jpg | http://maket.loc/assets/images/Кирпич полнотелый/8/1072.jpg | http://maket.loc/assets/images/Кирпич полнотелый/8/1104.jpg</t>
+  </si>
+  <si>
+    <t>632d9315c0e52</t>
+  </si>
+  <si>
+    <t>Кирпич одинарный 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️ Тип: Кирпич одинарный рядовой полнотелый.
+ ✔️ Размеры: &lt;strong&gt; есть все размеры&lt;/strong&gt;.
+ ✔️ Цвет: красный, &lt;strong&gt;есть все цвета.&lt;/strong&gt;
+ ✔️ Марка: М200
+ ✔️ Вес: 5.3 кг.
+ ✔️ Предел прочности при сжатии: 77 до 305 кгс/см².
+ ✔️ Предел прочности при изгибе: 10 до 50 кгс/см².
+ ✔️ Водопоглощение: 7-15%.
+ ✔️ Морозостойкость: F-58.
+ ✔️ Теплопроводность: Вт/м С: 0,38-0,87.
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!
+Ищите нас по запросам:
+1м2 облицовочного кирпича
+кирпич полнотелый
+кирпич полнотелый за штуку
+кирпич полнотелый коричневый
+кирпич полнотелый лср
+кирпич полнотелый м2
+кирпич полнотелый одинарный
+кирпич полнотелый поддон
+кирпич полнотелый полуторный
+кирпич полнотелый пустотелый
+кирпич полнотелый цена за штуку
+красный полнотелый кирпич
+купить кирпич полнотелый цена
+купить полнотелый кирпич
+полнотелый кирпич для фасада
+полнотелый кирпич для фасада цена
+полнотелый кирпич авито
+полнотелый кирпич цена
+полнотелый кирпич цена за м2
+полнотелый полнотелый кирпич
+серый полнотелый кирпич
+сколько полнотелый кирпич
+стоимость полнотелого кирпича</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Кирпич полнотелый/1/1.jpg | http://maket.loc/assets/images/Кирпич полнотелый/1/2.jpg | http://maket.loc/assets/images/Кирпич полнотелый/1/3.jpg</t>
+  </si>
+  <si>
+    <t>632d932f4801e</t>
+  </si>
+  <si>
+    <t>Кирпич рядовой</t>
+  </si>
+  <si>
+    <t>Кирпич рядовой 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️ Тип: Кирпич одинарный рядовой полнотелый.
+ ✔️ Размеры: &lt;strong&gt; есть все размеры&lt;/strong&gt;.
+ ✔️ Цвет: красный, &lt;strong&gt;есть все цвета.&lt;/strong&gt;
+ ✔️ Марка: М150
+ ✔️ Вес: 5 .4кг.
+ ✔️ Предел прочности при сжатии: 76 до 312 кгс/см².
+ ✔️ Предел прочности при изгибе: 10 до 50 кгс/см².
+ ✔️ Водопоглощение: 6-16%.
+ ✔️ Морозостойкость: F-54.
+ ✔️ Теплопроводность: Вт/м С: 0,38-0,87.
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!
+Ищите нас по запросам:
+1м2 облицовочного кирпича
+кирпич полнотелый
+кирпич полнотелый за штуку
+кирпич полнотелый коричневый
+кирпич полнотелый лср
+кирпич полнотелый м2
+кирпич полнотелый одинарный
+кирпич полнотелый поддон
+кирпич полнотелый полуторный
+кирпич полнотелый пустотелый
+кирпич полнотелый цена за штуку
+красный полнотелый кирпич
+купить кирпич полнотелый цена
+купить полнотелый кирпич
+полнотелый кирпич для фасада
+полнотелый кирпич для фасада цена
+полнотелый кирпич авито
+полнотелый кирпич цена
+полнотелый кирпич цена за м2
+полнотелый полнотелый кирпич
+серый полнотелый кирпич
+сколько полнотелый кирпич
+стоимость полнотелого кирпича</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Кирпич полнотелый/2/4.jpg | http://maket.loc/assets/images/Кирпич полнотелый/2/5.jpg | http://maket.loc/assets/images/Кирпич полнотелый/2/6.jpg</t>
+  </si>
+  <si>
+    <t>632d933070afa</t>
+  </si>
+  <si>
+    <t>Кирпич рядовой 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️ Тип: Кирпич одинарный рядовой полнотелый.
+ ✔️ Размеры: &lt;strong&gt; есть все размеры&lt;/strong&gt;.
+ ✔️ Цвет: красный, &lt;strong&gt;есть все цвета.&lt;/strong&gt;
+ ✔️ Марка: М150
+ ✔️ Вес: 5 .4кг.
+ ✔️ Предел прочности при сжатии: 76 до 312 кгс/см².
+ ✔️ Предел прочности при изгибе: 9 до 42 кгс/см².
+ ✔️ Водопоглощение: 5-18%.
+ ✔️ Морозостойкость: F-58.
+ ✔️ Теплопроводность: Вт/м С: 0,39-0,77.
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!
+Ищите нас по запросам:
+1м2 облицовочного кирпича
+кирпич полнотелый
+кирпич полнотелый за штуку
+кирпич полнотелый коричневый
+кирпич полнотелый лср
+кирпич полнотелый м2
+кирпич полнотелый одинарный
+кирпич полнотелый поддон
+кирпич полнотелый полуторный
+кирпич полнотелый пустотелый
+кирпич полнотелый цена за штуку
+красный полнотелый кирпич
+купить кирпич полнотелый цена
+купить полнотелый кирпич
+полнотелый кирпич для фасада
+полнотелый кирпич для фасада цена
+полнотелый кирпич авито
+полнотелый кирпич цена
+полнотелый кирпич цена за м2
+полнотелый полнотелый кирпич
+серый полнотелый кирпич
+сколько полнотелый кирпич
+стоимость полнотелого кирпича</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Кирпич полнотелый/3/1.jpg | http://maket.loc/assets/images/Кирпич полнотелый/3/2.jpg | http://maket.loc/assets/images/Кирпич полнотелый/3/3.jpg</t>
+  </si>
+  <si>
+    <t>632d9348ccbfc</t>
+  </si>
+  <si>
+    <t>Кирпич 1 нф</t>
+  </si>
+  <si>
+    <t>Кирпич 1 нф 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️ Тип: Кирпич одинарный рядовой полнотелый.
+ ✔️ Размеры: &lt;strong&gt; есть все размеры&lt;/strong&gt;.
+ ✔️ Цвет: красный, &lt;strong&gt;есть все цвета.&lt;/strong&gt;
+ ✔️ Марка: М175
+ ✔️ Вес: 5.1кг.
+ ✔️ Предел прочности при сжатии: 77 до 305 кгс/см².
+ ✔️ Предел прочности при изгибе: 6 до 39 кгс/см².
+ ✔️ Водопоглощение: 6-16%.
+ ✔️ Морозостойкость: F-56.
+ ✔️ Теплопроводность: Вт/м С: 0,42-0,65.
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!
+Ищите нас по запросам:
+1м2 облицовочного кирпича
+кирпич полнотелый
+кирпич полнотелый за штуку
+кирпич полнотелый коричневый
+кирпич полнотелый лср
+кирпич полнотелый м2
+кирпич полнотелый одинарный
+кирпич полнотелый поддон
+кирпич полнотелый полуторный
+кирпич полнотелый пустотелый
+кирпич полнотелый цена за штуку
+красный полнотелый кирпич
+купить кирпич полнотелый цена
+купить полнотелый кирпич
+полнотелый кирпич для фасада
+полнотелый кирпич для фасада цена
+полнотелый кирпич авито
+полнотелый кирпич цена
+полнотелый кирпич цена за м2
+полнотелый полнотелый кирпич
+серый полнотелый кирпич
+сколько полнотелый кирпич
+стоимость полнотелого кирпича</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Кирпич полнотелый/4/1.jpg | http://maket.loc/assets/images/Кирпич полнотелый/4/2.jpg | http://maket.loc/assets/images/Кирпич полнотелый/4/4.jpg</t>
+  </si>
+  <si>
+    <t>632d93a6f1dc0</t>
+  </si>
+  <si>
+    <t>Клинкерная плитка</t>
+  </si>
+  <si>
+    <t>Клинкерная плитка 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️ Водонипроницаемость 0,6% &lt; Е&gt;4%
+ ✔️Теплопроводность 0,022 ВТ/моС
+ ✔️ Морозостойкость от {+150оС до -180 оС|+155оС до -185 оС|+160оС до -190 оС|+165оС до -195 оС}
+ Цена указана минимальная. Стоимость зависит от формы и цвета. Уточняйте у наших менеджеров в сообщениях или по телефону.
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!
+Ищите нас по запросам:
+клинкерная напольная плитка
+клинкерная плитка
+клинкерная плитка для внутренней
+клинкерная плитка для внутренней отделки
+клинкерная плитка для крыльца
+клинкерная плитка для печи
+клинкерная плитка для ступеней
+клинкерная плитка для ступеней купить
+клинкерная плитка для улицы
+клинкерная плитка для фасада
+клинкерная плитка для фасада купить
+клинкерная плитка для фасада цена
+клинкерная плитка кирпич
+клинкерная плитка купить
+клинкерная плитка м2
+клинкерная плитка на стену
+клинкерная плитка под кирпич
+клинкерная плитка размеры
+клинкерная плитка цена
+клинкерная плитка цена за м2
+клинкерная плитка цена за м2 для фасада
+клинкерная тротуарная плитка
+клинкерный кирпич клинкерная плитка фасады
+купить клинкерную плитку для крыльца
+наружная клинкерная плитка
+облицовка клинкерной плиткой
+отделка клинкерной плиткой
+плитка клинкерная фасадная</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Клинкерная плитка/3/1.jpg | http://maket.loc/assets/images/Клинкерная плитка/3/image (1).jpg | http://maket.loc/assets/images/Клинкерная плитка/3/image.jpg</t>
+  </si>
+  <si>
+    <t>632d93a7b405c</t>
+  </si>
+  <si>
+    <t>Клинкерная плитка 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️ Водонипроницаемость 0,7% &lt; Е&gt;5%
+ ✔️Теплопроводность 0,023 ВТ/моС
+ ✔️ Морозостойкость от {+150оС до -180 оС|+155оС до -185 оС|+160оС до -190 оС|+165оС до -195 оС}
+ Цена указана минимальная. Стоимость зависит от формы и цвета. Уточняйте у наших менеджеров в сообщениях или по телефону.
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!
+Ищите нас по запросам:
+клинкерная напольная плитка
+клинкерная плитка
+клинкерная плитка для внутренней
+клинкерная плитка для внутренней отделки
+клинкерная плитка для крыльца
+клинкерная плитка для печи
+клинкерная плитка для ступеней
+клинкерная плитка для ступеней купить
+клинкерная плитка для улицы
+клинкерная плитка для фасада
+клинкерная плитка для фасада купить
+клинкерная плитка для фасада цена
+клинкерная плитка кирпич
+клинкерная плитка купить
+клинкерная плитка м2
+клинкерная плитка на стену
+клинкерная плитка под кирпич
+клинкерная плитка размеры
+клинкерная плитка цена
+клинкерная плитка цена за м2
+клинкерная плитка цена за м2 для фасада
+клинкерная тротуарная плитка
+клинкерный кирпич клинкерная плитка фасады
+купить клинкерную плитку для крыльца
+наружная клинкерная плитка
+облицовка клинкерной плиткой
+отделка клинкерной плиткой
+плитка клинкерная фасадная</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Клинкерная плитка/4/1.jpg | http://maket.loc/assets/images/Клинкерная плитка/4/image (3).jpg | http://maket.loc/assets/images/Клинкерная плитка/4/image.jpg</t>
+  </si>
+  <si>
+    <t>632d94180b8d7</t>
+  </si>
+  <si>
+    <t>Металлопрофиль</t>
+  </si>
+  <si>
+    <t>Металлопрофиль 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️Разновидности: C-8,Н-60, МП-20 и многие другие
+ ✔️Толщина: От 0,32 до 1 мм
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!
+Ищите нас по запросам:
+авито профнастил
+купить профнастил
+купить профнастил для забора
+купить профнастил для крыши
+купить профнастил цена
+лист профнастила
+листы профнастила для забора
+листы профнастила для крыши
+метр профнастил
+правильный профнастил
+Профлист
+Профнастил
+профнастил 2000х1150
+профнастил 2000х1150 цена
+профнастил для забора цена за лист
+профнастил для крыши
+профнастил для крыши размеры
+профнастил для крыши цена
+профнастил м2
+Профнастил н75
+Профнастил Некондиция
+профнастил оцинкованный
+профнастил под забор
+профнастил под ключ
+профнастил размеры и цены
+профнастил размеры листа
+профнастил размеры листа и цена
+Профнастил с21
+Профнастил с44 
+Профнастил С8
+профнастил стоимость
+профнастил цена
+профнастил цена за лист
+профнастил цена за лист 2000х1150
+профнастил цена за метр
+сколько стоит профнастил</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Металлопрофиль/1/1.jpg | http://maket.loc/assets/images/Металлопрофиль/1/2.jpg | http://maket.loc/assets/images/Металлопрофиль/1/3.jpg</t>
+  </si>
+  <si>
+    <t>Листовые материалы</t>
+  </si>
+  <si>
+    <t>632d94180c556</t>
+  </si>
+  <si>
+    <t>Металлопрофиль 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️Разновидности: С-10,Н-75, МП-20 и многие другие
+ ✔️Толщина: От 0,33 до 1 мм
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!
+Ищите нас по запросам:
+авито профнастил
+купить профнастил
+купить профнастил для забора
+купить профнастил для крыши
+купить профнастил цена
+лист профнастила
+листы профнастила для забора
+листы профнастила для крыши
+метр профнастил
+правильный профнастил
+Профлист
+Профнастил
+профнастил 2000х1150
+профнастил 2000х1150 цена
+профнастил для забора цена за лист
+профнастил для крыши
+профнастил для крыши размеры
+профнастил для крыши цена
+профнастил м2
+Профнастил н75
+Профнастил Некондиция
+профнастил оцинкованный
+профнастил под забор
+профнастил под ключ
+профнастил размеры и цены
+профнастил размеры листа
+профнастил размеры листа и цена
+Профнастил с21
+Профнастил с44 
+Профнастил С8
+профнастил стоимость
+профнастил цена
+профнастил цена за лист
+профнастил цена за лист 2000х1150
+профнастил цена за метр
+сколько стоит профнастил</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Металлопрофиль/2/1.jpg | http://maket.loc/assets/images/Металлопрофиль/2/3.jpg | http://maket.loc/assets/images/Металлопрофиль/2/4.jpeg</t>
+  </si>
+  <si>
+    <t>632d94180cc17</t>
+  </si>
+  <si>
+    <t>Профнастил</t>
+  </si>
+  <si>
+    <t>Профнастил 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️Разновидности: С-10,Н-60, МП-20 и многие другие
+ ✔️Толщина: От 0,3 до 1 мм
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!
+Ищите нас по запросам:
+авито профнастил
+купить профнастил
+купить профнастил для забора
+купить профнастил для крыши
+купить профнастил цена
+лист профнастила
+листы профнастила для забора
+листы профнастила для крыши
+метр профнастил
+правильный профнастил
+Профлист
+Профнастил
+профнастил 2000х1150
+профнастил 2000х1150 цена
+профнастил для забора цена за лист
+профнастил для крыши
+профнастил для крыши размеры
+профнастил для крыши цена
+профнастил м2
+Профнастил н75
+Профнастил Некондиция
+профнастил оцинкованный
+профнастил под забор
+профнастил под ключ
+профнастил размеры и цены
+профнастил размеры листа
+профнастил размеры листа и цена
+Профнастил с21
+Профнастил с44 
+Профнастил С8
+профнастил стоимость
+профнастил цена
+профнастил цена за лист
+профнастил цена за лист 2000х1150
+профнастил цена за метр
+сколько стоит профнастил</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Металлопрофиль/3/1.jpg | http://maket.loc/assets/images/Металлопрофиль/3/2.jpg | http://maket.loc/assets/images/Металлопрофиль/3/3.jpg</t>
+  </si>
+  <si>
+    <t>632d94180d35c</t>
+  </si>
+  <si>
+    <t>Профлист</t>
+  </si>
+  <si>
+    <t>Профлист 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️Разновидности: С-44,Н-60, МП-35 и многие другие
+ ✔️Толщина: От 0,32 до 1 мм
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!
+Ищите нас по запросам:
+авито профнастил
+купить профнастил
+купить профнастил для забора
+купить профнастил для крыши
+купить профнастил цена
+лист профнастила
+листы профнастила для забора
+листы профнастила для крыши
+метр профнастил
+правильный профнастил
+Профлист
+Профнастил
+профнастил 2000х1150
+профнастил 2000х1150 цена
+профнастил для забора цена за лист
+профнастил для крыши
+профнастил для крыши размеры
+профнастил для крыши цена
+профнастил м2
+Профнастил н75
+Профнастил Некондиция
+профнастил оцинкованный
+профнастил под забор
+профнастил под ключ
+профнастил размеры и цены
+профнастил размеры листа
+профнастил размеры листа и цена
+Профнастил с21
+Профнастил с44 
+Профнастил С8
+профнастил стоимость
+профнастил цена
+профнастил цена за лист
+профнастил цена за лист 2000х1150
+профнастил цена за метр
+сколько стоит профнастил</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Металлопрофиль/4/1.jpg | http://maket.loc/assets/images/Металлопрофиль/4/2.jpg | http://maket.loc/assets/images/Металлопрофиль/4/3.jpg</t>
+  </si>
+  <si>
+    <t>632d945c61f41</t>
+  </si>
+  <si>
+    <t>Металлочерепица</t>
+  </si>
+  <si>
+    <t>Металлочерепица 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️Толщина покрытия, мкм 35
+ ✔️Толщина слоягрунтовки, мкм 14-17
+ ✔️Максимальная температура эксплуатации 130C
+ ✔️Минимальный радиус изгиба 3.3xt
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!
+Ищите нас по запросам:
+купить металлочерепицу цена
+лист металлочерепицы
+лучшая металлочерепица
+металлочерепица
+металлочерепица для крыши
+металлочерепица для крыши цена
+металлочерепица за м2
+металлочерепица за метр
+металлочерепица квадратная
+металлочерепица купить
+металлочерепица монтеррей
+металлочерепица размеры
+металлочерепица цена
+металлочерепица цена за лист
+металлочерепица цена за м2
+металлочерепица цена за метр
+сколько стоит металлочерепица
+стоимость металлочерепицы
+стоит металлочерепица</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Металлочерепица/1/1.jpg | http://maket.loc/assets/images/Металлочерепица/1/2.jpg | http://maket.loc/assets/images/Металлочерепица/1/3.jpg</t>
+  </si>
+  <si>
+    <t>Кровля и водосток</t>
+  </si>
+  <si>
+    <t>632d945c62e95</t>
+  </si>
+  <si>
+    <t>Металлочерепица 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️Толщина покрытия, мкм 36
+ ✔️Толщина слоягрунтовки, мкм 15-18
+ ✔️Максимальная температура эксплуатации 135C
+ ✔️Минимальный радиус изгиба 3.1xt
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!
+Ищите нас по запросам:
+купить металлочерепицу цена
+лист металлочерепицы
+лучшая металлочерепица
+металлочерепица
+металлочерепица для крыши
+металлочерепица для крыши цена
+металлочерепица за м2
+металлочерепица за метр
+металлочерепица квадратная
+металлочерепица купить
+металлочерепица монтеррей
+металлочерепица размеры
+металлочерепица цена
+металлочерепица цена за лист
+металлочерепица цена за м2
+металлочерепица цена за метр
+сколько стоит металлочерепица
+стоимость металлочерепицы
+стоит металлочерепица</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Металлочерепица/2/1.jpg | http://maket.loc/assets/images/Металлочерепица/2/2.jpg | http://maket.loc/assets/images/Металлочерепица/2/3.jpg</t>
+  </si>
+  <si>
+    <t>632d945c6369b</t>
+  </si>
+  <si>
+    <t>Металлическая черепица</t>
+  </si>
+  <si>
+    <t>Металлическая черепица 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️Толщина покрытия, мкм 35
+ ✔️Толщина слоягрунтовки, мкм 15-18
+ ✔️Максимальная температура эксплуатации 125C
+ ✔️Минимальный радиус изгиба 3.1xt
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!
+Ищите нас по запросам:
+купить металлочерепицу цена
+лист металлочерепицы
+лучшая металлочерепица
+металлочерепица
+металлочерепица для крыши
+металлочерепица для крыши цена
+металлочерепица за м2
+металлочерепица за метр
+металлочерепица квадратная
+металлочерепица купить
+металлочерепица монтеррей
+металлочерепица размеры
+металлочерепица цена
+металлочерепица цена за лист
+металлочерепица цена за м2
+металлочерепица цена за метр
+сколько стоит металлочерепица
+стоимость металлочерепицы
+стоит металлочерепица</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Металлочерепица/3/1.jpg | http://maket.loc/assets/images/Металлочерепица/3/2.jpg | http://maket.loc/assets/images/Металлочерепица/3/3.jpg</t>
+  </si>
+  <si>
+    <t>632d945c63c6c</t>
+  </si>
+  <si>
+    <t>Металлическая черепица 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️Толщина покрытия, мкм 26
+ ✔️Толщина слоягрунтовки, мкм 15-18
+ ✔️Максимальная температура эксплуатации 125C
+ ✔️Минимальный радиус изгиба 3.3xt
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!
+Ищите нас по запросам:
+купить металлочерепицу цена
+лист металлочерепицы
+лучшая металлочерепица
+металлочерепица
+металлочерепица для крыши
+металлочерепица для крыши цена
+металлочерепица за м2
+металлочерепица за метр
+металлочерепица квадратная
+металлочерепица купить
+металлочерепица монтеррей
+металлочерепица размеры
+металлочерепица цена
+металлочерепица цена за лист
+металлочерепица цена за м2
+металлочерепица цена за метр
+сколько стоит металлочерепица
+стоимость металлочерепицы
+стоит металлочерепица</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Металлочерепица/4/1.jpg | http://maket.loc/assets/images/Металлочерепица/4/2.jpg | http://maket.loc/assets/images/Металлочерепица/4/3.jpg | http://maket.loc/assets/images/Металлочерепица/4/4.jpg</t>
+  </si>
+  <si>
+    <t>632d9491eb524</t>
+  </si>
+  <si>
+    <t>Миниральная вата</t>
+  </si>
+  <si>
+    <t>Миниральная вата 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️Прочность 0,09-07 кг/кв. см
+ ✔️Плотность минеральной ваты 39-104 кг/куб. м
+ ✔️Теплопроводность 0,037-0,061 Вт/мГрад
+ ✔️Огнестойкость до {+400 С.|+410 С.|+430 С.|+440 С.}
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Миниральная вата/1/1.jpg | http://maket.loc/assets/images/Миниральная вата/1/2.jpg | http://maket.loc/assets/images/Миниральная вата/1/3.jpg</t>
+  </si>
+  <si>
+    <t>632d94934c9b6</t>
+  </si>
+  <si>
+    <t>Миниральная вата 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️Прочность 0,08-06 кг/кв. см
+ ✔️Плотность минеральной ваты 36-101 кг/куб. м
+ ✔️Теплопроводность 0,038-0,062 Вт/мГрад
+ ✔️Огнестойкость до {+400 С.|+410 С.|+430 С.|+440 С.}
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Миниральная вата/2/1.jpg | http://maket.loc/assets/images/Миниральная вата/2/2.jpg | http://maket.loc/assets/images/Миниральная вата/2/3.jpg</t>
+  </si>
+  <si>
+    <t>632d94cb1e343</t>
+  </si>
+  <si>
+    <t>Мягкая черепица</t>
+  </si>
+  <si>
+    <t>Мягкая черепица 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️Прочность на разрыв стержнем гвоздя, Н, не менее 110
+ ✔️Теплостойкость материала, 2 часа при температуре, ºС, не ниже 95
+ ✔️Стойкость к старению под воздействием искусственных климатических факторов 60 циклов
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Мягкая черепица/1/1.jpg | http://maket.loc/assets/images/Мягкая черепица/1/2.jpg | http://maket.loc/assets/images/Мягкая черепица/1/3.jpg | http://maket.loc/assets/images/Мягкая черепица/1/4.jpg</t>
+  </si>
+  <si>
+    <t>632d94cc06db3</t>
+  </si>
+  <si>
+    <t>Мягкая черепица 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️Прочность на разрыв стержнем гвоздя, Н, не менее 120
+ ✔️Теплостойкость материала, 2 часа при температуре, ºС, не ниже 100
+ ✔️Стойкость к старению под воздействием искусственных климатических факторов 65 циклов
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Мягкая черепица/2/1.jpg | http://maket.loc/assets/images/Мягкая черепица/2/2.jpg | http://maket.loc/assets/images/Мягкая черепица/2/3.jpg | http://maket.loc/assets/images/Мягкая черепица/2/4.jpg</t>
+  </si>
+  <si>
+    <t>632d94cc6a914</t>
+  </si>
+  <si>
+    <t>Мягкая черепица 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️Прочность на разрыв стержнем гвоздя, Н, не менее 110
+ ✔️Теплостойкость материала, 2 часа при температуре, ºС, не ниже 80
+ ✔️Стойкость к старению под воздействием искусственных климатических факторов 75 циклов
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Мягкая черепица/3/1.jpg | http://maket.loc/assets/images/Мягкая черепица/3/2.jpg | http://maket.loc/assets/images/Мягкая черепица/3/3.jpg</t>
+  </si>
+  <si>
+    <t>632d94ccdbd40</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Мягкая черепица/4/1.jpg | http://maket.loc/assets/images/Мягкая черепица/4/2.jpg | http://maket.loc/assets/images/Мягкая черепица/4/3.jpg | http://maket.loc/assets/images/Мягкая черепица/4/4.jpg | http://maket.loc/assets/images/Мягкая черепица/4/5.jpg</t>
+  </si>
+  <si>
+    <t>632d9555b44da</t>
+  </si>
+  <si>
+    <t>Кирпич облицовочный</t>
+  </si>
+  <si>
+    <t>Кирпич облицовочный 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️ Тип: Кирпич одинарный рядовой полнотелый.
+ ✔️ Размеры: &lt;strong&gt; есть все размеры&lt;/strong&gt;.
+ ✔️ Цвет: красный, &lt;strong&gt;есть все цвета.&lt;/strong&gt;
+ ✔️ Марка: М175
+ ✔️ Вес: 5 .4кг.
+ ✔️ Предел прочности при сжатии: 76 до 312 кгс/см².
+ ✔️ Предел прочности при изгибе: 6 до 39 кгс/см².
+ ✔️ Водопоглощение: 8-19%.
+ ✔️ Морозостойкость: F-52.
+ ✔️ Теплопроводность: Вт/м С: 0,42-0,65.
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!
+Ищите нас по запросам:
+1м2 облицовочного кирпича
+кирпич облицовочный
+кирпич облицовочный за штуку
+кирпич облицовочный коричневый
+кирпич облицовочный лср
+кирпич облицовочный м2
+кирпич облицовочный одинарный
+кирпич облицовочный поддон
+кирпич облицовочный полуторный
+кирпич облицовочный пустотелый
+кирпич облицовочный цена за штуку
+красный облицовочный кирпич
+купить кирпич облицовочный цена
+купить облицовочный кирпич
+облицовочный кирпич для фасада
+облицовочный кирпич для фасада цена
+облицовочный кирпич авито
+облицовочный кирпич цена
+облицовочный кирпич цена за м2
+полнотелый облицовочный кирпич
+серый облицовочный кирпич
+сколько облицовочный кирпич
+стоимость облицовочного кирпича</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Облицовочный кирпич/1/1.jpg | http://maket.loc/assets/images/Облицовочный кирпич/1/2.jpg</t>
+  </si>
+  <si>
+    <t>632d957101bf8</t>
+  </si>
+  <si>
+    <t>Кирпич фасадный</t>
+  </si>
+  <si>
+    <t>Кирпич фасадный 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️ Тип: Кирпич одинарный рядовой полнотелый.
+ ✔️ Размеры: &lt;strong&gt; есть все размеры&lt;/strong&gt;.
+ ✔️ Цвет: красный, &lt;strong&gt;есть все цвета.&lt;/strong&gt;
+ ✔️ Марка: М200
+ ✔️ Вес: 5.2 кг.
+ ✔️ Предел прочности при сжатии: 77 до 305 кгс/см².
+ ✔️ Предел прочности при изгибе: 9 до 42 кгс/см².
+ ✔️ Водопоглощение: 5-18%.
+ ✔️ Морозостойкость: F-57.
+ ✔️ Теплопроводность: Вт/м С: 0,39-0,77.
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!
+Ищите нас по запросам:
+1м2 облицовочного кирпича
+кирпич облицовочный
+кирпич облицовочный за штуку
+кирпич облицовочный коричневый
+кирпич облицовочный лср
+кирпич облицовочный м2
+кирпич облицовочный одинарный
+кирпич облицовочный поддон
+кирпич облицовочный полуторный
+кирпич облицовочный пустотелый
+кирпич облицовочный цена за штуку
+красный облицовочный кирпич
+купить кирпич облицовочный цена
+купить облицовочный кирпич
+облицовочный кирпич для фасада
+облицовочный кирпич для фасада цена
+облицовочный кирпич авито
+облицовочный кирпич цена
+облицовочный кирпич цена за м2
+полнотелый облицовочный кирпич
+серый облицовочный кирпич
+сколько облицовочный кирпич
+стоимость облицовочного кирпича</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Облицовочный кирпич/2/1.jpg | http://maket.loc/assets/images/Облицовочный кирпич/2/2.jpg | http://maket.loc/assets/images/Облицовочный кирпич/2/3.jpg</t>
+  </si>
+  <si>
+    <t>632d95c6a725a</t>
+  </si>
+  <si>
+    <t>Пенополистирол</t>
+  </si>
+  <si>
+    <t>Пенополистирол 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️Коэффициент теплопроводности {0,036 — 0,04 Вт/(м•К).|0,037 — 0,05 Вт/(м•К).|0,039 — 0,06 Вт/(м•К).|0,040 — 0,07 Вт/(м•К).}
+ ✔️Сорбционная влажность 1,5% масс.1,4% масс.
+ ✔️Предел прочности на сжатие 00,07 — 0,23 мПа.
+ ✔️Коэффициент теплопроводности {0,036 — 0,04 Вт/(м•К).|0,037 — 0,05 Вт/(м•К).|0,038 — 0,06 Вт/(м•К).|0,039 — 0,07 Вт/(м•К).}
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!
+Ищите нас по запросам:
+купить пенополистирола цена
+лучший пенополистирол
+пенополистирол
+пенополистирол 100
+пенополистирол 100 мм
+пенополистирол 20
+пенополистирол 20 мм
+пенополистирол 30
+пенополистирол 30 мм
+пенополистирол 35
+пенополистирол 50
+пенополистирол 50 купить
+пенополистирол 50 мм
+пенополистирол 50 мм цена
+пенополистирол 50 цена
+пенополистирол 50мм
+пенополистирол для пола
+пенополистирол для теплого
+пенополистирол для теплого пола
+пенополистирол для фундамента
+пенополистирол купить
+пенополистирол купить 50 мм
+пенополистирол м3
+пенополистирол ппс
+пенополистирол сколько
+пенополистирол снаружи
+пенополистирол утеплить
+пенополистирол цена
+пенополистирол экструдированный 50 мм
+пенополистирол экструдированный 50 цена
+утепление пенополистиролом
+утеплитель пенополистирол
+фасадный пенополистирол</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Пенополистирол/1/1.jpg | http://maket.loc/assets/images/Пенополистирол/1/2.jpg | http://maket.loc/assets/images/Пенополистирол/1/3.jpg</t>
+  </si>
+  <si>
+    <t>632d95c761ab3</t>
+  </si>
+  <si>
+    <t>Пенополистирол 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️Коэффициент теплопроводности {0,036 — 0,04 Вт/(м•К).|0,037 — 0,05 Вт/(м•К).|0,039 — 0,06 Вт/(м•К).|0,040 — 0,07 Вт/(м•К).}
+ ✔️Сорбционная влажность 1,0% масс.
+ ✔️Предел прочности на сжатие 00,08 — 0,24 мПа.
+ ✔️Коэффициент теплопроводности {0,036 — 0,04 Вт/(м•К).|0,037 — 0,05 Вт/(м•К).|0,038 — 0,06 Вт/(м•К).|0,039 — 0,07 Вт/(м•К).}
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!
+Ищите нас по запросам:
+купить пенополистирола цена
+лучший пенополистирол
+пенополистирол
+пенополистирол 100
+пенополистирол 100 мм
+пенополистирол 20
+пенополистирол 20 мм
+пенополистирол 30
+пенополистирол 30 мм
+пенополистирол 35
+пенополистирол 50
+пенополистирол 50 купить
+пенополистирол 50 мм
+пенополистирол 50 мм цена
+пенополистирол 50 цена
+пенополистирол 50мм
+пенополистирол для пола
+пенополистирол для теплого
+пенополистирол для теплого пола
+пенополистирол для фундамента
+пенополистирол купить
+пенополистирол купить 50 мм
+пенополистирол м3
+пенополистирол ппс
+пенополистирол сколько
+пенополистирол снаружи
+пенополистирол утеплить
+пенополистирол цена
+пенополистирол экструдированный 50 мм
+пенополистирол экструдированный 50 цена
+утепление пенополистиролом
+утеплитель пенополистирол
+фасадный пенополистирол</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Пенополистирол/2/4.jpg | http://maket.loc/assets/images/Пенополистирол/2/5.jpg</t>
+  </si>
+  <si>
+    <t>632d95c7dab1e</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Пенополистирол/3/6.jpg | http://maket.loc/assets/images/Пенополистирол/3/7.jpg | http://maket.loc/assets/images/Пенополистирол/3/8.jpg</t>
+  </si>
+  <si>
+    <t>632d95c855d4d</t>
+  </si>
+  <si>
+    <t>Пенополистирол 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️Коэффициент теплопроводности {0,036 — 0,04 Вт/(м•К).|0,037 — 0,05 Вт/(м•К).|0,039 — 0,06 Вт/(м•К).|0,040 — 0,07 Вт/(м•К).}
+ ✔️Сорбционная влажность 1,0% масс.
+ ✔️Предел прочности на сжатие 00,07 — 0,23 мПа.
+ ✔️Коэффициент теплопроводности {0,036 — 0,04 Вт/(м•К).|0,037 — 0,05 Вт/(м•К).|0,038 — 0,06 Вт/(м•К).|0,039 — 0,07 Вт/(м•К).}
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!
+Ищите нас по запросам:
+купить пенополистирола цена
+лучший пенополистирол
+пенополистирол
+пенополистирол 100
+пенополистирол 100 мм
+пенополистирол 20
+пенополистирол 20 мм
+пенополистирол 30
+пенополистирол 30 мм
+пенополистирол 35
+пенополистирол 50
+пенополистирол 50 купить
+пенополистирол 50 мм
+пенополистирол 50 мм цена
+пенополистирол 50 цена
+пенополистирол 50мм
+пенополистирол для пола
+пенополистирол для теплого
+пенополистирол для теплого пола
+пенополистирол для фундамента
+пенополистирол купить
+пенополистирол купить 50 мм
+пенополистирол м3
+пенополистирол ппс
+пенополистирол сколько
+пенополистирол снаружи
+пенополистирол утеплить
+пенополистирол цена
+пенополистирол экструдированный 50 мм
+пенополистирол экструдированный 50 цена
+утепление пенополистиролом
+утеплитель пенополистирол
+фасадный пенополистирол</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Пенополистирол/4/1.jpeg | http://maket.loc/assets/images/Пенополистирол/4/2.jpg | http://maket.loc/assets/images/Пенополистирол/4/3.jpg</t>
+  </si>
+  <si>
+    <t>632d9622a3b0c</t>
+  </si>
+  <si>
+    <t>Плиты перекрытия</t>
+  </si>
+  <si>
+    <t>Плиты перекрытия 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️ Плиты перекрытия ЖБИ.
+ ✔️ Размеры есть все размеры
+ ✔️Прочность бетона 262,8 кг/см2
+ ✔️ Расчетная нагрузка 800 кг/кв.м.
+ ✔️ Вес 0,890 т.
+ ✔️ Предельная нагрузка 12,7 кПа
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!
+Ищите нас по запросам:
+железобетонные плиты перекрытия
+бетонные плиты перекрытия цена
+ж б плиты перекрытия
+жб плиты перекрытия
+жби плиты перекрытия
+железобетонная плита цена
+железобетонные плиты
+монолитная железобетонная плита
+монолитная плита перекрытия
+панельные плиты перекрытия
+плита перекрытия 10 1
+плита перекрытия 20
+плита перекрытия м
+плита перекрытия м2
+плита перекрытия пк 8
+плиты жби
+плиты жби цена
+плиты перекрытия
+плиты перекрытия 1 2
+плиты перекрытия 200 мм
+плиты перекрытия 220
+плиты перекрытия 400
+плиты перекрытия 9
+плиты перекрытия пб
+плиты перекрытия пб цена
+плиты перекрытия пк
+производство плит перекрытия
+сколько стоит плита перекрытия
+стоимость плит перекрытия</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Плиты ЖБИ, перекрытия/1/1.jpg | http://maket.loc/assets/images/Плиты ЖБИ, перекрытия/1/2.jpg | http://maket.loc/assets/images/Плиты ЖБИ, перекрытия/1/3.jpg</t>
+  </si>
+  <si>
+    <t>Плита</t>
+  </si>
+  <si>
+    <t>632d9622a4621</t>
+  </si>
+  <si>
+    <t>Плиты перекрытия 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️ Плиты перекрытия ЖБИ.
+ ✔️ Размеры есть все размеры
+ ✔️Прочность бетона 262,8 кг/см2
+ ✔️ Расчетная нагрузка 810 кг/кв.м.
+ ✔️ Вес 0,882 т.
+ ✔️ Предельная нагрузка 12,8 кПа
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!
+Ищите нас по запросам:
+железобетонные плиты перекрытия
+бетонные плиты перекрытия цена
+ж б плиты перекрытия
+жб плиты перекрытия
+жби плиты перекрытия
+железобетонная плита цена
+железобетонные плиты
+монолитная железобетонная плита
+монолитная плита перекрытия
+панельные плиты перекрытия
+плита перекрытия 10 1
+плита перекрытия 20
+плита перекрытия м
+плита перекрытия м2
+плита перекрытия пк 8
+плиты жби
+плиты жби цена
+плиты перекрытия
+плиты перекрытия 1 2
+плиты перекрытия 200 мм
+плиты перекрытия 220
+плиты перекрытия 400
+плиты перекрытия 9
+плиты перекрытия пб
+плиты перекрытия пб цена
+плиты перекрытия пк
+производство плит перекрытия
+сколько стоит плита перекрытия
+стоимость плит перекрытия</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Плиты ЖБИ, перекрытия/2/4.jpg | http://maket.loc/assets/images/Плиты ЖБИ, перекрытия/2/5.jpg | http://maket.loc/assets/images/Плиты ЖБИ, перекрытия/2/6.jpg</t>
+  </si>
+  <si>
+    <t>632d9622a4ce9</t>
+  </si>
+  <si>
+    <t>Плиты перекрытия 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️ Плиты перекрытия ЖБИ.
+ ✔️ Размеры есть все размеры
+ ✔️Прочность бетона 265,5 кг/см2
+ ✔️ Расчетная нагрузка 810 кг/кв.м.
+ ✔️ Вес 0,882 т.
+ ✔️ Предельная нагрузка 12,9 кПа
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!
+Ищите нас по запросам:
+железобетонные плиты перекрытия
+бетонные плиты перекрытия цена
+ж б плиты перекрытия
+жб плиты перекрытия
+жби плиты перекрытия
+железобетонная плита цена
+железобетонные плиты
+монолитная железобетонная плита
+монолитная плита перекрытия
+панельные плиты перекрытия
+плита перекрытия 10 1
+плита перекрытия 20
+плита перекрытия м
+плита перекрытия м2
+плита перекрытия пк 8
+плиты жби
+плиты жби цена
+плиты перекрытия
+плиты перекрытия 1 2
+плиты перекрытия 200 мм
+плиты перекрытия 220
+плиты перекрытия 400
+плиты перекрытия 9
+плиты перекрытия пб
+плиты перекрытия пб цена
+плиты перекрытия пк
+производство плит перекрытия
+сколько стоит плита перекрытия
+стоимость плит перекрытия</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Плиты ЖБИ, перекрытия/3/Скриншот 15-02-2022 141059.jpg | http://maket.loc/assets/images/Плиты ЖБИ, перекрытия/3/Скриншот 15-02-2022 141111.jpg | http://maket.loc/assets/images/Плиты ЖБИ, перекрытия/3/Скриншот 15-02-2022 141118.jpg | http://maket.loc/assets/images/Плиты ЖБИ, перекрытия/3/Скриншот 15-02-2022 141123.jpg | http://maket.loc/assets/images/Плиты ЖБИ, перекрытия/3/Скриншот 15-02-2022 141127.jpg</t>
+  </si>
+  <si>
+    <t>632d9622a5231</t>
+  </si>
+  <si>
+    <t>Плиты ЖБИ</t>
+  </si>
+  <si>
+    <t>Плиты ЖБИ 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️ Плиты перекрытия ЖБИ.
+ ✔️ Размеры есть все размеры
+ ✔️Прочность бетона 265,5 кг/см2
+ ✔️ Расчетная нагрузка 830 кг/кв.м.
+ ✔️ Вес 0,890 т.
+ ✔️ Предельная нагрузка 12,6 кПа
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!
+Ищите нас по запросам:
+железобетонные плиты перекрытия
+бетонные плиты перекрытия цена
+ж б плиты перекрытия
+жб плиты перекрытия
+жби плиты перекрытия
+железобетонная плита цена
+железобетонные плиты
+монолитная железобетонная плита
+монолитная плита перекрытия
+панельные плиты перекрытия
+плита перекрытия 10 1
+плита перекрытия 20
+плита перекрытия м
+плита перекрытия м2
+плита перекрытия пк 8
+плиты жби
+плиты жби цена
+плиты перекрытия
+плиты перекрытия 1 2
+плиты перекрытия 200 мм
+плиты перекрытия 220
+плиты перекрытия 400
+плиты перекрытия 9
+плиты перекрытия пб
+плиты перекрытия пб цена
+плиты перекрытия пк
+производство плит перекрытия
+сколько стоит плита перекрытия
+стоимость плит перекрытия</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Плиты ЖБИ, перекрытия/4/Скриншот 15-02-2022 135500.jpg | http://maket.loc/assets/images/Плиты ЖБИ, перекрытия/4/Скриншот 15-02-2022 135649.jpg</t>
+  </si>
+  <si>
+    <t>632d9622a56b7</t>
+  </si>
+  <si>
+    <t>Плиты ЖБИ 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️ Плиты перекрытия ЖБИ.
+ ✔️ Размеры есть все размеры
+ ✔️Прочность бетона 263,7 кг/см2
+ ✔️ Расчетная нагрузка 830 кг/кв.м.
+ ✔️ Вес 0,882 т.
+ ✔️ Предельная нагрузка 12,9 кПа
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!
+Ищите нас по запросам:
+железобетонные плиты перекрытия
+бетонные плиты перекрытия цена
+ж б плиты перекрытия
+жб плиты перекрытия
+жби плиты перекрытия
+железобетонная плита цена
+железобетонные плиты
+монолитная железобетонная плита
+монолитная плита перекрытия
+панельные плиты перекрытия
+плита перекрытия 10 1
+плита перекрытия 20
+плита перекрытия м
+плита перекрытия м2
+плита перекрытия пк 8
+плиты жби
+плиты жби цена
+плиты перекрытия
+плиты перекрытия 1 2
+плиты перекрытия 200 мм
+плиты перекрытия 220
+плиты перекрытия 400
+плиты перекрытия 9
+плиты перекрытия пб
+плиты перекрытия пб цена
+плиты перекрытия пк
+производство плит перекрытия
+сколько стоит плита перекрытия
+стоимость плит перекрытия</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Плиты ЖБИ, перекрытия/5/1.jpg | http://maket.loc/assets/images/Плиты ЖБИ, перекрытия/5/Скриншот 15-02-2022 135724.jpg | http://maket.loc/assets/images/Плиты ЖБИ, перекрытия/5/Скриншот 15-02-2022 140601.jpg</t>
+  </si>
+  <si>
+    <t>632d9622a5afc</t>
+  </si>
+  <si>
+    <t>Железобетонные плиты</t>
+  </si>
+  <si>
+    <t>Железобетонные плиты 
+ 💣 Материал поставляется напрямую с завода-изготовителя, ПОЭТОМУ ЦЕНЫ НИЖЕ КОНКУРЕНТОВ
+ «Аверон-премиум» — компания, о которой рассказывают друзьям и рекомендуют родственникам. 👪
+ 👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇👇
+ ПОЧЕМУ ВЫБИРАЮТ НАС:
+ ⚡ Богатый опыт работы. Наши специалисты решат любые ваши задачи в сфере строительства;
+ ⚡ Огромный ассортимент;
+ ⚡ Высокое качество продукции; 
+ ✅ Оплата наличными, безналичный расчет с НДС, карта, по факту доставки (по договоренности);
+ ✅ Будем рады решить Ваши задачи в сфере строительства. Экономим ваше время и деньги.
+ 🛠 ХАРАКТЕРИСТИКИ:
+ ✔️ Плиты перекрытия ЖБИ.
+ ✔️ Размеры есть все размеры
+ ✔️Прочность бетона 262,8 кг/см2
+ ✔️ Расчетная нагрузка 820 кг/кв.м.
+ ✔️ Вес 0,881 т.
+ ✔️ Предельная нагрузка 12,9 кПа
+ 💗 Добавьте это объявление в избранное, чтобы не потерять выгодное предложение.
+ Возможен самовывоз. Познакомиться со всем ассортиментом лично можно в 2-х наших магазинах по адресам:
+ 🧱 Ванеева, дом 205, пом 3
+ 🧱 Пр.Гагарина 178т, офис 300
+ Работаем каждый день с 09:00 до 18:00
+ 📞 ЗВОНИТЕ!
+Ищите нас по запросам:
+железобетонные плиты перекрытия
+бетонные плиты перекрытия цена
+ж б плиты перекрытия
+жб плиты перекрытия
+жби плиты перекрытия
+железобетонная плита цена
+железобетонные плиты
+монолитная железобетонная плита
+монолитная плита перекрытия
+панельные плиты перекрытия
+плита перекрытия 10 1
+плита перекрытия 20
+плита перекрытия м
+плита перекрытия м2
+плита перекрытия пк 8
+плиты жби
+плиты жби цена
+плиты перекрытия
+плиты перекрытия 1 2
+плиты перекрытия 200 мм
+плиты перекрытия 220
+плиты перекрытия 400
+плиты перекрытия 9
+плиты перекрытия пб
+плиты перекрытия пб цена
+плиты перекрытия пк
+производство плит перекрытия
+сколько стоит плита перекрытия
+стоимость плит перекрытия</t>
+  </si>
+  <si>
+    <t>http://maket.loc/assets/images/Плиты ЖБИ, перекрытия/6/Скриншот 15-02-2022 135724.jpg | http://maket.loc/assets/images/Плиты ЖБИ, перекрытия/6/Скриншот 15-02-2022 140601.jpg | http://maket.loc/assets/images/Плиты ЖБИ, перекрытия/6/Скриншот 15-02-2022 141034.jpg</t>
   </si>
 </sst>
 </file>
@@ -518,7 +5228,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:S83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -608,7 +5318,7 @@
         <v>25</v>
       </c>
       <c r="H2">
-        <v>5200</v>
+        <v>400</v>
       </c>
       <c r="I2" t="s">
         <v>26</v>
@@ -638,11 +5348,13 @@
       <c r="R2" t="s">
         <v>34</v>
       </c>
-      <c r="S2"/>
+      <c r="S2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
@@ -654,7 +5366,7 @@
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
@@ -663,7 +5375,7 @@
         <v>25</v>
       </c>
       <c r="H3">
-        <v>5200</v>
+        <v>400</v>
       </c>
       <c r="I3" t="s">
         <v>26</v>
@@ -693,7 +5405,4441 @@
       <c r="R3" t="s">
         <v>34</v>
       </c>
-      <c r="S3"/>
+      <c r="S3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4">
+        <v>400</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4"/>
+      <c r="M4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>33</v>
+      </c>
+      <c r="R4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5">
+        <v>400</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5"/>
+      <c r="M5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6">
+        <v>400</v>
+      </c>
+      <c r="I6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6"/>
+      <c r="M6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" t="s">
+        <v>48</v>
+      </c>
+      <c r="P6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>33</v>
+      </c>
+      <c r="R6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7">
+        <v>400</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7"/>
+      <c r="M7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R7" t="s">
+        <v>34</v>
+      </c>
+      <c r="S7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8">
+        <v>160</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8"/>
+      <c r="M8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" t="s">
+        <v>55</v>
+      </c>
+      <c r="P8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>33</v>
+      </c>
+      <c r="R8" t="s">
+        <v>34</v>
+      </c>
+      <c r="S8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9">
+        <v>160</v>
+      </c>
+      <c r="I9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9"/>
+      <c r="M9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O9" t="s">
+        <v>58</v>
+      </c>
+      <c r="P9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R9" t="s">
+        <v>34</v>
+      </c>
+      <c r="S9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10">
+        <v>160</v>
+      </c>
+      <c r="I10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10"/>
+      <c r="M10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>33</v>
+      </c>
+      <c r="R10" t="s">
+        <v>34</v>
+      </c>
+      <c r="S10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11">
+        <v>160</v>
+      </c>
+      <c r="I11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11"/>
+      <c r="M11" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" t="s">
+        <v>30</v>
+      </c>
+      <c r="O11" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>33</v>
+      </c>
+      <c r="R11" t="s">
+        <v>34</v>
+      </c>
+      <c r="S11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12">
+        <v>160</v>
+      </c>
+      <c r="I12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12"/>
+      <c r="M12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N12" t="s">
+        <v>30</v>
+      </c>
+      <c r="O12" t="s">
+        <v>55</v>
+      </c>
+      <c r="P12" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>33</v>
+      </c>
+      <c r="R12" t="s">
+        <v>34</v>
+      </c>
+      <c r="S12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13">
+        <v>160</v>
+      </c>
+      <c r="I13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13"/>
+      <c r="M13" t="s">
+        <v>29</v>
+      </c>
+      <c r="N13" t="s">
+        <v>30</v>
+      </c>
+      <c r="O13" t="s">
+        <v>58</v>
+      </c>
+      <c r="P13" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>33</v>
+      </c>
+      <c r="R13" t="s">
+        <v>34</v>
+      </c>
+      <c r="S13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14">
+        <v>540</v>
+      </c>
+      <c r="I14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14"/>
+      <c r="M14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N14" t="s">
+        <v>30</v>
+      </c>
+      <c r="O14" t="s">
+        <v>73</v>
+      </c>
+      <c r="P14" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>33</v>
+      </c>
+      <c r="R14" t="s">
+        <v>34</v>
+      </c>
+      <c r="S14"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15">
+        <v>540</v>
+      </c>
+      <c r="I15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15"/>
+      <c r="M15" t="s">
+        <v>29</v>
+      </c>
+      <c r="N15" t="s">
+        <v>30</v>
+      </c>
+      <c r="O15" t="s">
+        <v>76</v>
+      </c>
+      <c r="P15" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>33</v>
+      </c>
+      <c r="R15" t="s">
+        <v>34</v>
+      </c>
+      <c r="S15"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16">
+        <v>540</v>
+      </c>
+      <c r="I16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16"/>
+      <c r="M16" t="s">
+        <v>29</v>
+      </c>
+      <c r="N16" t="s">
+        <v>30</v>
+      </c>
+      <c r="O16" t="s">
+        <v>79</v>
+      </c>
+      <c r="P16" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>33</v>
+      </c>
+      <c r="R16" t="s">
+        <v>34</v>
+      </c>
+      <c r="S16"/>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17">
+        <v>17</v>
+      </c>
+      <c r="I17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17" t="s">
+        <v>28</v>
+      </c>
+      <c r="L17"/>
+      <c r="M17" t="s">
+        <v>29</v>
+      </c>
+      <c r="N17" t="s">
+        <v>30</v>
+      </c>
+      <c r="O17" t="s">
+        <v>83</v>
+      </c>
+      <c r="P17" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>33</v>
+      </c>
+      <c r="R17" t="s">
+        <v>34</v>
+      </c>
+      <c r="S17"/>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" t="s">
+        <v>86</v>
+      </c>
+      <c r="G18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18">
+        <v>17</v>
+      </c>
+      <c r="I18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18"/>
+      <c r="M18" t="s">
+        <v>29</v>
+      </c>
+      <c r="N18" t="s">
+        <v>30</v>
+      </c>
+      <c r="O18" t="s">
+        <v>87</v>
+      </c>
+      <c r="P18" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>33</v>
+      </c>
+      <c r="R18" t="s">
+        <v>34</v>
+      </c>
+      <c r="S18"/>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19">
+        <v>4600</v>
+      </c>
+      <c r="I19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19" t="s">
+        <v>28</v>
+      </c>
+      <c r="L19"/>
+      <c r="M19" t="s">
+        <v>29</v>
+      </c>
+      <c r="N19" t="s">
+        <v>30</v>
+      </c>
+      <c r="O19" t="s">
+        <v>91</v>
+      </c>
+      <c r="P19" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>33</v>
+      </c>
+      <c r="R19" t="s">
+        <v>34</v>
+      </c>
+      <c r="S19"/>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" t="s">
+        <v>93</v>
+      </c>
+      <c r="G20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20">
+        <v>4600</v>
+      </c>
+      <c r="I20" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" t="s">
+        <v>27</v>
+      </c>
+      <c r="K20" t="s">
+        <v>28</v>
+      </c>
+      <c r="L20"/>
+      <c r="M20" t="s">
+        <v>29</v>
+      </c>
+      <c r="N20" t="s">
+        <v>30</v>
+      </c>
+      <c r="O20" t="s">
+        <v>94</v>
+      </c>
+      <c r="P20" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>33</v>
+      </c>
+      <c r="R20" t="s">
+        <v>34</v>
+      </c>
+      <c r="S20"/>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" t="s">
+        <v>97</v>
+      </c>
+      <c r="G21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21">
+        <v>4600</v>
+      </c>
+      <c r="I21" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" t="s">
+        <v>27</v>
+      </c>
+      <c r="K21" t="s">
+        <v>28</v>
+      </c>
+      <c r="L21"/>
+      <c r="M21" t="s">
+        <v>29</v>
+      </c>
+      <c r="N21" t="s">
+        <v>30</v>
+      </c>
+      <c r="O21" t="s">
+        <v>98</v>
+      </c>
+      <c r="P21" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>33</v>
+      </c>
+      <c r="R21" t="s">
+        <v>34</v>
+      </c>
+      <c r="S21"/>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" t="s">
+        <v>100</v>
+      </c>
+      <c r="G22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22">
+        <v>4600</v>
+      </c>
+      <c r="I22" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22" t="s">
+        <v>27</v>
+      </c>
+      <c r="K22" t="s">
+        <v>28</v>
+      </c>
+      <c r="L22"/>
+      <c r="M22" t="s">
+        <v>29</v>
+      </c>
+      <c r="N22" t="s">
+        <v>30</v>
+      </c>
+      <c r="O22" t="s">
+        <v>101</v>
+      </c>
+      <c r="P22" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>33</v>
+      </c>
+      <c r="R22" t="s">
+        <v>34</v>
+      </c>
+      <c r="S22"/>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>103</v>
+      </c>
+      <c r="F23" t="s">
+        <v>104</v>
+      </c>
+      <c r="G23" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23">
+        <v>4600</v>
+      </c>
+      <c r="I23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J23" t="s">
+        <v>27</v>
+      </c>
+      <c r="K23" t="s">
+        <v>28</v>
+      </c>
+      <c r="L23"/>
+      <c r="M23" t="s">
+        <v>29</v>
+      </c>
+      <c r="N23" t="s">
+        <v>30</v>
+      </c>
+      <c r="O23" t="s">
+        <v>105</v>
+      </c>
+      <c r="P23" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>33</v>
+      </c>
+      <c r="R23" t="s">
+        <v>34</v>
+      </c>
+      <c r="S23"/>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24">
+        <v>29</v>
+      </c>
+      <c r="I24" t="s">
+        <v>26</v>
+      </c>
+      <c r="J24" t="s">
+        <v>27</v>
+      </c>
+      <c r="K24" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24"/>
+      <c r="M24" t="s">
+        <v>29</v>
+      </c>
+      <c r="N24" t="s">
+        <v>30</v>
+      </c>
+      <c r="O24" t="s">
+        <v>109</v>
+      </c>
+      <c r="P24" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>33</v>
+      </c>
+      <c r="R24" t="s">
+        <v>34</v>
+      </c>
+      <c r="S24"/>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" t="s">
+        <v>111</v>
+      </c>
+      <c r="F25" t="s">
+        <v>112</v>
+      </c>
+      <c r="G25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25">
+        <v>29</v>
+      </c>
+      <c r="I25" t="s">
+        <v>26</v>
+      </c>
+      <c r="J25" t="s">
+        <v>27</v>
+      </c>
+      <c r="K25" t="s">
+        <v>28</v>
+      </c>
+      <c r="L25"/>
+      <c r="M25" t="s">
+        <v>29</v>
+      </c>
+      <c r="N25" t="s">
+        <v>30</v>
+      </c>
+      <c r="O25" t="s">
+        <v>113</v>
+      </c>
+      <c r="P25" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>33</v>
+      </c>
+      <c r="R25" t="s">
+        <v>34</v>
+      </c>
+      <c r="S25"/>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" t="s">
+        <v>115</v>
+      </c>
+      <c r="F26" t="s">
+        <v>116</v>
+      </c>
+      <c r="G26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26">
+        <v>29</v>
+      </c>
+      <c r="I26" t="s">
+        <v>26</v>
+      </c>
+      <c r="J26" t="s">
+        <v>27</v>
+      </c>
+      <c r="K26" t="s">
+        <v>28</v>
+      </c>
+      <c r="L26"/>
+      <c r="M26" t="s">
+        <v>29</v>
+      </c>
+      <c r="N26" t="s">
+        <v>30</v>
+      </c>
+      <c r="O26" t="s">
+        <v>117</v>
+      </c>
+      <c r="P26" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>33</v>
+      </c>
+      <c r="R26" t="s">
+        <v>34</v>
+      </c>
+      <c r="S26"/>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" t="s">
+        <v>115</v>
+      </c>
+      <c r="F27" t="s">
+        <v>119</v>
+      </c>
+      <c r="G27" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27">
+        <v>29</v>
+      </c>
+      <c r="I27" t="s">
+        <v>26</v>
+      </c>
+      <c r="J27" t="s">
+        <v>27</v>
+      </c>
+      <c r="K27" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27"/>
+      <c r="M27" t="s">
+        <v>29</v>
+      </c>
+      <c r="N27" t="s">
+        <v>30</v>
+      </c>
+      <c r="O27" t="s">
+        <v>120</v>
+      </c>
+      <c r="P27" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>33</v>
+      </c>
+      <c r="R27" t="s">
+        <v>34</v>
+      </c>
+      <c r="S27"/>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" t="s">
+        <v>122</v>
+      </c>
+      <c r="F28" t="s">
+        <v>123</v>
+      </c>
+      <c r="G28" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28">
+        <v>106</v>
+      </c>
+      <c r="I28" t="s">
+        <v>26</v>
+      </c>
+      <c r="J28" t="s">
+        <v>27</v>
+      </c>
+      <c r="K28" t="s">
+        <v>28</v>
+      </c>
+      <c r="L28"/>
+      <c r="M28" t="s">
+        <v>29</v>
+      </c>
+      <c r="N28" t="s">
+        <v>30</v>
+      </c>
+      <c r="O28" t="s">
+        <v>124</v>
+      </c>
+      <c r="P28" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>33</v>
+      </c>
+      <c r="R28" t="s">
+        <v>34</v>
+      </c>
+      <c r="S28"/>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" t="s">
+        <v>127</v>
+      </c>
+      <c r="F29" t="s">
+        <v>128</v>
+      </c>
+      <c r="G29" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29">
+        <v>106</v>
+      </c>
+      <c r="I29" t="s">
+        <v>26</v>
+      </c>
+      <c r="J29" t="s">
+        <v>27</v>
+      </c>
+      <c r="K29" t="s">
+        <v>28</v>
+      </c>
+      <c r="L29"/>
+      <c r="M29" t="s">
+        <v>29</v>
+      </c>
+      <c r="N29" t="s">
+        <v>30</v>
+      </c>
+      <c r="O29" t="s">
+        <v>129</v>
+      </c>
+      <c r="P29" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>33</v>
+      </c>
+      <c r="R29" t="s">
+        <v>34</v>
+      </c>
+      <c r="S29"/>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" t="s">
+        <v>131</v>
+      </c>
+      <c r="F30" t="s">
+        <v>132</v>
+      </c>
+      <c r="G30" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30">
+        <v>70</v>
+      </c>
+      <c r="I30" t="s">
+        <v>26</v>
+      </c>
+      <c r="J30" t="s">
+        <v>27</v>
+      </c>
+      <c r="K30" t="s">
+        <v>28</v>
+      </c>
+      <c r="L30"/>
+      <c r="M30" t="s">
+        <v>29</v>
+      </c>
+      <c r="N30" t="s">
+        <v>30</v>
+      </c>
+      <c r="O30" t="s">
+        <v>133</v>
+      </c>
+      <c r="P30" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>33</v>
+      </c>
+      <c r="R30" t="s">
+        <v>34</v>
+      </c>
+      <c r="S30"/>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" t="s">
+        <v>134</v>
+      </c>
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" t="s">
+        <v>131</v>
+      </c>
+      <c r="F31" t="s">
+        <v>135</v>
+      </c>
+      <c r="G31" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31">
+        <v>70</v>
+      </c>
+      <c r="I31" t="s">
+        <v>26</v>
+      </c>
+      <c r="J31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K31" t="s">
+        <v>28</v>
+      </c>
+      <c r="L31"/>
+      <c r="M31" t="s">
+        <v>29</v>
+      </c>
+      <c r="N31" t="s">
+        <v>30</v>
+      </c>
+      <c r="O31" t="s">
+        <v>136</v>
+      </c>
+      <c r="P31" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>33</v>
+      </c>
+      <c r="R31" t="s">
+        <v>34</v>
+      </c>
+      <c r="S31"/>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32" t="s">
+        <v>137</v>
+      </c>
+      <c r="B32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" t="s">
+        <v>131</v>
+      </c>
+      <c r="F32" t="s">
+        <v>138</v>
+      </c>
+      <c r="G32" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32">
+        <v>70</v>
+      </c>
+      <c r="I32" t="s">
+        <v>26</v>
+      </c>
+      <c r="J32" t="s">
+        <v>27</v>
+      </c>
+      <c r="K32" t="s">
+        <v>28</v>
+      </c>
+      <c r="L32"/>
+      <c r="M32" t="s">
+        <v>29</v>
+      </c>
+      <c r="N32" t="s">
+        <v>30</v>
+      </c>
+      <c r="O32" t="s">
+        <v>139</v>
+      </c>
+      <c r="P32" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>33</v>
+      </c>
+      <c r="R32" t="s">
+        <v>34</v>
+      </c>
+      <c r="S32"/>
+    </row>
+    <row r="33" spans="1:19">
+      <c r="A33" t="s">
+        <v>140</v>
+      </c>
+      <c r="B33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" t="s">
+        <v>141</v>
+      </c>
+      <c r="F33" t="s">
+        <v>142</v>
+      </c>
+      <c r="G33" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33">
+        <v>70</v>
+      </c>
+      <c r="I33" t="s">
+        <v>26</v>
+      </c>
+      <c r="J33" t="s">
+        <v>27</v>
+      </c>
+      <c r="K33" t="s">
+        <v>28</v>
+      </c>
+      <c r="L33"/>
+      <c r="M33" t="s">
+        <v>29</v>
+      </c>
+      <c r="N33" t="s">
+        <v>30</v>
+      </c>
+      <c r="O33" t="s">
+        <v>143</v>
+      </c>
+      <c r="P33" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>33</v>
+      </c>
+      <c r="R33" t="s">
+        <v>34</v>
+      </c>
+      <c r="S33"/>
+    </row>
+    <row r="34" spans="1:19">
+      <c r="A34" t="s">
+        <v>144</v>
+      </c>
+      <c r="B34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" t="s">
+        <v>145</v>
+      </c>
+      <c r="F34" t="s">
+        <v>146</v>
+      </c>
+      <c r="G34" t="s">
+        <v>25</v>
+      </c>
+      <c r="H34">
+        <v>1200</v>
+      </c>
+      <c r="I34" t="s">
+        <v>26</v>
+      </c>
+      <c r="J34" t="s">
+        <v>27</v>
+      </c>
+      <c r="K34" t="s">
+        <v>28</v>
+      </c>
+      <c r="L34"/>
+      <c r="M34" t="s">
+        <v>29</v>
+      </c>
+      <c r="N34" t="s">
+        <v>30</v>
+      </c>
+      <c r="O34" t="s">
+        <v>147</v>
+      </c>
+      <c r="P34" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>33</v>
+      </c>
+      <c r="R34" t="s">
+        <v>34</v>
+      </c>
+      <c r="S34"/>
+    </row>
+    <row r="35" spans="1:19">
+      <c r="A35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" t="s">
+        <v>150</v>
+      </c>
+      <c r="F35" t="s">
+        <v>151</v>
+      </c>
+      <c r="G35" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35">
+        <v>1200</v>
+      </c>
+      <c r="I35" t="s">
+        <v>26</v>
+      </c>
+      <c r="J35" t="s">
+        <v>27</v>
+      </c>
+      <c r="K35" t="s">
+        <v>28</v>
+      </c>
+      <c r="L35"/>
+      <c r="M35" t="s">
+        <v>29</v>
+      </c>
+      <c r="N35" t="s">
+        <v>30</v>
+      </c>
+      <c r="O35" t="s">
+        <v>152</v>
+      </c>
+      <c r="P35" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>33</v>
+      </c>
+      <c r="R35" t="s">
+        <v>34</v>
+      </c>
+      <c r="S35"/>
+    </row>
+    <row r="36" spans="1:19">
+      <c r="A36" t="s">
+        <v>153</v>
+      </c>
+      <c r="B36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" t="s">
+        <v>154</v>
+      </c>
+      <c r="F36" t="s">
+        <v>155</v>
+      </c>
+      <c r="G36" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36">
+        <v>70</v>
+      </c>
+      <c r="I36" t="s">
+        <v>26</v>
+      </c>
+      <c r="J36" t="s">
+        <v>27</v>
+      </c>
+      <c r="K36" t="s">
+        <v>28</v>
+      </c>
+      <c r="L36"/>
+      <c r="M36" t="s">
+        <v>29</v>
+      </c>
+      <c r="N36" t="s">
+        <v>30</v>
+      </c>
+      <c r="O36" t="s">
+        <v>156</v>
+      </c>
+      <c r="P36" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>33</v>
+      </c>
+      <c r="R36" t="s">
+        <v>34</v>
+      </c>
+      <c r="S36"/>
+    </row>
+    <row r="37" spans="1:19">
+      <c r="A37" t="s">
+        <v>157</v>
+      </c>
+      <c r="B37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" t="s">
+        <v>154</v>
+      </c>
+      <c r="F37" t="s">
+        <v>158</v>
+      </c>
+      <c r="G37" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37">
+        <v>70</v>
+      </c>
+      <c r="I37" t="s">
+        <v>26</v>
+      </c>
+      <c r="J37" t="s">
+        <v>27</v>
+      </c>
+      <c r="K37" t="s">
+        <v>28</v>
+      </c>
+      <c r="L37"/>
+      <c r="M37" t="s">
+        <v>29</v>
+      </c>
+      <c r="N37" t="s">
+        <v>30</v>
+      </c>
+      <c r="O37" t="s">
+        <v>159</v>
+      </c>
+      <c r="P37" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>33</v>
+      </c>
+      <c r="R37" t="s">
+        <v>34</v>
+      </c>
+      <c r="S37"/>
+    </row>
+    <row r="38" spans="1:19">
+      <c r="A38" t="s">
+        <v>160</v>
+      </c>
+      <c r="B38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" t="s">
+        <v>154</v>
+      </c>
+      <c r="F38" t="s">
+        <v>161</v>
+      </c>
+      <c r="G38" t="s">
+        <v>25</v>
+      </c>
+      <c r="H38">
+        <v>70</v>
+      </c>
+      <c r="I38" t="s">
+        <v>26</v>
+      </c>
+      <c r="J38" t="s">
+        <v>27</v>
+      </c>
+      <c r="K38" t="s">
+        <v>28</v>
+      </c>
+      <c r="L38"/>
+      <c r="M38" t="s">
+        <v>29</v>
+      </c>
+      <c r="N38" t="s">
+        <v>30</v>
+      </c>
+      <c r="O38" t="s">
+        <v>162</v>
+      </c>
+      <c r="P38" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>33</v>
+      </c>
+      <c r="R38" t="s">
+        <v>34</v>
+      </c>
+      <c r="S38"/>
+    </row>
+    <row r="39" spans="1:19">
+      <c r="A39" t="s">
+        <v>163</v>
+      </c>
+      <c r="B39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" t="s">
+        <v>164</v>
+      </c>
+      <c r="F39" t="s">
+        <v>165</v>
+      </c>
+      <c r="G39" t="s">
+        <v>25</v>
+      </c>
+      <c r="H39">
+        <v>70</v>
+      </c>
+      <c r="I39" t="s">
+        <v>26</v>
+      </c>
+      <c r="J39" t="s">
+        <v>27</v>
+      </c>
+      <c r="K39" t="s">
+        <v>28</v>
+      </c>
+      <c r="L39"/>
+      <c r="M39" t="s">
+        <v>29</v>
+      </c>
+      <c r="N39" t="s">
+        <v>30</v>
+      </c>
+      <c r="O39" t="s">
+        <v>166</v>
+      </c>
+      <c r="P39" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>33</v>
+      </c>
+      <c r="R39" t="s">
+        <v>34</v>
+      </c>
+      <c r="S39"/>
+    </row>
+    <row r="40" spans="1:19">
+      <c r="A40" t="s">
+        <v>167</v>
+      </c>
+      <c r="B40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" t="s">
+        <v>164</v>
+      </c>
+      <c r="F40" t="s">
+        <v>168</v>
+      </c>
+      <c r="G40" t="s">
+        <v>25</v>
+      </c>
+      <c r="H40">
+        <v>70</v>
+      </c>
+      <c r="I40" t="s">
+        <v>26</v>
+      </c>
+      <c r="J40" t="s">
+        <v>27</v>
+      </c>
+      <c r="K40" t="s">
+        <v>28</v>
+      </c>
+      <c r="L40"/>
+      <c r="M40" t="s">
+        <v>29</v>
+      </c>
+      <c r="N40" t="s">
+        <v>30</v>
+      </c>
+      <c r="O40" t="s">
+        <v>169</v>
+      </c>
+      <c r="P40" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>33</v>
+      </c>
+      <c r="R40" t="s">
+        <v>34</v>
+      </c>
+      <c r="S40"/>
+    </row>
+    <row r="41" spans="1:19">
+      <c r="A41" t="s">
+        <v>170</v>
+      </c>
+      <c r="B41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" t="s">
+        <v>171</v>
+      </c>
+      <c r="F41" t="s">
+        <v>172</v>
+      </c>
+      <c r="G41" t="s">
+        <v>25</v>
+      </c>
+      <c r="H41">
+        <v>70</v>
+      </c>
+      <c r="I41" t="s">
+        <v>26</v>
+      </c>
+      <c r="J41" t="s">
+        <v>27</v>
+      </c>
+      <c r="K41" t="s">
+        <v>28</v>
+      </c>
+      <c r="L41"/>
+      <c r="M41" t="s">
+        <v>29</v>
+      </c>
+      <c r="N41" t="s">
+        <v>30</v>
+      </c>
+      <c r="O41" t="s">
+        <v>173</v>
+      </c>
+      <c r="P41" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>33</v>
+      </c>
+      <c r="R41" t="s">
+        <v>34</v>
+      </c>
+      <c r="S41"/>
+    </row>
+    <row r="42" spans="1:19">
+      <c r="A42" t="s">
+        <v>174</v>
+      </c>
+      <c r="B42" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" t="s">
+        <v>175</v>
+      </c>
+      <c r="F42" t="s">
+        <v>176</v>
+      </c>
+      <c r="G42" t="s">
+        <v>25</v>
+      </c>
+      <c r="H42">
+        <v>400</v>
+      </c>
+      <c r="I42" t="s">
+        <v>26</v>
+      </c>
+      <c r="J42" t="s">
+        <v>27</v>
+      </c>
+      <c r="K42" t="s">
+        <v>28</v>
+      </c>
+      <c r="L42"/>
+      <c r="M42" t="s">
+        <v>29</v>
+      </c>
+      <c r="N42" t="s">
+        <v>30</v>
+      </c>
+      <c r="O42" t="s">
+        <v>177</v>
+      </c>
+      <c r="P42" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>33</v>
+      </c>
+      <c r="R42" t="s">
+        <v>34</v>
+      </c>
+      <c r="S42"/>
+    </row>
+    <row r="43" spans="1:19">
+      <c r="A43" t="s">
+        <v>178</v>
+      </c>
+      <c r="B43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43" t="s">
+        <v>175</v>
+      </c>
+      <c r="F43" t="s">
+        <v>179</v>
+      </c>
+      <c r="G43" t="s">
+        <v>25</v>
+      </c>
+      <c r="H43">
+        <v>400</v>
+      </c>
+      <c r="I43" t="s">
+        <v>26</v>
+      </c>
+      <c r="J43" t="s">
+        <v>27</v>
+      </c>
+      <c r="K43" t="s">
+        <v>28</v>
+      </c>
+      <c r="L43"/>
+      <c r="M43" t="s">
+        <v>29</v>
+      </c>
+      <c r="N43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O43" t="s">
+        <v>180</v>
+      </c>
+      <c r="P43" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>33</v>
+      </c>
+      <c r="R43" t="s">
+        <v>34</v>
+      </c>
+      <c r="S43"/>
+    </row>
+    <row r="44" spans="1:19">
+      <c r="A44" t="s">
+        <v>181</v>
+      </c>
+      <c r="B44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" t="s">
+        <v>175</v>
+      </c>
+      <c r="F44" t="s">
+        <v>182</v>
+      </c>
+      <c r="G44" t="s">
+        <v>25</v>
+      </c>
+      <c r="H44">
+        <v>400</v>
+      </c>
+      <c r="I44" t="s">
+        <v>26</v>
+      </c>
+      <c r="J44" t="s">
+        <v>27</v>
+      </c>
+      <c r="K44" t="s">
+        <v>28</v>
+      </c>
+      <c r="L44"/>
+      <c r="M44" t="s">
+        <v>29</v>
+      </c>
+      <c r="N44" t="s">
+        <v>30</v>
+      </c>
+      <c r="O44" t="s">
+        <v>183</v>
+      </c>
+      <c r="P44" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>33</v>
+      </c>
+      <c r="R44" t="s">
+        <v>34</v>
+      </c>
+      <c r="S44"/>
+    </row>
+    <row r="45" spans="1:19">
+      <c r="A45" t="s">
+        <v>184</v>
+      </c>
+      <c r="B45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" t="s">
+        <v>175</v>
+      </c>
+      <c r="F45" t="s">
+        <v>185</v>
+      </c>
+      <c r="G45" t="s">
+        <v>25</v>
+      </c>
+      <c r="H45">
+        <v>400</v>
+      </c>
+      <c r="I45" t="s">
+        <v>26</v>
+      </c>
+      <c r="J45" t="s">
+        <v>27</v>
+      </c>
+      <c r="K45" t="s">
+        <v>28</v>
+      </c>
+      <c r="L45"/>
+      <c r="M45" t="s">
+        <v>29</v>
+      </c>
+      <c r="N45" t="s">
+        <v>30</v>
+      </c>
+      <c r="O45" t="s">
+        <v>186</v>
+      </c>
+      <c r="P45" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>33</v>
+      </c>
+      <c r="R45" t="s">
+        <v>34</v>
+      </c>
+      <c r="S45"/>
+    </row>
+    <row r="46" spans="1:19">
+      <c r="A46" t="s">
+        <v>187</v>
+      </c>
+      <c r="B46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46" t="s">
+        <v>188</v>
+      </c>
+      <c r="F46" t="s">
+        <v>189</v>
+      </c>
+      <c r="G46" t="s">
+        <v>25</v>
+      </c>
+      <c r="H46">
+        <v>15</v>
+      </c>
+      <c r="I46" t="s">
+        <v>26</v>
+      </c>
+      <c r="J46" t="s">
+        <v>27</v>
+      </c>
+      <c r="K46" t="s">
+        <v>28</v>
+      </c>
+      <c r="L46"/>
+      <c r="M46" t="s">
+        <v>29</v>
+      </c>
+      <c r="N46" t="s">
+        <v>30</v>
+      </c>
+      <c r="O46" t="s">
+        <v>190</v>
+      </c>
+      <c r="P46" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>33</v>
+      </c>
+      <c r="R46" t="s">
+        <v>34</v>
+      </c>
+      <c r="S46"/>
+    </row>
+    <row r="47" spans="1:19">
+      <c r="A47" t="s">
+        <v>191</v>
+      </c>
+      <c r="B47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47" t="s">
+        <v>188</v>
+      </c>
+      <c r="F47" t="s">
+        <v>192</v>
+      </c>
+      <c r="G47" t="s">
+        <v>25</v>
+      </c>
+      <c r="H47">
+        <v>15</v>
+      </c>
+      <c r="I47" t="s">
+        <v>26</v>
+      </c>
+      <c r="J47" t="s">
+        <v>27</v>
+      </c>
+      <c r="K47" t="s">
+        <v>28</v>
+      </c>
+      <c r="L47"/>
+      <c r="M47" t="s">
+        <v>29</v>
+      </c>
+      <c r="N47" t="s">
+        <v>30</v>
+      </c>
+      <c r="O47" t="s">
+        <v>193</v>
+      </c>
+      <c r="P47" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>33</v>
+      </c>
+      <c r="R47" t="s">
+        <v>34</v>
+      </c>
+      <c r="S47"/>
+    </row>
+    <row r="48" spans="1:19">
+      <c r="A48" t="s">
+        <v>194</v>
+      </c>
+      <c r="B48" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" t="s">
+        <v>195</v>
+      </c>
+      <c r="F48" t="s">
+        <v>196</v>
+      </c>
+      <c r="G48" t="s">
+        <v>25</v>
+      </c>
+      <c r="H48">
+        <v>15</v>
+      </c>
+      <c r="I48" t="s">
+        <v>26</v>
+      </c>
+      <c r="J48" t="s">
+        <v>27</v>
+      </c>
+      <c r="K48" t="s">
+        <v>28</v>
+      </c>
+      <c r="L48"/>
+      <c r="M48" t="s">
+        <v>29</v>
+      </c>
+      <c r="N48" t="s">
+        <v>30</v>
+      </c>
+      <c r="O48" t="s">
+        <v>197</v>
+      </c>
+      <c r="P48" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>33</v>
+      </c>
+      <c r="R48" t="s">
+        <v>34</v>
+      </c>
+      <c r="S48"/>
+    </row>
+    <row r="49" spans="1:19">
+      <c r="A49" t="s">
+        <v>198</v>
+      </c>
+      <c r="B49" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" t="s">
+        <v>195</v>
+      </c>
+      <c r="F49" t="s">
+        <v>199</v>
+      </c>
+      <c r="G49" t="s">
+        <v>25</v>
+      </c>
+      <c r="H49">
+        <v>15</v>
+      </c>
+      <c r="I49" t="s">
+        <v>26</v>
+      </c>
+      <c r="J49" t="s">
+        <v>27</v>
+      </c>
+      <c r="K49" t="s">
+        <v>28</v>
+      </c>
+      <c r="L49"/>
+      <c r="M49" t="s">
+        <v>29</v>
+      </c>
+      <c r="N49" t="s">
+        <v>30</v>
+      </c>
+      <c r="O49" t="s">
+        <v>200</v>
+      </c>
+      <c r="P49" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>33</v>
+      </c>
+      <c r="R49" t="s">
+        <v>34</v>
+      </c>
+      <c r="S49"/>
+    </row>
+    <row r="50" spans="1:19">
+      <c r="A50" t="s">
+        <v>201</v>
+      </c>
+      <c r="B50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" t="s">
+        <v>22</v>
+      </c>
+      <c r="E50" t="s">
+        <v>202</v>
+      </c>
+      <c r="F50" t="s">
+        <v>203</v>
+      </c>
+      <c r="G50" t="s">
+        <v>25</v>
+      </c>
+      <c r="H50">
+        <v>15</v>
+      </c>
+      <c r="I50" t="s">
+        <v>26</v>
+      </c>
+      <c r="J50" t="s">
+        <v>27</v>
+      </c>
+      <c r="K50" t="s">
+        <v>28</v>
+      </c>
+      <c r="L50"/>
+      <c r="M50" t="s">
+        <v>29</v>
+      </c>
+      <c r="N50" t="s">
+        <v>30</v>
+      </c>
+      <c r="O50" t="s">
+        <v>204</v>
+      </c>
+      <c r="P50" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>33</v>
+      </c>
+      <c r="R50" t="s">
+        <v>34</v>
+      </c>
+      <c r="S50"/>
+    </row>
+    <row r="51" spans="1:19">
+      <c r="A51" t="s">
+        <v>205</v>
+      </c>
+      <c r="B51" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" t="s">
+        <v>22</v>
+      </c>
+      <c r="E51" t="s">
+        <v>206</v>
+      </c>
+      <c r="F51" t="s">
+        <v>207</v>
+      </c>
+      <c r="G51" t="s">
+        <v>25</v>
+      </c>
+      <c r="H51">
+        <v>15</v>
+      </c>
+      <c r="I51" t="s">
+        <v>26</v>
+      </c>
+      <c r="J51" t="s">
+        <v>27</v>
+      </c>
+      <c r="K51" t="s">
+        <v>28</v>
+      </c>
+      <c r="L51"/>
+      <c r="M51" t="s">
+        <v>29</v>
+      </c>
+      <c r="N51" t="s">
+        <v>30</v>
+      </c>
+      <c r="O51" t="s">
+        <v>208</v>
+      </c>
+      <c r="P51" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>33</v>
+      </c>
+      <c r="R51" t="s">
+        <v>34</v>
+      </c>
+      <c r="S51"/>
+    </row>
+    <row r="52" spans="1:19">
+      <c r="A52" t="s">
+        <v>209</v>
+      </c>
+      <c r="B52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" t="s">
+        <v>22</v>
+      </c>
+      <c r="E52" t="s">
+        <v>206</v>
+      </c>
+      <c r="F52" t="s">
+        <v>210</v>
+      </c>
+      <c r="G52" t="s">
+        <v>25</v>
+      </c>
+      <c r="H52">
+        <v>15</v>
+      </c>
+      <c r="I52" t="s">
+        <v>26</v>
+      </c>
+      <c r="J52" t="s">
+        <v>27</v>
+      </c>
+      <c r="K52" t="s">
+        <v>28</v>
+      </c>
+      <c r="L52"/>
+      <c r="M52" t="s">
+        <v>29</v>
+      </c>
+      <c r="N52" t="s">
+        <v>30</v>
+      </c>
+      <c r="O52" t="s">
+        <v>211</v>
+      </c>
+      <c r="P52" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>33</v>
+      </c>
+      <c r="R52" t="s">
+        <v>34</v>
+      </c>
+      <c r="S52"/>
+    </row>
+    <row r="53" spans="1:19">
+      <c r="A53" t="s">
+        <v>212</v>
+      </c>
+      <c r="B53" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" t="s">
+        <v>22</v>
+      </c>
+      <c r="E53" t="s">
+        <v>213</v>
+      </c>
+      <c r="F53" t="s">
+        <v>214</v>
+      </c>
+      <c r="G53" t="s">
+        <v>25</v>
+      </c>
+      <c r="H53">
+        <v>15</v>
+      </c>
+      <c r="I53" t="s">
+        <v>26</v>
+      </c>
+      <c r="J53" t="s">
+        <v>27</v>
+      </c>
+      <c r="K53" t="s">
+        <v>28</v>
+      </c>
+      <c r="L53"/>
+      <c r="M53" t="s">
+        <v>29</v>
+      </c>
+      <c r="N53" t="s">
+        <v>30</v>
+      </c>
+      <c r="O53" t="s">
+        <v>215</v>
+      </c>
+      <c r="P53" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>33</v>
+      </c>
+      <c r="R53" t="s">
+        <v>34</v>
+      </c>
+      <c r="S53"/>
+    </row>
+    <row r="54" spans="1:19">
+      <c r="A54" t="s">
+        <v>216</v>
+      </c>
+      <c r="B54" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54" t="s">
+        <v>213</v>
+      </c>
+      <c r="F54" t="s">
+        <v>217</v>
+      </c>
+      <c r="G54" t="s">
+        <v>25</v>
+      </c>
+      <c r="H54">
+        <v>15</v>
+      </c>
+      <c r="I54" t="s">
+        <v>26</v>
+      </c>
+      <c r="J54" t="s">
+        <v>27</v>
+      </c>
+      <c r="K54" t="s">
+        <v>28</v>
+      </c>
+      <c r="L54"/>
+      <c r="M54" t="s">
+        <v>29</v>
+      </c>
+      <c r="N54" t="s">
+        <v>30</v>
+      </c>
+      <c r="O54" t="s">
+        <v>218</v>
+      </c>
+      <c r="P54" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>33</v>
+      </c>
+      <c r="R54" t="s">
+        <v>34</v>
+      </c>
+      <c r="S54"/>
+    </row>
+    <row r="55" spans="1:19">
+      <c r="A55" t="s">
+        <v>219</v>
+      </c>
+      <c r="B55" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" t="s">
+        <v>22</v>
+      </c>
+      <c r="E55" t="s">
+        <v>220</v>
+      </c>
+      <c r="F55" t="s">
+        <v>221</v>
+      </c>
+      <c r="G55" t="s">
+        <v>25</v>
+      </c>
+      <c r="H55">
+        <v>15</v>
+      </c>
+      <c r="I55" t="s">
+        <v>26</v>
+      </c>
+      <c r="J55" t="s">
+        <v>27</v>
+      </c>
+      <c r="K55" t="s">
+        <v>28</v>
+      </c>
+      <c r="L55"/>
+      <c r="M55" t="s">
+        <v>29</v>
+      </c>
+      <c r="N55" t="s">
+        <v>30</v>
+      </c>
+      <c r="O55" t="s">
+        <v>222</v>
+      </c>
+      <c r="P55" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>33</v>
+      </c>
+      <c r="R55" t="s">
+        <v>34</v>
+      </c>
+      <c r="S55"/>
+    </row>
+    <row r="56" spans="1:19">
+      <c r="A56" t="s">
+        <v>223</v>
+      </c>
+      <c r="B56" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" t="s">
+        <v>22</v>
+      </c>
+      <c r="E56" t="s">
+        <v>224</v>
+      </c>
+      <c r="F56" t="s">
+        <v>225</v>
+      </c>
+      <c r="G56" t="s">
+        <v>25</v>
+      </c>
+      <c r="H56">
+        <v>2100</v>
+      </c>
+      <c r="I56" t="s">
+        <v>26</v>
+      </c>
+      <c r="J56" t="s">
+        <v>27</v>
+      </c>
+      <c r="K56" t="s">
+        <v>28</v>
+      </c>
+      <c r="L56"/>
+      <c r="M56" t="s">
+        <v>29</v>
+      </c>
+      <c r="N56" t="s">
+        <v>30</v>
+      </c>
+      <c r="O56" t="s">
+        <v>226</v>
+      </c>
+      <c r="P56" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>33</v>
+      </c>
+      <c r="R56" t="s">
+        <v>34</v>
+      </c>
+      <c r="S56"/>
+    </row>
+    <row r="57" spans="1:19">
+      <c r="A57" t="s">
+        <v>227</v>
+      </c>
+      <c r="B57" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" t="s">
+        <v>21</v>
+      </c>
+      <c r="D57" t="s">
+        <v>22</v>
+      </c>
+      <c r="E57" t="s">
+        <v>224</v>
+      </c>
+      <c r="F57" t="s">
+        <v>228</v>
+      </c>
+      <c r="G57" t="s">
+        <v>25</v>
+      </c>
+      <c r="H57">
+        <v>2100</v>
+      </c>
+      <c r="I57" t="s">
+        <v>26</v>
+      </c>
+      <c r="J57" t="s">
+        <v>27</v>
+      </c>
+      <c r="K57" t="s">
+        <v>28</v>
+      </c>
+      <c r="L57"/>
+      <c r="M57" t="s">
+        <v>29</v>
+      </c>
+      <c r="N57" t="s">
+        <v>30</v>
+      </c>
+      <c r="O57" t="s">
+        <v>229</v>
+      </c>
+      <c r="P57" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>33</v>
+      </c>
+      <c r="R57" t="s">
+        <v>34</v>
+      </c>
+      <c r="S57"/>
+    </row>
+    <row r="58" spans="1:19">
+      <c r="A58" t="s">
+        <v>230</v>
+      </c>
+      <c r="B58" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" t="s">
+        <v>22</v>
+      </c>
+      <c r="E58" t="s">
+        <v>231</v>
+      </c>
+      <c r="F58" t="s">
+        <v>232</v>
+      </c>
+      <c r="G58" t="s">
+        <v>25</v>
+      </c>
+      <c r="H58">
+        <v>300</v>
+      </c>
+      <c r="I58" t="s">
+        <v>26</v>
+      </c>
+      <c r="J58" t="s">
+        <v>27</v>
+      </c>
+      <c r="K58" t="s">
+        <v>28</v>
+      </c>
+      <c r="L58"/>
+      <c r="M58" t="s">
+        <v>29</v>
+      </c>
+      <c r="N58" t="s">
+        <v>30</v>
+      </c>
+      <c r="O58" t="s">
+        <v>233</v>
+      </c>
+      <c r="P58" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>33</v>
+      </c>
+      <c r="R58" t="s">
+        <v>34</v>
+      </c>
+      <c r="S58"/>
+    </row>
+    <row r="59" spans="1:19">
+      <c r="A59" t="s">
+        <v>235</v>
+      </c>
+      <c r="B59" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" t="s">
+        <v>22</v>
+      </c>
+      <c r="E59" t="s">
+        <v>231</v>
+      </c>
+      <c r="F59" t="s">
+        <v>236</v>
+      </c>
+      <c r="G59" t="s">
+        <v>25</v>
+      </c>
+      <c r="H59">
+        <v>300</v>
+      </c>
+      <c r="I59" t="s">
+        <v>26</v>
+      </c>
+      <c r="J59" t="s">
+        <v>27</v>
+      </c>
+      <c r="K59" t="s">
+        <v>28</v>
+      </c>
+      <c r="L59"/>
+      <c r="M59" t="s">
+        <v>29</v>
+      </c>
+      <c r="N59" t="s">
+        <v>30</v>
+      </c>
+      <c r="O59" t="s">
+        <v>237</v>
+      </c>
+      <c r="P59" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>33</v>
+      </c>
+      <c r="R59" t="s">
+        <v>34</v>
+      </c>
+      <c r="S59"/>
+    </row>
+    <row r="60" spans="1:19">
+      <c r="A60" t="s">
+        <v>238</v>
+      </c>
+      <c r="B60" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60" t="s">
+        <v>21</v>
+      </c>
+      <c r="D60" t="s">
+        <v>22</v>
+      </c>
+      <c r="E60" t="s">
+        <v>239</v>
+      </c>
+      <c r="F60" t="s">
+        <v>240</v>
+      </c>
+      <c r="G60" t="s">
+        <v>25</v>
+      </c>
+      <c r="H60">
+        <v>300</v>
+      </c>
+      <c r="I60" t="s">
+        <v>26</v>
+      </c>
+      <c r="J60" t="s">
+        <v>27</v>
+      </c>
+      <c r="K60" t="s">
+        <v>28</v>
+      </c>
+      <c r="L60"/>
+      <c r="M60" t="s">
+        <v>29</v>
+      </c>
+      <c r="N60" t="s">
+        <v>30</v>
+      </c>
+      <c r="O60" t="s">
+        <v>241</v>
+      </c>
+      <c r="P60" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>33</v>
+      </c>
+      <c r="R60" t="s">
+        <v>34</v>
+      </c>
+      <c r="S60"/>
+    </row>
+    <row r="61" spans="1:19">
+      <c r="A61" t="s">
+        <v>242</v>
+      </c>
+      <c r="B61" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61" t="s">
+        <v>21</v>
+      </c>
+      <c r="D61" t="s">
+        <v>22</v>
+      </c>
+      <c r="E61" t="s">
+        <v>243</v>
+      </c>
+      <c r="F61" t="s">
+        <v>244</v>
+      </c>
+      <c r="G61" t="s">
+        <v>25</v>
+      </c>
+      <c r="H61">
+        <v>300</v>
+      </c>
+      <c r="I61" t="s">
+        <v>26</v>
+      </c>
+      <c r="J61" t="s">
+        <v>27</v>
+      </c>
+      <c r="K61" t="s">
+        <v>28</v>
+      </c>
+      <c r="L61"/>
+      <c r="M61" t="s">
+        <v>29</v>
+      </c>
+      <c r="N61" t="s">
+        <v>30</v>
+      </c>
+      <c r="O61" t="s">
+        <v>245</v>
+      </c>
+      <c r="P61" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>33</v>
+      </c>
+      <c r="R61" t="s">
+        <v>34</v>
+      </c>
+      <c r="S61"/>
+    </row>
+    <row r="62" spans="1:19">
+      <c r="A62" t="s">
+        <v>246</v>
+      </c>
+      <c r="B62" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62" t="s">
+        <v>22</v>
+      </c>
+      <c r="E62" t="s">
+        <v>247</v>
+      </c>
+      <c r="F62" t="s">
+        <v>248</v>
+      </c>
+      <c r="G62" t="s">
+        <v>25</v>
+      </c>
+      <c r="H62">
+        <v>300</v>
+      </c>
+      <c r="I62" t="s">
+        <v>26</v>
+      </c>
+      <c r="J62" t="s">
+        <v>27</v>
+      </c>
+      <c r="K62" t="s">
+        <v>28</v>
+      </c>
+      <c r="L62"/>
+      <c r="M62" t="s">
+        <v>29</v>
+      </c>
+      <c r="N62" t="s">
+        <v>30</v>
+      </c>
+      <c r="O62" t="s">
+        <v>249</v>
+      </c>
+      <c r="P62" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>33</v>
+      </c>
+      <c r="R62" t="s">
+        <v>34</v>
+      </c>
+      <c r="S62"/>
+    </row>
+    <row r="63" spans="1:19">
+      <c r="A63" t="s">
+        <v>251</v>
+      </c>
+      <c r="B63" t="s">
+        <v>20</v>
+      </c>
+      <c r="C63" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63" t="s">
+        <v>22</v>
+      </c>
+      <c r="E63" t="s">
+        <v>247</v>
+      </c>
+      <c r="F63" t="s">
+        <v>252</v>
+      </c>
+      <c r="G63" t="s">
+        <v>25</v>
+      </c>
+      <c r="H63">
+        <v>300</v>
+      </c>
+      <c r="I63" t="s">
+        <v>26</v>
+      </c>
+      <c r="J63" t="s">
+        <v>27</v>
+      </c>
+      <c r="K63" t="s">
+        <v>28</v>
+      </c>
+      <c r="L63"/>
+      <c r="M63" t="s">
+        <v>29</v>
+      </c>
+      <c r="N63" t="s">
+        <v>30</v>
+      </c>
+      <c r="O63" t="s">
+        <v>253</v>
+      </c>
+      <c r="P63" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>33</v>
+      </c>
+      <c r="R63" t="s">
+        <v>34</v>
+      </c>
+      <c r="S63"/>
+    </row>
+    <row r="64" spans="1:19">
+      <c r="A64" t="s">
+        <v>254</v>
+      </c>
+      <c r="B64" t="s">
+        <v>20</v>
+      </c>
+      <c r="C64" t="s">
+        <v>21</v>
+      </c>
+      <c r="D64" t="s">
+        <v>22</v>
+      </c>
+      <c r="E64" t="s">
+        <v>255</v>
+      </c>
+      <c r="F64" t="s">
+        <v>256</v>
+      </c>
+      <c r="G64" t="s">
+        <v>25</v>
+      </c>
+      <c r="H64">
+        <v>300</v>
+      </c>
+      <c r="I64" t="s">
+        <v>26</v>
+      </c>
+      <c r="J64" t="s">
+        <v>27</v>
+      </c>
+      <c r="K64" t="s">
+        <v>28</v>
+      </c>
+      <c r="L64"/>
+      <c r="M64" t="s">
+        <v>29</v>
+      </c>
+      <c r="N64" t="s">
+        <v>30</v>
+      </c>
+      <c r="O64" t="s">
+        <v>257</v>
+      </c>
+      <c r="P64" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>33</v>
+      </c>
+      <c r="R64" t="s">
+        <v>34</v>
+      </c>
+      <c r="S64"/>
+    </row>
+    <row r="65" spans="1:19">
+      <c r="A65" t="s">
+        <v>258</v>
+      </c>
+      <c r="B65" t="s">
+        <v>20</v>
+      </c>
+      <c r="C65" t="s">
+        <v>21</v>
+      </c>
+      <c r="D65" t="s">
+        <v>22</v>
+      </c>
+      <c r="E65" t="s">
+        <v>255</v>
+      </c>
+      <c r="F65" t="s">
+        <v>259</v>
+      </c>
+      <c r="G65" t="s">
+        <v>25</v>
+      </c>
+      <c r="H65">
+        <v>300</v>
+      </c>
+      <c r="I65" t="s">
+        <v>26</v>
+      </c>
+      <c r="J65" t="s">
+        <v>27</v>
+      </c>
+      <c r="K65" t="s">
+        <v>28</v>
+      </c>
+      <c r="L65"/>
+      <c r="M65" t="s">
+        <v>29</v>
+      </c>
+      <c r="N65" t="s">
+        <v>30</v>
+      </c>
+      <c r="O65" t="s">
+        <v>260</v>
+      </c>
+      <c r="P65" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>33</v>
+      </c>
+      <c r="R65" t="s">
+        <v>34</v>
+      </c>
+      <c r="S65"/>
+    </row>
+    <row r="66" spans="1:19">
+      <c r="A66" t="s">
+        <v>261</v>
+      </c>
+      <c r="B66" t="s">
+        <v>20</v>
+      </c>
+      <c r="C66" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66" t="s">
+        <v>22</v>
+      </c>
+      <c r="E66" t="s">
+        <v>262</v>
+      </c>
+      <c r="F66" t="s">
+        <v>263</v>
+      </c>
+      <c r="G66" t="s">
+        <v>25</v>
+      </c>
+      <c r="H66">
+        <v>106</v>
+      </c>
+      <c r="I66" t="s">
+        <v>26</v>
+      </c>
+      <c r="J66" t="s">
+        <v>27</v>
+      </c>
+      <c r="K66" t="s">
+        <v>28</v>
+      </c>
+      <c r="L66"/>
+      <c r="M66" t="s">
+        <v>29</v>
+      </c>
+      <c r="N66" t="s">
+        <v>30</v>
+      </c>
+      <c r="O66" t="s">
+        <v>264</v>
+      </c>
+      <c r="P66" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>33</v>
+      </c>
+      <c r="R66" t="s">
+        <v>34</v>
+      </c>
+      <c r="S66"/>
+    </row>
+    <row r="67" spans="1:19">
+      <c r="A67" t="s">
+        <v>265</v>
+      </c>
+      <c r="B67" t="s">
+        <v>20</v>
+      </c>
+      <c r="C67" t="s">
+        <v>21</v>
+      </c>
+      <c r="D67" t="s">
+        <v>22</v>
+      </c>
+      <c r="E67" t="s">
+        <v>262</v>
+      </c>
+      <c r="F67" t="s">
+        <v>266</v>
+      </c>
+      <c r="G67" t="s">
+        <v>25</v>
+      </c>
+      <c r="H67">
+        <v>106</v>
+      </c>
+      <c r="I67" t="s">
+        <v>26</v>
+      </c>
+      <c r="J67" t="s">
+        <v>27</v>
+      </c>
+      <c r="K67" t="s">
+        <v>28</v>
+      </c>
+      <c r="L67"/>
+      <c r="M67" t="s">
+        <v>29</v>
+      </c>
+      <c r="N67" t="s">
+        <v>30</v>
+      </c>
+      <c r="O67" t="s">
+        <v>267</v>
+      </c>
+      <c r="P67" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>33</v>
+      </c>
+      <c r="R67" t="s">
+        <v>34</v>
+      </c>
+      <c r="S67"/>
+    </row>
+    <row r="68" spans="1:19">
+      <c r="A68" t="s">
+        <v>268</v>
+      </c>
+      <c r="B68" t="s">
+        <v>20</v>
+      </c>
+      <c r="C68" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68" t="s">
+        <v>22</v>
+      </c>
+      <c r="E68" t="s">
+        <v>269</v>
+      </c>
+      <c r="F68" t="s">
+        <v>270</v>
+      </c>
+      <c r="G68" t="s">
+        <v>25</v>
+      </c>
+      <c r="H68">
+        <v>300</v>
+      </c>
+      <c r="I68" t="s">
+        <v>26</v>
+      </c>
+      <c r="J68" t="s">
+        <v>27</v>
+      </c>
+      <c r="K68" t="s">
+        <v>28</v>
+      </c>
+      <c r="L68"/>
+      <c r="M68" t="s">
+        <v>29</v>
+      </c>
+      <c r="N68" t="s">
+        <v>30</v>
+      </c>
+      <c r="O68" t="s">
+        <v>271</v>
+      </c>
+      <c r="P68" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>33</v>
+      </c>
+      <c r="R68" t="s">
+        <v>34</v>
+      </c>
+      <c r="S68"/>
+    </row>
+    <row r="69" spans="1:19">
+      <c r="A69" t="s">
+        <v>272</v>
+      </c>
+      <c r="B69" t="s">
+        <v>20</v>
+      </c>
+      <c r="C69" t="s">
+        <v>21</v>
+      </c>
+      <c r="D69" t="s">
+        <v>22</v>
+      </c>
+      <c r="E69" t="s">
+        <v>269</v>
+      </c>
+      <c r="F69" t="s">
+        <v>273</v>
+      </c>
+      <c r="G69" t="s">
+        <v>25</v>
+      </c>
+      <c r="H69">
+        <v>300</v>
+      </c>
+      <c r="I69" t="s">
+        <v>26</v>
+      </c>
+      <c r="J69" t="s">
+        <v>27</v>
+      </c>
+      <c r="K69" t="s">
+        <v>28</v>
+      </c>
+      <c r="L69"/>
+      <c r="M69" t="s">
+        <v>29</v>
+      </c>
+      <c r="N69" t="s">
+        <v>30</v>
+      </c>
+      <c r="O69" t="s">
+        <v>274</v>
+      </c>
+      <c r="P69" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>33</v>
+      </c>
+      <c r="R69" t="s">
+        <v>34</v>
+      </c>
+      <c r="S69"/>
+    </row>
+    <row r="70" spans="1:19">
+      <c r="A70" t="s">
+        <v>275</v>
+      </c>
+      <c r="B70" t="s">
+        <v>20</v>
+      </c>
+      <c r="C70" t="s">
+        <v>21</v>
+      </c>
+      <c r="D70" t="s">
+        <v>22</v>
+      </c>
+      <c r="E70" t="s">
+        <v>269</v>
+      </c>
+      <c r="F70" t="s">
+        <v>276</v>
+      </c>
+      <c r="G70" t="s">
+        <v>25</v>
+      </c>
+      <c r="H70">
+        <v>300</v>
+      </c>
+      <c r="I70" t="s">
+        <v>26</v>
+      </c>
+      <c r="J70" t="s">
+        <v>27</v>
+      </c>
+      <c r="K70" t="s">
+        <v>28</v>
+      </c>
+      <c r="L70"/>
+      <c r="M70" t="s">
+        <v>29</v>
+      </c>
+      <c r="N70" t="s">
+        <v>30</v>
+      </c>
+      <c r="O70" t="s">
+        <v>277</v>
+      </c>
+      <c r="P70" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>33</v>
+      </c>
+      <c r="R70" t="s">
+        <v>34</v>
+      </c>
+      <c r="S70"/>
+    </row>
+    <row r="71" spans="1:19">
+      <c r="A71" t="s">
+        <v>278</v>
+      </c>
+      <c r="B71" t="s">
+        <v>20</v>
+      </c>
+      <c r="C71" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" t="s">
+        <v>22</v>
+      </c>
+      <c r="E71" t="s">
+        <v>269</v>
+      </c>
+      <c r="F71" t="s">
+        <v>270</v>
+      </c>
+      <c r="G71" t="s">
+        <v>25</v>
+      </c>
+      <c r="H71">
+        <v>300</v>
+      </c>
+      <c r="I71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J71" t="s">
+        <v>27</v>
+      </c>
+      <c r="K71" t="s">
+        <v>28</v>
+      </c>
+      <c r="L71"/>
+      <c r="M71" t="s">
+        <v>29</v>
+      </c>
+      <c r="N71" t="s">
+        <v>30</v>
+      </c>
+      <c r="O71" t="s">
+        <v>279</v>
+      </c>
+      <c r="P71" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>33</v>
+      </c>
+      <c r="R71" t="s">
+        <v>34</v>
+      </c>
+      <c r="S71"/>
+    </row>
+    <row r="72" spans="1:19">
+      <c r="A72" t="s">
+        <v>280</v>
+      </c>
+      <c r="B72" t="s">
+        <v>20</v>
+      </c>
+      <c r="C72" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72" t="s">
+        <v>22</v>
+      </c>
+      <c r="E72" t="s">
+        <v>281</v>
+      </c>
+      <c r="F72" t="s">
+        <v>282</v>
+      </c>
+      <c r="G72" t="s">
+        <v>25</v>
+      </c>
+      <c r="H72">
+        <v>15</v>
+      </c>
+      <c r="I72" t="s">
+        <v>26</v>
+      </c>
+      <c r="J72" t="s">
+        <v>27</v>
+      </c>
+      <c r="K72" t="s">
+        <v>28</v>
+      </c>
+      <c r="L72"/>
+      <c r="M72" t="s">
+        <v>29</v>
+      </c>
+      <c r="N72" t="s">
+        <v>30</v>
+      </c>
+      <c r="O72" t="s">
+        <v>283</v>
+      </c>
+      <c r="P72" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>33</v>
+      </c>
+      <c r="R72" t="s">
+        <v>34</v>
+      </c>
+      <c r="S72"/>
+    </row>
+    <row r="73" spans="1:19">
+      <c r="A73" t="s">
+        <v>284</v>
+      </c>
+      <c r="B73" t="s">
+        <v>20</v>
+      </c>
+      <c r="C73" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" t="s">
+        <v>22</v>
+      </c>
+      <c r="E73" t="s">
+        <v>285</v>
+      </c>
+      <c r="F73" t="s">
+        <v>286</v>
+      </c>
+      <c r="G73" t="s">
+        <v>25</v>
+      </c>
+      <c r="H73">
+        <v>15</v>
+      </c>
+      <c r="I73" t="s">
+        <v>26</v>
+      </c>
+      <c r="J73" t="s">
+        <v>27</v>
+      </c>
+      <c r="K73" t="s">
+        <v>28</v>
+      </c>
+      <c r="L73"/>
+      <c r="M73" t="s">
+        <v>29</v>
+      </c>
+      <c r="N73" t="s">
+        <v>30</v>
+      </c>
+      <c r="O73" t="s">
+        <v>287</v>
+      </c>
+      <c r="P73" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>33</v>
+      </c>
+      <c r="R73" t="s">
+        <v>34</v>
+      </c>
+      <c r="S73"/>
+    </row>
+    <row r="74" spans="1:19">
+      <c r="A74" t="s">
+        <v>288</v>
+      </c>
+      <c r="B74" t="s">
+        <v>20</v>
+      </c>
+      <c r="C74" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74" t="s">
+        <v>22</v>
+      </c>
+      <c r="E74" t="s">
+        <v>289</v>
+      </c>
+      <c r="F74" t="s">
+        <v>290</v>
+      </c>
+      <c r="G74" t="s">
+        <v>25</v>
+      </c>
+      <c r="H74">
+        <v>270</v>
+      </c>
+      <c r="I74" t="s">
+        <v>26</v>
+      </c>
+      <c r="J74" t="s">
+        <v>27</v>
+      </c>
+      <c r="K74" t="s">
+        <v>28</v>
+      </c>
+      <c r="L74"/>
+      <c r="M74" t="s">
+        <v>29</v>
+      </c>
+      <c r="N74" t="s">
+        <v>30</v>
+      </c>
+      <c r="O74" t="s">
+        <v>291</v>
+      </c>
+      <c r="P74" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>33</v>
+      </c>
+      <c r="R74" t="s">
+        <v>34</v>
+      </c>
+      <c r="S74"/>
+    </row>
+    <row r="75" spans="1:19">
+      <c r="A75" t="s">
+        <v>292</v>
+      </c>
+      <c r="B75" t="s">
+        <v>20</v>
+      </c>
+      <c r="C75" t="s">
+        <v>21</v>
+      </c>
+      <c r="D75" t="s">
+        <v>22</v>
+      </c>
+      <c r="E75" t="s">
+        <v>289</v>
+      </c>
+      <c r="F75" t="s">
+        <v>293</v>
+      </c>
+      <c r="G75" t="s">
+        <v>25</v>
+      </c>
+      <c r="H75">
+        <v>270</v>
+      </c>
+      <c r="I75" t="s">
+        <v>26</v>
+      </c>
+      <c r="J75" t="s">
+        <v>27</v>
+      </c>
+      <c r="K75" t="s">
+        <v>28</v>
+      </c>
+      <c r="L75"/>
+      <c r="M75" t="s">
+        <v>29</v>
+      </c>
+      <c r="N75" t="s">
+        <v>30</v>
+      </c>
+      <c r="O75" t="s">
+        <v>294</v>
+      </c>
+      <c r="P75" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>33</v>
+      </c>
+      <c r="R75" t="s">
+        <v>34</v>
+      </c>
+      <c r="S75"/>
+    </row>
+    <row r="76" spans="1:19">
+      <c r="A76" t="s">
+        <v>295</v>
+      </c>
+      <c r="B76" t="s">
+        <v>20</v>
+      </c>
+      <c r="C76" t="s">
+        <v>21</v>
+      </c>
+      <c r="D76" t="s">
+        <v>22</v>
+      </c>
+      <c r="E76" t="s">
+        <v>289</v>
+      </c>
+      <c r="F76" t="s">
+        <v>290</v>
+      </c>
+      <c r="G76" t="s">
+        <v>25</v>
+      </c>
+      <c r="H76">
+        <v>270</v>
+      </c>
+      <c r="I76" t="s">
+        <v>26</v>
+      </c>
+      <c r="J76" t="s">
+        <v>27</v>
+      </c>
+      <c r="K76" t="s">
+        <v>28</v>
+      </c>
+      <c r="L76"/>
+      <c r="M76" t="s">
+        <v>29</v>
+      </c>
+      <c r="N76" t="s">
+        <v>30</v>
+      </c>
+      <c r="O76" t="s">
+        <v>296</v>
+      </c>
+      <c r="P76" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>33</v>
+      </c>
+      <c r="R76" t="s">
+        <v>34</v>
+      </c>
+      <c r="S76"/>
+    </row>
+    <row r="77" spans="1:19">
+      <c r="A77" t="s">
+        <v>297</v>
+      </c>
+      <c r="B77" t="s">
+        <v>20</v>
+      </c>
+      <c r="C77" t="s">
+        <v>21</v>
+      </c>
+      <c r="D77" t="s">
+        <v>22</v>
+      </c>
+      <c r="E77" t="s">
+        <v>289</v>
+      </c>
+      <c r="F77" t="s">
+        <v>298</v>
+      </c>
+      <c r="G77" t="s">
+        <v>25</v>
+      </c>
+      <c r="H77">
+        <v>270</v>
+      </c>
+      <c r="I77" t="s">
+        <v>26</v>
+      </c>
+      <c r="J77" t="s">
+        <v>27</v>
+      </c>
+      <c r="K77" t="s">
+        <v>28</v>
+      </c>
+      <c r="L77"/>
+      <c r="M77" t="s">
+        <v>29</v>
+      </c>
+      <c r="N77" t="s">
+        <v>30</v>
+      </c>
+      <c r="O77" t="s">
+        <v>299</v>
+      </c>
+      <c r="P77" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>33</v>
+      </c>
+      <c r="R77" t="s">
+        <v>34</v>
+      </c>
+      <c r="S77"/>
+    </row>
+    <row r="78" spans="1:19">
+      <c r="A78" t="s">
+        <v>300</v>
+      </c>
+      <c r="B78" t="s">
+        <v>20</v>
+      </c>
+      <c r="C78" t="s">
+        <v>21</v>
+      </c>
+      <c r="D78" t="s">
+        <v>22</v>
+      </c>
+      <c r="E78" t="s">
+        <v>301</v>
+      </c>
+      <c r="F78" t="s">
+        <v>302</v>
+      </c>
+      <c r="G78" t="s">
+        <v>25</v>
+      </c>
+      <c r="H78">
+        <v>3660</v>
+      </c>
+      <c r="I78" t="s">
+        <v>26</v>
+      </c>
+      <c r="J78" t="s">
+        <v>27</v>
+      </c>
+      <c r="K78" t="s">
+        <v>28</v>
+      </c>
+      <c r="L78"/>
+      <c r="M78" t="s">
+        <v>29</v>
+      </c>
+      <c r="N78" t="s">
+        <v>30</v>
+      </c>
+      <c r="O78" t="s">
+        <v>303</v>
+      </c>
+      <c r="P78" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>33</v>
+      </c>
+      <c r="R78" t="s">
+        <v>34</v>
+      </c>
+      <c r="S78" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19">
+      <c r="A79" t="s">
+        <v>305</v>
+      </c>
+      <c r="B79" t="s">
+        <v>20</v>
+      </c>
+      <c r="C79" t="s">
+        <v>21</v>
+      </c>
+      <c r="D79" t="s">
+        <v>22</v>
+      </c>
+      <c r="E79" t="s">
+        <v>301</v>
+      </c>
+      <c r="F79" t="s">
+        <v>306</v>
+      </c>
+      <c r="G79" t="s">
+        <v>25</v>
+      </c>
+      <c r="H79">
+        <v>3660</v>
+      </c>
+      <c r="I79" t="s">
+        <v>26</v>
+      </c>
+      <c r="J79" t="s">
+        <v>27</v>
+      </c>
+      <c r="K79" t="s">
+        <v>28</v>
+      </c>
+      <c r="L79"/>
+      <c r="M79" t="s">
+        <v>29</v>
+      </c>
+      <c r="N79" t="s">
+        <v>30</v>
+      </c>
+      <c r="O79" t="s">
+        <v>307</v>
+      </c>
+      <c r="P79" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>33</v>
+      </c>
+      <c r="R79" t="s">
+        <v>34</v>
+      </c>
+      <c r="S79" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19">
+      <c r="A80" t="s">
+        <v>308</v>
+      </c>
+      <c r="B80" t="s">
+        <v>20</v>
+      </c>
+      <c r="C80" t="s">
+        <v>21</v>
+      </c>
+      <c r="D80" t="s">
+        <v>22</v>
+      </c>
+      <c r="E80" t="s">
+        <v>301</v>
+      </c>
+      <c r="F80" t="s">
+        <v>309</v>
+      </c>
+      <c r="G80" t="s">
+        <v>25</v>
+      </c>
+      <c r="H80">
+        <v>3660</v>
+      </c>
+      <c r="I80" t="s">
+        <v>26</v>
+      </c>
+      <c r="J80" t="s">
+        <v>27</v>
+      </c>
+      <c r="K80" t="s">
+        <v>28</v>
+      </c>
+      <c r="L80"/>
+      <c r="M80" t="s">
+        <v>29</v>
+      </c>
+      <c r="N80" t="s">
+        <v>30</v>
+      </c>
+      <c r="O80" t="s">
+        <v>310</v>
+      </c>
+      <c r="P80" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>33</v>
+      </c>
+      <c r="R80" t="s">
+        <v>34</v>
+      </c>
+      <c r="S80" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19">
+      <c r="A81" t="s">
+        <v>311</v>
+      </c>
+      <c r="B81" t="s">
+        <v>20</v>
+      </c>
+      <c r="C81" t="s">
+        <v>21</v>
+      </c>
+      <c r="D81" t="s">
+        <v>22</v>
+      </c>
+      <c r="E81" t="s">
+        <v>312</v>
+      </c>
+      <c r="F81" t="s">
+        <v>313</v>
+      </c>
+      <c r="G81" t="s">
+        <v>25</v>
+      </c>
+      <c r="H81">
+        <v>3660</v>
+      </c>
+      <c r="I81" t="s">
+        <v>26</v>
+      </c>
+      <c r="J81" t="s">
+        <v>27</v>
+      </c>
+      <c r="K81" t="s">
+        <v>28</v>
+      </c>
+      <c r="L81"/>
+      <c r="M81" t="s">
+        <v>29</v>
+      </c>
+      <c r="N81" t="s">
+        <v>30</v>
+      </c>
+      <c r="O81" t="s">
+        <v>314</v>
+      </c>
+      <c r="P81" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>33</v>
+      </c>
+      <c r="R81" t="s">
+        <v>34</v>
+      </c>
+      <c r="S81" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19">
+      <c r="A82" t="s">
+        <v>315</v>
+      </c>
+      <c r="B82" t="s">
+        <v>20</v>
+      </c>
+      <c r="C82" t="s">
+        <v>21</v>
+      </c>
+      <c r="D82" t="s">
+        <v>22</v>
+      </c>
+      <c r="E82" t="s">
+        <v>312</v>
+      </c>
+      <c r="F82" t="s">
+        <v>316</v>
+      </c>
+      <c r="G82" t="s">
+        <v>25</v>
+      </c>
+      <c r="H82">
+        <v>3660</v>
+      </c>
+      <c r="I82" t="s">
+        <v>26</v>
+      </c>
+      <c r="J82" t="s">
+        <v>27</v>
+      </c>
+      <c r="K82" t="s">
+        <v>28</v>
+      </c>
+      <c r="L82"/>
+      <c r="M82" t="s">
+        <v>29</v>
+      </c>
+      <c r="N82" t="s">
+        <v>30</v>
+      </c>
+      <c r="O82" t="s">
+        <v>317</v>
+      </c>
+      <c r="P82" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>33</v>
+      </c>
+      <c r="R82" t="s">
+        <v>34</v>
+      </c>
+      <c r="S82" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19">
+      <c r="A83" t="s">
+        <v>318</v>
+      </c>
+      <c r="B83" t="s">
+        <v>20</v>
+      </c>
+      <c r="C83" t="s">
+        <v>21</v>
+      </c>
+      <c r="D83" t="s">
+        <v>22</v>
+      </c>
+      <c r="E83" t="s">
+        <v>319</v>
+      </c>
+      <c r="F83" t="s">
+        <v>320</v>
+      </c>
+      <c r="G83" t="s">
+        <v>25</v>
+      </c>
+      <c r="H83">
+        <v>3660</v>
+      </c>
+      <c r="I83" t="s">
+        <v>26</v>
+      </c>
+      <c r="J83" t="s">
+        <v>27</v>
+      </c>
+      <c r="K83" t="s">
+        <v>28</v>
+      </c>
+      <c r="L83"/>
+      <c r="M83" t="s">
+        <v>29</v>
+      </c>
+      <c r="N83" t="s">
+        <v>30</v>
+      </c>
+      <c r="O83" t="s">
+        <v>321</v>
+      </c>
+      <c r="P83" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>33</v>
+      </c>
+      <c r="R83" t="s">
+        <v>34</v>
+      </c>
+      <c r="S83" t="s">
+        <v>304</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
